--- a/JupyterNotebooks/AvgHW/SA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9963241459264348</v>
+      </c>
+      <c r="D3">
+        <v>1.001530269177128</v>
+      </c>
+      <c r="E3">
+        <v>0.9988377047892119</v>
+      </c>
+      <c r="F3">
+        <v>1.002025598748298</v>
+      </c>
+      <c r="G3">
         <v>1.004030674820005</v>
       </c>
-      <c r="D3">
-        <v>0.9942834129731773</v>
-      </c>
-      <c r="E3">
-        <v>1.001174272573899</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.004030674820005</v>
-      </c>
-      <c r="G3">
-        <v>0.9988377047892119</v>
-      </c>
-      <c r="H3">
-        <v>1.002025598748298</v>
       </c>
       <c r="I3">
         <v>1.004030674820005</v>
       </c>
       <c r="J3">
+        <v>1.001174272573899</v>
+      </c>
+      <c r="K3">
         <v>0.9942834129731773</v>
       </c>
-      <c r="K3">
+      <c r="L3">
+        <v>0.9942834129731773</v>
+      </c>
+      <c r="M3">
         <v>0.9987983899949526</v>
-      </c>
-      <c r="L3">
-        <v>1.001530269177128</v>
-      </c>
-      <c r="M3">
-        <v>0.9963241459264348</v>
       </c>
       <c r="N3">
         <v>1.004030674820005</v>
@@ -821,10 +713,10 @@
         <v>1.00047134799526</v>
       </c>
       <c r="W3">
-        <v>0.9996255586253884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9996255586253883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9928934473304042</v>
+      </c>
+      <c r="D4">
+        <v>1.002939635686258</v>
+      </c>
+      <c r="E4">
+        <v>0.9977493793817814</v>
+      </c>
+      <c r="F4">
+        <v>1.003926469778331</v>
+      </c>
+      <c r="G4">
         <v>1.007736514915124</v>
       </c>
-      <c r="D4">
-        <v>0.9889478267409232</v>
-      </c>
-      <c r="E4">
-        <v>1.002311537330295</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.007736514915124</v>
-      </c>
-      <c r="G4">
-        <v>0.9977493793817814</v>
-      </c>
-      <c r="H4">
-        <v>1.003926469778331</v>
       </c>
       <c r="I4">
         <v>1.007736514915124</v>
       </c>
       <c r="J4">
+        <v>1.002311537330295</v>
+      </c>
+      <c r="K4">
         <v>0.9889478267409232</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0.9889478267409232</v>
+      </c>
+      <c r="M4">
         <v>0.9976942831919191</v>
-      </c>
-      <c r="L4">
-        <v>1.002939635686258</v>
-      </c>
-      <c r="M4">
-        <v>0.9928934473304042</v>
       </c>
       <c r="N4">
         <v>1.007736514915124</v>
@@ -895,7 +787,7 @@
         <v>0.9992748867943795</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9863946363466984</v>
+      </c>
+      <c r="D5">
+        <v>1.005655441823875</v>
+      </c>
+      <c r="E5">
+        <v>0.9956993025183521</v>
+      </c>
+      <c r="F5">
+        <v>1.007502745910392</v>
+      </c>
+      <c r="G5">
         <v>1.014880303423631</v>
       </c>
-      <c r="D5">
-        <v>0.9788374085024651</v>
-      </c>
-      <c r="E5">
-        <v>1.004369010978778</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.014880303423631</v>
-      </c>
-      <c r="G5">
-        <v>0.9956993025183521</v>
-      </c>
-      <c r="H5">
-        <v>1.007502745910392</v>
       </c>
       <c r="I5">
         <v>1.014880303423631</v>
       </c>
       <c r="J5">
+        <v>1.004369010978778</v>
+      </c>
+      <c r="K5">
         <v>0.9788374085024651</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>0.9788374085024651</v>
+      </c>
+      <c r="M5">
         <v>0.9955629597598288</v>
-      </c>
-      <c r="L5">
-        <v>1.005655441823875</v>
-      </c>
-      <c r="M5">
-        <v>0.9863946363466984</v>
       </c>
       <c r="N5">
         <v>1.014880303423631</v>
@@ -966,7 +858,7 @@
         <v>0.9986127261580025</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9800483918043589</v>
+      </c>
+      <c r="D6">
+        <v>1.008284340184601</v>
+      </c>
+      <c r="E6">
+        <v>0.9936852739453679</v>
+      </c>
+      <c r="F6">
+        <v>1.010992326708033</v>
+      </c>
+      <c r="G6">
         <v>1.021864913483174</v>
       </c>
-      <c r="D6">
-        <v>0.9689540857708678</v>
-      </c>
-      <c r="E6">
-        <v>1.006397349150147</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.021864913483174</v>
-      </c>
-      <c r="G6">
-        <v>0.9936852739453682</v>
-      </c>
-      <c r="H6">
-        <v>1.010992326708033</v>
       </c>
       <c r="I6">
         <v>1.021864913483174</v>
       </c>
       <c r="J6">
+        <v>1.006397349150147</v>
+      </c>
+      <c r="K6">
         <v>0.9689540857708678</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0.9689540857708678</v>
+      </c>
+      <c r="M6">
         <v>0.993503476865077</v>
-      </c>
-      <c r="L6">
-        <v>1.008284340184601</v>
-      </c>
-      <c r="M6">
-        <v>0.9800483918043589</v>
       </c>
       <c r="N6">
         <v>1.021864913483174</v>
@@ -1016,19 +908,19 @@
         <v>0.9876757174605073</v>
       </c>
       <c r="Q6">
-        <v>1.000041311547758</v>
+        <v>1.000041311547757</v>
       </c>
       <c r="R6">
         <v>0.9990721161347297</v>
       </c>
       <c r="S6">
-        <v>0.989678902955461</v>
+        <v>0.9896789029554608</v>
       </c>
       <c r="T6">
         <v>0.9990721161347297</v>
       </c>
       <c r="U6">
-        <v>0.9977254055873893</v>
+        <v>0.9977254055873892</v>
       </c>
       <c r="V6">
         <v>1.002553307166546</v>
@@ -1037,7 +929,7 @@
         <v>0.9979662697389534</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,61 +937,61 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9996918392878383</v>
+      </c>
+      <c r="D7">
+        <v>1.000122939681833</v>
+      </c>
+      <c r="E7">
+        <v>0.999903593423667</v>
+      </c>
+      <c r="F7">
+        <v>1.000173401944798</v>
+      </c>
+      <c r="G7">
         <v>1.000312410730304</v>
       </c>
-      <c r="D7">
-        <v>0.9995181652892992</v>
-      </c>
-      <c r="E7">
-        <v>1.000113207166924</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.000312410730304</v>
-      </c>
-      <c r="G7">
-        <v>0.9999035934236672</v>
-      </c>
-      <c r="H7">
-        <v>1.000173401944798</v>
       </c>
       <c r="I7">
         <v>1.000312410730304</v>
       </c>
       <c r="J7">
+        <v>1.000113207166925</v>
+      </c>
+      <c r="K7">
         <v>0.9995181652892992</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>0.9995181652892992</v>
+      </c>
+      <c r="M7">
         <v>0.9999059816387509</v>
-      </c>
-      <c r="L7">
-        <v>1.000122939681833</v>
-      </c>
-      <c r="M7">
-        <v>0.9996918392878386</v>
       </c>
       <c r="N7">
         <v>1.000312410730304</v>
       </c>
       <c r="O7">
-        <v>1.000113207166924</v>
+        <v>1.000113207166925</v>
       </c>
       <c r="P7">
-        <v>0.9998156862281116</v>
+        <v>0.9998156862281118</v>
       </c>
       <c r="Q7">
         <v>1.000008400295296</v>
       </c>
       <c r="R7">
-        <v>0.9999812610621758</v>
+        <v>0.9999812610621759</v>
       </c>
       <c r="S7">
         <v>0.9998449886266302</v>
       </c>
       <c r="T7">
-        <v>0.9999812610621758</v>
+        <v>0.999981261062176</v>
       </c>
       <c r="U7">
-        <v>0.9999618441525486</v>
+        <v>0.9999618441525487</v>
       </c>
       <c r="V7">
         <v>1.0000319574681</v>
@@ -1108,7 +1000,7 @@
         <v>0.9999676923954268</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,55 +1008,55 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000934474691576</v>
+        <v>0.9991161729762265</v>
       </c>
       <c r="D8">
-        <v>0.9986262157221393</v>
+        <v>1.000361474567906</v>
       </c>
       <c r="E8">
+        <v>0.999721200770899</v>
+      </c>
+      <c r="F8">
+        <v>1.00049328556118</v>
+      </c>
+      <c r="G8">
+        <v>1.000934474691575</v>
+      </c>
+      <c r="H8">
+        <v>1.000934474691575</v>
+      </c>
+      <c r="I8">
+        <v>1.000934474691575</v>
+      </c>
+      <c r="J8">
         <v>1.000302547069694</v>
       </c>
-      <c r="F8">
-        <v>1.000934474691576</v>
-      </c>
-      <c r="G8">
-        <v>0.999721200770899</v>
-      </c>
-      <c r="H8">
-        <v>1.00049328556118</v>
-      </c>
-      <c r="I8">
-        <v>1.000934474691576</v>
-      </c>
-      <c r="J8">
-        <v>0.9986262157221393</v>
-      </c>
       <c r="K8">
+        <v>0.9986262157221392</v>
+      </c>
+      <c r="L8">
+        <v>0.9986262157221392</v>
+      </c>
+      <c r="M8">
         <v>0.9997175262154542</v>
       </c>
-      <c r="L8">
-        <v>1.000361474567906</v>
-      </c>
-      <c r="M8">
-        <v>0.9991161729762265</v>
-      </c>
       <c r="N8">
-        <v>1.000934474691576</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="O8">
         <v>1.000302547069694</v>
       </c>
       <c r="P8">
-        <v>0.9994643813959165</v>
+        <v>0.9994643813959168</v>
       </c>
       <c r="Q8">
-        <v>1.000011873920296</v>
+        <v>1.000011873920297</v>
       </c>
       <c r="R8">
         <v>0.9999544124944695</v>
       </c>
       <c r="S8">
-        <v>0.9995499878542441</v>
+        <v>0.9995499878542442</v>
       </c>
       <c r="T8">
         <v>0.9999544124944695</v>
@@ -1179,7 +1071,7 @@
         <v>0.9999091121968843</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.998696051673155</v>
+      </c>
+      <c r="D9">
+        <v>1.000552046249692</v>
+      </c>
+      <c r="E9">
+        <v>0.9995877258566215</v>
+      </c>
+      <c r="F9">
+        <v>1.000720807395803</v>
+      </c>
+      <c r="G9">
         <v>1.001440438978038</v>
       </c>
-      <c r="D9">
-        <v>0.9979861195068657</v>
-      </c>
-      <c r="E9">
-        <v>1.000405947549165</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.001440438978038</v>
-      </c>
-      <c r="G9">
-        <v>0.9995877258566215</v>
-      </c>
-      <c r="H9">
-        <v>1.000720807395803</v>
       </c>
       <c r="I9">
         <v>1.001440438978038</v>
       </c>
       <c r="J9">
+        <v>1.000405947549165</v>
+      </c>
+      <c r="K9">
         <v>0.9979861195068657</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>0.9979861195068657</v>
+      </c>
+      <c r="M9">
         <v>0.9995593993419013</v>
-      </c>
-      <c r="L9">
-        <v>1.000552046249692</v>
-      </c>
-      <c r="M9">
-        <v>0.998696051673155</v>
       </c>
       <c r="N9">
         <v>1.001440438978038</v>
@@ -1250,7 +1142,7 @@
         <v>0.9998685670689051</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.997254864932302</v>
+      </c>
+      <c r="D10">
+        <v>1.001149929592174</v>
+      </c>
+      <c r="E10">
+        <v>0.9991353085329882</v>
+      </c>
+      <c r="F10">
+        <v>1.001522063696984</v>
+      </c>
+      <c r="G10">
         <v>1.002982242803392</v>
       </c>
-      <c r="D10">
-        <v>0.9957473901222874</v>
-      </c>
-      <c r="E10">
-        <v>1.000883735563904</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>1.002982242803392</v>
-      </c>
-      <c r="G10">
-        <v>0.999135308532988</v>
-      </c>
-      <c r="H10">
-        <v>1.001522063696984</v>
       </c>
       <c r="I10">
         <v>1.002982242803392</v>
       </c>
       <c r="J10">
+        <v>1.000883735563904</v>
+      </c>
+      <c r="K10">
         <v>0.9957473901222874</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>0.9957473901222874</v>
+      </c>
+      <c r="M10">
         <v>0.9990907760313071</v>
-      </c>
-      <c r="L10">
-        <v>1.001149929592174</v>
-      </c>
-      <c r="M10">
-        <v>0.9972548649323018</v>
       </c>
       <c r="N10">
         <v>1.002982242803392</v>
@@ -1312,16 +1204,16 @@
         <v>0.9998711228298612</v>
       </c>
       <c r="U10">
-        <v>0.9996871692556429</v>
+        <v>0.999687169255643</v>
       </c>
       <c r="V10">
         <v>1.000346183965193</v>
       </c>
       <c r="W10">
-        <v>0.9997207889094174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9997207889094173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9952788902618869</v>
+      </c>
+      <c r="D11">
+        <v>1.002060937475767</v>
+      </c>
+      <c r="E11">
+        <v>0.9985085555032281</v>
+      </c>
+      <c r="F11">
+        <v>1.002581827118614</v>
+      </c>
+      <c r="G11">
         <v>1.005419217146351</v>
       </c>
-      <c r="D11">
-        <v>0.9927365734015435</v>
-      </c>
-      <c r="E11">
-        <v>1.001332630047377</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.005419217146351</v>
-      </c>
-      <c r="G11">
-        <v>0.9985085555032281</v>
-      </c>
-      <c r="H11">
-        <v>1.002581827118614</v>
       </c>
       <c r="I11">
         <v>1.005419217146351</v>
       </c>
       <c r="J11">
+        <v>1.001332630047377</v>
+      </c>
+      <c r="K11">
         <v>0.9927365734015435</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>0.9927365734015435</v>
+      </c>
+      <c r="M11">
         <v>0.9983329526473602</v>
-      </c>
-      <c r="L11">
-        <v>1.002060937475767</v>
-      </c>
-      <c r="M11">
-        <v>0.9952788902618869</v>
       </c>
       <c r="N11">
         <v>1.005419217146351</v>
@@ -1392,7 +1284,7 @@
         <v>0.9995314479502659</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9774863424794615</v>
+        <v>1.061015223892475</v>
       </c>
       <c r="D12">
+        <v>0.9883576925373623</v>
+      </c>
+      <c r="E12">
+        <v>1.01953218452695</v>
+      </c>
+      <c r="F12">
+        <v>0.9604670925591248</v>
+      </c>
+      <c r="G12">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="H12">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="I12">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="J12">
+        <v>0.9505485569072475</v>
+      </c>
+      <c r="K12">
         <v>1.101572376839192</v>
       </c>
-      <c r="E12">
-        <v>0.9505485569072476</v>
-      </c>
-      <c r="F12">
-        <v>0.9774863424794615</v>
-      </c>
-      <c r="G12">
-        <v>1.01953218452695</v>
-      </c>
-      <c r="H12">
-        <v>0.9604670925591248</v>
-      </c>
-      <c r="I12">
-        <v>0.9774863424794615</v>
-      </c>
-      <c r="J12">
+      <c r="L12">
         <v>1.101572376839192</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>1.003871022553245</v>
       </c>
-      <c r="L12">
-        <v>0.9883576925373623</v>
-      </c>
-      <c r="M12">
-        <v>1.061015223892474</v>
-      </c>
       <c r="N12">
-        <v>0.9774863424794615</v>
+        <v>0.9774863424794616</v>
       </c>
       <c r="O12">
-        <v>0.9505485569072476</v>
+        <v>0.9505485569072475</v>
       </c>
       <c r="P12">
         <v>1.02606046687322</v>
       </c>
       <c r="Q12">
-        <v>0.9850403707170986</v>
+        <v>0.9850403707170985</v>
       </c>
       <c r="R12">
         <v>1.0098690920753</v>
@@ -1457,13 +1349,13 @@
         <v>1.012284865188213</v>
       </c>
       <c r="V12">
-        <v>1.005325160646463</v>
+        <v>1.005325160646462</v>
       </c>
       <c r="W12">
         <v>1.007856311536882</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.010762408490879</v>
+      </c>
+      <c r="D13">
+        <v>0.991123002894932</v>
+      </c>
+      <c r="E13">
+        <v>1.004237912811714</v>
+      </c>
+      <c r="F13">
+        <v>0.9954697511380092</v>
+      </c>
+      <c r="G13">
         <v>0.9721750893580196</v>
       </c>
-      <c r="D13">
-        <v>1.01231569420085</v>
-      </c>
-      <c r="E13">
-        <v>1.006294907412056</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.9721750893580196</v>
-      </c>
-      <c r="G13">
-        <v>1.004237912811714</v>
-      </c>
-      <c r="H13">
-        <v>0.9954697511380093</v>
       </c>
       <c r="I13">
         <v>0.9721750893580196</v>
       </c>
       <c r="J13">
+        <v>1.006294907412056</v>
+      </c>
+      <c r="K13">
         <v>1.01231569420085</v>
       </c>
-      <c r="K13">
+      <c r="L13">
+        <v>1.01231569420085</v>
+      </c>
+      <c r="M13">
         <v>1.009885077154758</v>
-      </c>
-      <c r="L13">
-        <v>0.991123002894932</v>
-      </c>
-      <c r="M13">
-        <v>1.010762408490879</v>
       </c>
       <c r="N13">
         <v>0.9721750893580196</v>
@@ -1534,7 +1426,7 @@
         <v>1.000282980432652</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9779897521645777</v>
+      </c>
+      <c r="D14">
+        <v>0.9725594144423092</v>
+      </c>
+      <c r="E14">
+        <v>0.9935215584102146</v>
+      </c>
+      <c r="F14">
+        <v>1.027290050489767</v>
+      </c>
+      <c r="G14">
         <v>0.9036654660435756</v>
       </c>
-      <c r="D14">
-        <v>0.9452405328414936</v>
-      </c>
-      <c r="E14">
-        <v>1.086988736285105</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.9036654660435756</v>
-      </c>
-      <c r="G14">
-        <v>0.9935215584102146</v>
-      </c>
-      <c r="H14">
-        <v>1.027290050489767</v>
       </c>
       <c r="I14">
         <v>0.9036654660435756</v>
       </c>
       <c r="J14">
+        <v>1.086988736285105</v>
+      </c>
+      <c r="K14">
         <v>0.9452405328414936</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <v>0.9452405328414936</v>
+      </c>
+      <c r="M14">
         <v>1.037058679406568</v>
-      </c>
-      <c r="L14">
-        <v>0.9725594144423092</v>
-      </c>
-      <c r="M14">
-        <v>0.9779897521645777</v>
       </c>
       <c r="N14">
         <v>0.9036654660435756</v>
@@ -1605,7 +1497,7 @@
         <v>0.9930392737604512</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.009087550820412</v>
+      </c>
+      <c r="D15">
+        <v>1.011090610839789</v>
+      </c>
+      <c r="E15">
+        <v>1.002261021031787</v>
+      </c>
+      <c r="F15">
+        <v>0.9891305111134</v>
+      </c>
+      <c r="G15">
         <v>1.039590635995852</v>
       </c>
-      <c r="D15">
-        <v>1.023633834190518</v>
-      </c>
-      <c r="E15">
-        <v>0.9646500282427001</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.039590635995852</v>
-      </c>
-      <c r="G15">
-        <v>1.002261021031787</v>
-      </c>
-      <c r="H15">
-        <v>0.9891305111133997</v>
       </c>
       <c r="I15">
         <v>1.039590635995852</v>
       </c>
       <c r="J15">
+        <v>0.9646500282427001</v>
+      </c>
+      <c r="K15">
         <v>1.023633834190518</v>
       </c>
-      <c r="K15">
-        <v>0.9843833678308226</v>
-      </c>
       <c r="L15">
-        <v>1.011090610839789</v>
+        <v>1.023633834190518</v>
       </c>
       <c r="M15">
-        <v>1.009087550820412</v>
+        <v>0.9843833678308225</v>
       </c>
       <c r="N15">
         <v>1.039590635995852</v>
@@ -1655,13 +1547,13 @@
         <v>0.9941419312166091</v>
       </c>
       <c r="Q15">
-        <v>0.9834555246372438</v>
+        <v>0.9834555246372436</v>
       </c>
       <c r="R15">
         <v>1.009291499476357</v>
       </c>
       <c r="S15">
-        <v>0.9968482944883353</v>
+        <v>0.9968482944883351</v>
       </c>
       <c r="T15">
         <v>1.009291499476357</v>
@@ -1676,7 +1568,7 @@
         <v>1.00297844500816</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000233504134059</v>
+        <v>0.9282028823394345</v>
       </c>
       <c r="D16">
-        <v>1.000121523469163</v>
+        <v>1.02970830043809</v>
       </c>
       <c r="E16">
-        <v>0.9998237421471238</v>
+        <v>0.9771824813840072</v>
       </c>
       <c r="F16">
-        <v>1.000233504134059</v>
+        <v>1.039710498062722</v>
       </c>
       <c r="G16">
-        <v>0.9999981104507403</v>
+        <v>1.078343622117813</v>
       </c>
       <c r="H16">
-        <v>0.9999556376209234</v>
+        <v>1.078343622117813</v>
       </c>
       <c r="I16">
-        <v>1.000233504134059</v>
+        <v>1.078343622117813</v>
       </c>
       <c r="J16">
-        <v>1.000121523469163</v>
+        <v>1.023323482780629</v>
       </c>
       <c r="K16">
-        <v>0.9999067687736574</v>
+        <v>0.888549403141576</v>
       </c>
       <c r="L16">
-        <v>1.000059746565682</v>
+        <v>0.888549403141576</v>
       </c>
       <c r="M16">
-        <v>1.000033947390351</v>
+        <v>0.9765852745735409</v>
       </c>
       <c r="N16">
-        <v>1.000233504134059</v>
+        <v>1.078343622117813</v>
       </c>
       <c r="O16">
-        <v>0.9998237421471238</v>
+        <v>1.023323482780629</v>
       </c>
       <c r="P16">
-        <v>0.9999726328081435</v>
+        <v>0.9559364429611026</v>
       </c>
       <c r="Q16">
-        <v>0.9999109262989321</v>
+        <v>1.000252982082318</v>
       </c>
       <c r="R16">
-        <v>1.000059589916782</v>
+        <v>0.9967388360133395</v>
       </c>
       <c r="S16">
-        <v>0.9999811253556757</v>
+        <v>0.9630184557687375</v>
       </c>
       <c r="T16">
-        <v>1.000059589916782</v>
+        <v>0.9967388360133395</v>
       </c>
       <c r="U16">
-        <v>1.000044220050272</v>
+        <v>0.9918497473560064</v>
       </c>
       <c r="V16">
-        <v>1.000082076867029</v>
+        <v>1.009148522308368</v>
       </c>
       <c r="W16">
-        <v>1.000016622568963</v>
+        <v>0.9927007431047264</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999633877409899</v>
+        <v>0.9408830977684736</v>
       </c>
       <c r="D17">
-        <v>0.9992536943642569</v>
+        <v>1.02400202707603</v>
       </c>
       <c r="E17">
-        <v>1.000430831698937</v>
+        <v>0.9811927355279514</v>
       </c>
       <c r="F17">
-        <v>0.9999633877409899</v>
+        <v>1.032932930857174</v>
       </c>
       <c r="G17">
-        <v>0.9998891430505407</v>
+        <v>1.062946876132992</v>
       </c>
       <c r="H17">
-        <v>1.000275974535134</v>
+        <v>1.062946876132992</v>
       </c>
       <c r="I17">
-        <v>0.9999633877409899</v>
+        <v>1.062946876132992</v>
       </c>
       <c r="J17">
-        <v>0.9992536943642569</v>
+        <v>1.020252314095887</v>
       </c>
       <c r="K17">
-        <v>1.00004713193183</v>
+        <v>0.9080869332288457</v>
       </c>
       <c r="L17">
-        <v>1.000037408065874</v>
+        <v>0.9080869332288457</v>
       </c>
       <c r="M17">
-        <v>0.9995908427225836</v>
+        <v>0.98122380953063</v>
       </c>
       <c r="N17">
-        <v>0.9999633877409899</v>
+        <v>1.062946876132992</v>
       </c>
       <c r="O17">
-        <v>1.000430831698937</v>
+        <v>1.020252314095887</v>
       </c>
       <c r="P17">
-        <v>0.9998422630315968</v>
+        <v>0.9641696236623666</v>
       </c>
       <c r="Q17">
-        <v>1.000159987374739</v>
+        <v>1.000722524811919</v>
       </c>
       <c r="R17">
-        <v>0.999882637934728</v>
+        <v>0.9970953744859085</v>
       </c>
       <c r="S17">
-        <v>0.9998578897045781</v>
+        <v>0.9698439942842282</v>
       </c>
       <c r="T17">
-        <v>0.999882637934728</v>
+        <v>0.9970953744859085</v>
       </c>
       <c r="U17">
-        <v>0.9998842642136812</v>
+        <v>0.9931197147464192</v>
       </c>
       <c r="V17">
-        <v>0.9999000889191428</v>
+        <v>1.007085147023734</v>
       </c>
       <c r="W17">
-        <v>0.9999360517637683</v>
+        <v>0.993940090527248</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001930607952325</v>
+        <v>0.9662472571132839</v>
       </c>
       <c r="D18">
-        <v>0.9987009955727697</v>
+        <v>1.012625878514033</v>
       </c>
       <c r="E18">
-        <v>0.9997872915072581</v>
+        <v>0.9892122057425904</v>
       </c>
       <c r="F18">
-        <v>1.001930607952325</v>
+        <v>1.019359391077056</v>
       </c>
       <c r="G18">
-        <v>0.9996505350297424</v>
+        <v>1.032282545763586</v>
       </c>
       <c r="H18">
-        <v>1.000456340297235</v>
+        <v>1.032282545763586</v>
       </c>
       <c r="I18">
-        <v>1.001930607952325</v>
+        <v>1.032282545763586</v>
       </c>
       <c r="J18">
-        <v>0.9987009955727697</v>
+        <v>1.014023196398148</v>
       </c>
       <c r="K18">
-        <v>0.9993502421934441</v>
+        <v>0.947191075169175</v>
       </c>
       <c r="L18">
-        <v>1.000639837722344</v>
+        <v>0.947191075169175</v>
       </c>
       <c r="M18">
-        <v>0.9990241627182691</v>
+        <v>0.9904547570328214</v>
       </c>
       <c r="N18">
-        <v>1.001930607952325</v>
+        <v>1.032282545763586</v>
       </c>
       <c r="O18">
-        <v>0.9997872915072581</v>
+        <v>1.014023196398148</v>
       </c>
       <c r="P18">
-        <v>0.9992441435400139</v>
+        <v>0.9806071357836617</v>
       </c>
       <c r="Q18">
-        <v>0.9997189132685003</v>
+        <v>1.001617701070369</v>
       </c>
       <c r="R18">
-        <v>1.000139631677451</v>
+        <v>0.9978322724436367</v>
       </c>
       <c r="S18">
-        <v>0.9993796073699235</v>
+        <v>0.9834754924366379</v>
       </c>
       <c r="T18">
-        <v>1.000139631677451</v>
+        <v>0.9978322724436367</v>
       </c>
       <c r="U18">
-        <v>1.000017357515524</v>
+        <v>0.9956772557683751</v>
       </c>
       <c r="V18">
-        <v>1.000400007602884</v>
+        <v>1.002998313767417</v>
       </c>
       <c r="W18">
-        <v>0.9999425016241733</v>
+        <v>0.9964245383513368</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1789,351 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9627477665628156</v>
+      </c>
+      <c r="D19">
+        <v>1.013545060600203</v>
+      </c>
+      <c r="E19">
+        <v>0.9883286746655281</v>
+      </c>
+      <c r="F19">
+        <v>1.021467549202469</v>
+      </c>
+      <c r="G19">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="H19">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="I19">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="J19">
+        <v>1.016465355938626</v>
+      </c>
+      <c r="K19">
+        <v>0.9410142104480609</v>
+      </c>
+      <c r="L19">
+        <v>0.9410142104480609</v>
+      </c>
+      <c r="M19">
+        <v>0.9902119175812678</v>
+      </c>
+      <c r="N19">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="O19">
+        <v>1.016465355938626</v>
+      </c>
+      <c r="P19">
+        <v>0.9787397831933433</v>
+      </c>
+      <c r="Q19">
+        <v>1.002397015302077</v>
+      </c>
+      <c r="R19">
+        <v>0.9970551413500962</v>
+      </c>
+      <c r="S19">
+        <v>0.9819360803507382</v>
+      </c>
+      <c r="T19">
+        <v>0.9970551413500962</v>
+      </c>
+      <c r="U19">
+        <v>0.9948735246789542</v>
+      </c>
+      <c r="V19">
+        <v>1.002635991275884</v>
+      </c>
+      <c r="W19">
+        <v>0.9959332990828216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000033947390351</v>
+      </c>
+      <c r="D20">
+        <v>1.000059746565682</v>
+      </c>
+      <c r="E20">
+        <v>0.9999981104507403</v>
+      </c>
+      <c r="F20">
+        <v>0.9999556376209234</v>
+      </c>
+      <c r="G20">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="H20">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="I20">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="J20">
+        <v>0.9998237421471231</v>
+      </c>
+      <c r="K20">
+        <v>1.000121523469163</v>
+      </c>
+      <c r="L20">
+        <v>1.000121523469163</v>
+      </c>
+      <c r="M20">
+        <v>0.9999067687736574</v>
+      </c>
+      <c r="N20">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="O20">
+        <v>0.9998237421471231</v>
+      </c>
+      <c r="P20">
+        <v>0.9999726328081433</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999109262989316</v>
+      </c>
+      <c r="R20">
+        <v>1.000059589916782</v>
+      </c>
+      <c r="S20">
+        <v>0.9999811253556756</v>
+      </c>
+      <c r="T20">
+        <v>1.000059589916782</v>
+      </c>
+      <c r="U20">
+        <v>1.000044220050271</v>
+      </c>
+      <c r="V20">
+        <v>1.000082076867029</v>
+      </c>
+      <c r="W20">
+        <v>1.000016622568962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9995908427225836</v>
+      </c>
+      <c r="D21">
+        <v>1.000037408065874</v>
+      </c>
+      <c r="E21">
+        <v>0.999889143050541</v>
+      </c>
+      <c r="F21">
+        <v>1.000275974535134</v>
+      </c>
+      <c r="G21">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="H21">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="I21">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="J21">
+        <v>1.000430831698937</v>
+      </c>
+      <c r="K21">
+        <v>0.9992536943642569</v>
+      </c>
+      <c r="L21">
+        <v>0.9992536943642569</v>
+      </c>
+      <c r="M21">
+        <v>1.00004713193183</v>
+      </c>
+      <c r="N21">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="O21">
+        <v>1.000430831698937</v>
+      </c>
+      <c r="P21">
+        <v>0.9998422630315968</v>
+      </c>
+      <c r="Q21">
+        <v>1.000159987374739</v>
+      </c>
+      <c r="R21">
+        <v>0.999882637934728</v>
+      </c>
+      <c r="S21">
+        <v>0.9998578897045783</v>
+      </c>
+      <c r="T21">
+        <v>0.999882637934728</v>
+      </c>
+      <c r="U21">
+        <v>0.9998842642136812</v>
+      </c>
+      <c r="V21">
+        <v>0.9999000889191428</v>
+      </c>
+      <c r="W21">
+        <v>0.9999360517637683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9990241627182689</v>
+      </c>
+      <c r="D22">
+        <v>1.000639837722344</v>
+      </c>
+      <c r="E22">
+        <v>0.999650535029742</v>
+      </c>
+      <c r="F22">
+        <v>1.000456340297235</v>
+      </c>
+      <c r="G22">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="H22">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="I22">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="J22">
+        <v>0.9997872915072585</v>
+      </c>
+      <c r="K22">
+        <v>0.9987009955727696</v>
+      </c>
+      <c r="L22">
+        <v>0.9987009955727696</v>
+      </c>
+      <c r="M22">
+        <v>0.9993502421934441</v>
+      </c>
+      <c r="N22">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="O22">
+        <v>0.9997872915072585</v>
+      </c>
+      <c r="P22">
+        <v>0.9992441435400141</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997189132685003</v>
+      </c>
+      <c r="R22">
+        <v>1.000139631677451</v>
+      </c>
+      <c r="S22">
+        <v>0.9993796073699235</v>
+      </c>
+      <c r="T22">
+        <v>1.000139631677451</v>
+      </c>
+      <c r="U22">
+        <v>1.000017357515524</v>
+      </c>
+      <c r="V22">
+        <v>1.000400007602884</v>
+      </c>
+      <c r="W22">
+        <v>0.9999425016241734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9979980982218142</v>
+      </c>
+      <c r="D23">
+        <v>1.001802774294145</v>
+      </c>
+      <c r="E23">
+        <v>0.9991974585549099</v>
+      </c>
+      <c r="F23">
+        <v>1.000757705434891</v>
+      </c>
+      <c r="G23">
         <v>1.00578974801117</v>
       </c>
-      <c r="D19">
-        <v>0.9977819977021309</v>
-      </c>
-      <c r="E19">
-        <v>0.9984515642588557</v>
-      </c>
-      <c r="F19">
+      <c r="H23">
         <v>1.00578974801117</v>
       </c>
-      <c r="G19">
-        <v>0.9991974585549099</v>
-      </c>
-      <c r="H19">
-        <v>1.000757705434891</v>
-      </c>
-      <c r="I19">
+      <c r="I23">
         <v>1.00578974801117</v>
       </c>
-      <c r="J19">
-        <v>0.9977819977021309</v>
-      </c>
-      <c r="K19">
+      <c r="J23">
+        <v>0.9984515642588555</v>
+      </c>
+      <c r="K23">
+        <v>0.9977819977021313</v>
+      </c>
+      <c r="L23">
+        <v>0.9977819977021313</v>
+      </c>
+      <c r="M23">
         <v>0.9979774494133846</v>
       </c>
-      <c r="L19">
-        <v>1.001802774294145</v>
-      </c>
-      <c r="M19">
-        <v>0.9979980982218142</v>
-      </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.00578974801117</v>
       </c>
-      <c r="O19">
-        <v>0.9984515642588557</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>0.9984515642588555</v>
+      </c>
+      <c r="P23">
         <v>0.9981167809804934</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9988245114068828</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000674436657386</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9984770068386322</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000674436657386</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000305192131767</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.001402103307647</v>
       </c>
-      <c r="W19">
-        <v>0.9999695994864125</v>
+      <c r="W23">
+        <v>0.9999695994864126</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9963241459264348</v>
+        <v>0.9590692890201737</v>
       </c>
       <c r="D3">
-        <v>1.001530269177128</v>
+        <v>1.015268203112391</v>
       </c>
       <c r="E3">
-        <v>0.9988377047892119</v>
+        <v>0.9869484456195963</v>
       </c>
       <c r="F3">
-        <v>1.002025598748298</v>
+        <v>1.023485572500001</v>
       </c>
       <c r="G3">
-        <v>1.004030674820005</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="H3">
-        <v>1.004030674820005</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="I3">
-        <v>1.004030674820005</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="J3">
-        <v>1.001174272573899</v>
+        <v>1.017115432572044</v>
       </c>
       <c r="K3">
-        <v>0.9942834129731773</v>
+        <v>0.9358728257564846</v>
       </c>
       <c r="L3">
-        <v>0.9942834129731773</v>
+        <v>0.9358728257564846</v>
       </c>
       <c r="M3">
-        <v>0.9987983899949526</v>
+        <v>0.9885126609005739</v>
       </c>
       <c r="N3">
-        <v>1.004030674820005</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="O3">
-        <v>1.001174272573899</v>
+        <v>1.017115432572044</v>
       </c>
       <c r="P3">
-        <v>0.9977288427735382</v>
+        <v>0.9764941291642643</v>
       </c>
       <c r="Q3">
-        <v>1.000005988681556</v>
+        <v>1.00203193909582</v>
       </c>
       <c r="R3">
-        <v>0.9998294534556939</v>
+        <v>0.9973039555643597</v>
       </c>
       <c r="S3">
-        <v>0.9980984634454294</v>
+        <v>0.9799789013160417</v>
       </c>
       <c r="T3">
-        <v>0.9998294534556939</v>
+        <v>0.9973039555643597</v>
       </c>
       <c r="U3">
-        <v>0.9995815162890733</v>
+        <v>0.9947150780781688</v>
       </c>
       <c r="V3">
-        <v>1.00047134799526</v>
+        <v>1.003556784135445</v>
       </c>
       <c r="W3">
-        <v>0.9996255586253883</v>
+        <v>0.9956495047307269</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9928934473304042</v>
+        <v>0.9631279631625047</v>
       </c>
       <c r="D4">
-        <v>1.002939635686258</v>
+        <v>1.013718357912785</v>
       </c>
       <c r="E4">
-        <v>0.9977493793817814</v>
+        <v>0.9882276977254983</v>
       </c>
       <c r="F4">
-        <v>1.003926469778331</v>
+        <v>1.021176293442039</v>
       </c>
       <c r="G4">
-        <v>1.007736514915124</v>
+        <v>1.034988235540445</v>
       </c>
       <c r="H4">
-        <v>1.007736514915124</v>
+        <v>1.034988235540445</v>
       </c>
       <c r="I4">
-        <v>1.007736514915124</v>
+        <v>1.034988235540445</v>
       </c>
       <c r="J4">
-        <v>1.002311537330295</v>
+        <v>1.015488418611634</v>
       </c>
       <c r="K4">
-        <v>0.9889478267409232</v>
+        <v>0.9422448648872516</v>
       </c>
       <c r="L4">
-        <v>0.9889478267409232</v>
+        <v>0.9422448648872516</v>
       </c>
       <c r="M4">
-        <v>0.9976942831919191</v>
+        <v>0.9896762735287045</v>
       </c>
       <c r="N4">
-        <v>1.007736514915124</v>
+        <v>1.034988235540445</v>
       </c>
       <c r="O4">
-        <v>1.002311537330295</v>
+        <v>1.015488418611634</v>
       </c>
       <c r="P4">
-        <v>0.9956296820356092</v>
+        <v>0.9788666417494425</v>
       </c>
       <c r="Q4">
-        <v>1.000030458356038</v>
+        <v>1.001858058168566</v>
       </c>
       <c r="R4">
-        <v>0.9996652929954476</v>
+        <v>0.9975738396797768</v>
       </c>
       <c r="S4">
-        <v>0.9963362478176666</v>
+        <v>0.9819869937414611</v>
       </c>
       <c r="T4">
-        <v>0.9996652929954476</v>
+        <v>0.9975738396797768</v>
       </c>
       <c r="U4">
-        <v>0.999186314592031</v>
+        <v>0.9952373041912072</v>
       </c>
       <c r="V4">
-        <v>1.00089635465665</v>
+        <v>1.003187490461055</v>
       </c>
       <c r="W4">
-        <v>0.9992748867943795</v>
+        <v>0.9960810131013578</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9863946363466984</v>
+        <v>0.9512869081940709</v>
       </c>
       <c r="D5">
-        <v>1.005655441823875</v>
+        <v>1.018261694501347</v>
       </c>
       <c r="E5">
-        <v>0.9956993025183521</v>
+        <v>0.984497157196765</v>
       </c>
       <c r="F5">
-        <v>1.007502745910392</v>
+        <v>1.027904764312666</v>
       </c>
       <c r="G5">
-        <v>1.014880303423631</v>
+        <v>1.046533219676552</v>
       </c>
       <c r="H5">
-        <v>1.014880303423631</v>
+        <v>1.046533219676552</v>
       </c>
       <c r="I5">
-        <v>1.014880303423631</v>
+        <v>1.046533219676552</v>
       </c>
       <c r="J5">
-        <v>1.004369010978778</v>
+        <v>1.020190009811321</v>
       </c>
       <c r="K5">
-        <v>0.9788374085024651</v>
+        <v>0.9236638597574132</v>
       </c>
       <c r="L5">
-        <v>0.9788374085024651</v>
+        <v>0.9236638597574132</v>
       </c>
       <c r="M5">
-        <v>0.9955629597598288</v>
+        <v>0.9862571256873304</v>
       </c>
       <c r="N5">
-        <v>1.014880303423631</v>
+        <v>1.046533219676552</v>
       </c>
       <c r="O5">
-        <v>1.004369010978778</v>
+        <v>1.020190009811321</v>
       </c>
       <c r="P5">
-        <v>0.9916032097406215</v>
+        <v>0.9719269347843671</v>
       </c>
       <c r="Q5">
-        <v>1.000034156748565</v>
+        <v>1.002343583504043</v>
       </c>
       <c r="R5">
-        <v>0.9993622409682915</v>
+        <v>0.9967956964150954</v>
       </c>
       <c r="S5">
-        <v>0.9929685739998652</v>
+        <v>0.9761170089218331</v>
       </c>
       <c r="T5">
-        <v>0.9993622409682915</v>
+        <v>0.9967956964150954</v>
       </c>
       <c r="U5">
-        <v>0.9984465063558067</v>
+        <v>0.9937210616105128</v>
       </c>
       <c r="V5">
-        <v>1.001733265769372</v>
+        <v>1.004283493223721</v>
       </c>
       <c r="W5">
-        <v>0.9986127261580025</v>
+        <v>0.9948243423921831</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9800483918043589</v>
+        <v>0.9439319050000002</v>
       </c>
       <c r="D6">
-        <v>1.008284340184601</v>
+        <v>1.021116364602273</v>
       </c>
       <c r="E6">
-        <v>0.9936852739453679</v>
+        <v>0.9821824131249993</v>
       </c>
       <c r="F6">
-        <v>1.010992326708033</v>
+        <v>1.032070937954544</v>
       </c>
       <c r="G6">
-        <v>1.021864913483174</v>
+        <v>1.053799931249999</v>
       </c>
       <c r="H6">
-        <v>1.021864913483174</v>
+        <v>1.053799931249999</v>
       </c>
       <c r="I6">
-        <v>1.021864913483174</v>
+        <v>1.053799931249999</v>
       </c>
       <c r="J6">
-        <v>1.006397349150147</v>
+        <v>1.023042534147727</v>
       </c>
       <c r="K6">
-        <v>0.9689540857708678</v>
+        <v>0.9121362201704539</v>
       </c>
       <c r="L6">
-        <v>0.9689540857708678</v>
+        <v>0.9121362201704539</v>
       </c>
       <c r="M6">
-        <v>0.993503476865077</v>
+        <v>0.9840967672159093</v>
       </c>
       <c r="N6">
-        <v>1.021864913483174</v>
+        <v>1.053799931249999</v>
       </c>
       <c r="O6">
-        <v>1.006397349150147</v>
+        <v>1.023042534147727</v>
       </c>
       <c r="P6">
-        <v>0.9876757174605073</v>
+        <v>0.9675893771590904</v>
       </c>
       <c r="Q6">
-        <v>1.000041311547757</v>
+        <v>1.002612473636363</v>
       </c>
       <c r="R6">
-        <v>0.9990721161347297</v>
+        <v>0.9963262285227268</v>
       </c>
       <c r="S6">
-        <v>0.9896789029554608</v>
+        <v>0.9724537224810601</v>
       </c>
       <c r="T6">
-        <v>0.9990721161347297</v>
+        <v>0.9963262285227268</v>
       </c>
       <c r="U6">
-        <v>0.9977254055873892</v>
+        <v>0.9927902746732949</v>
       </c>
       <c r="V6">
-        <v>1.002553307166546</v>
+        <v>1.004992205988636</v>
       </c>
       <c r="W6">
-        <v>0.9979662697389534</v>
+        <v>0.9940471341832382</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996918392878383</v>
+        <v>0.8685150802969251</v>
       </c>
       <c r="D7">
-        <v>1.000122939681833</v>
+        <v>1.046025517761642</v>
       </c>
       <c r="E7">
-        <v>0.999903593423667</v>
+        <v>0.9555625235218475</v>
       </c>
       <c r="F7">
-        <v>1.000173401944798</v>
+        <v>1.077025880540019</v>
       </c>
       <c r="G7">
-        <v>1.000312410730304</v>
+        <v>1.123499746895116</v>
       </c>
       <c r="H7">
-        <v>1.000312410730304</v>
+        <v>1.123499746895116</v>
       </c>
       <c r="I7">
-        <v>1.000312410730304</v>
+        <v>1.123499746895116</v>
       </c>
       <c r="J7">
-        <v>1.000113207166925</v>
+        <v>1.059539523021904</v>
       </c>
       <c r="K7">
-        <v>0.9995181652892992</v>
+        <v>0.7971537499871465</v>
       </c>
       <c r="L7">
-        <v>0.9995181652892992</v>
+        <v>0.7971537499871465</v>
       </c>
       <c r="M7">
-        <v>0.9999059816387509</v>
+        <v>0.9638844448871359</v>
       </c>
       <c r="N7">
-        <v>1.000312410730304</v>
+        <v>1.123499746895116</v>
       </c>
       <c r="O7">
-        <v>1.000113207166925</v>
+        <v>1.059539523021904</v>
       </c>
       <c r="P7">
-        <v>0.9998156862281118</v>
+        <v>0.9283466365045254</v>
       </c>
       <c r="Q7">
-        <v>1.000008400295296</v>
+        <v>1.007551023271876</v>
       </c>
       <c r="R7">
-        <v>0.9999812610621759</v>
+        <v>0.9933976733013891</v>
       </c>
       <c r="S7">
-        <v>0.9998449886266302</v>
+        <v>0.9374185988436329</v>
       </c>
       <c r="T7">
-        <v>0.999981261062176</v>
+        <v>0.9933976733013891</v>
       </c>
       <c r="U7">
-        <v>0.9999618441525487</v>
+        <v>0.9839388858565037</v>
       </c>
       <c r="V7">
-        <v>1.0000319574681</v>
+        <v>1.011851058064226</v>
       </c>
       <c r="W7">
-        <v>0.9999676923954268</v>
+        <v>0.986400808363967</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991161729762265</v>
+        <v>0.8676913449859891</v>
       </c>
       <c r="D8">
-        <v>1.000361474567906</v>
+        <v>1.04642295238159</v>
       </c>
       <c r="E8">
-        <v>0.999721200770899</v>
+        <v>0.9553210952298058</v>
       </c>
       <c r="F8">
-        <v>1.00049328556118</v>
+        <v>1.077459126798674</v>
       </c>
       <c r="G8">
-        <v>1.000934474691575</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="H8">
-        <v>1.000934474691575</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="I8">
-        <v>1.000934474691575</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="J8">
-        <v>1.000302547069694</v>
+        <v>1.059706270955171</v>
       </c>
       <c r="K8">
-        <v>0.9986262157221392</v>
+        <v>0.7958723791601473</v>
       </c>
       <c r="L8">
-        <v>0.9986262157221392</v>
+        <v>0.7958723791601473</v>
       </c>
       <c r="M8">
-        <v>0.9997175262154542</v>
+        <v>0.9635689932029645</v>
       </c>
       <c r="N8">
-        <v>1.000934474691575</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="O8">
-        <v>1.000302547069694</v>
+        <v>1.059706270955171</v>
       </c>
       <c r="P8">
-        <v>0.9994643813959168</v>
+        <v>0.9277893250576592</v>
       </c>
       <c r="Q8">
-        <v>1.000011873920297</v>
+        <v>1.007513683092488</v>
       </c>
       <c r="R8">
-        <v>0.9999544124944695</v>
+        <v>0.9933606434412137</v>
       </c>
       <c r="S8">
-        <v>0.9995499878542442</v>
+        <v>0.9369665817817081</v>
       </c>
       <c r="T8">
-        <v>0.9999544124944695</v>
+        <v>0.9933606434412137</v>
       </c>
       <c r="U8">
-        <v>0.9998961095635769</v>
+        <v>0.9838507563883617</v>
       </c>
       <c r="V8">
-        <v>1.000103782589177</v>
+        <v>1.011981261152354</v>
       </c>
       <c r="W8">
-        <v>0.9999091121968843</v>
+        <v>0.9863181803653331</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.998696051673155</v>
+        <v>0.8671021089854667</v>
       </c>
       <c r="D9">
-        <v>1.000552046249692</v>
+        <v>1.046599729370549</v>
       </c>
       <c r="E9">
-        <v>0.9995877258566215</v>
+        <v>0.9551503537357069</v>
       </c>
       <c r="F9">
-        <v>1.000720807395803</v>
+        <v>1.077815363211769</v>
       </c>
       <c r="G9">
-        <v>1.001440438978038</v>
+        <v>1.124859614194107</v>
       </c>
       <c r="H9">
-        <v>1.001440438978038</v>
+        <v>1.124859614194107</v>
       </c>
       <c r="I9">
-        <v>1.001440438978038</v>
+        <v>1.124859614194107</v>
       </c>
       <c r="J9">
-        <v>1.000405947549165</v>
+        <v>1.060063715946805</v>
       </c>
       <c r="K9">
-        <v>0.9979861195068657</v>
+        <v>0.7948972329785904</v>
       </c>
       <c r="L9">
-        <v>0.9979861195068657</v>
+        <v>0.7948972329785904</v>
       </c>
       <c r="M9">
-        <v>0.9995593993419013</v>
+        <v>0.9634729077083757</v>
       </c>
       <c r="N9">
-        <v>1.001440438978038</v>
+        <v>1.124859614194107</v>
       </c>
       <c r="O9">
-        <v>1.000405947549165</v>
+        <v>1.060063715946805</v>
       </c>
       <c r="P9">
-        <v>0.9991960335280152</v>
+        <v>0.9274804744626977</v>
       </c>
       <c r="Q9">
-        <v>0.9999968367028931</v>
+        <v>1.007607034841256</v>
       </c>
       <c r="R9">
-        <v>0.9999441686780229</v>
+        <v>0.9932735210398339</v>
       </c>
       <c r="S9">
-        <v>0.9993265976375506</v>
+        <v>0.9367037675537008</v>
       </c>
       <c r="T9">
-        <v>0.9999441686780229</v>
+        <v>0.9932735210398339</v>
       </c>
       <c r="U9">
-        <v>0.9998550579726726</v>
+        <v>0.9837427292138021</v>
       </c>
       <c r="V9">
-        <v>1.000172134173746</v>
+        <v>1.011966106209863</v>
       </c>
       <c r="W9">
-        <v>0.9998685670689051</v>
+        <v>0.9862451282664211</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.997254864932302</v>
+        <v>0.8642851981930924</v>
       </c>
       <c r="D10">
-        <v>1.001149929592174</v>
+        <v>1.048039754784192</v>
       </c>
       <c r="E10">
-        <v>0.9991353085329882</v>
+        <v>0.9543080153992881</v>
       </c>
       <c r="F10">
-        <v>1.001522063696984</v>
+        <v>1.079267264038429</v>
       </c>
       <c r="G10">
-        <v>1.002982242803392</v>
+        <v>1.128603596365771</v>
       </c>
       <c r="H10">
-        <v>1.002982242803392</v>
+        <v>1.128603596365771</v>
       </c>
       <c r="I10">
-        <v>1.002982242803392</v>
+        <v>1.128603596365771</v>
       </c>
       <c r="J10">
-        <v>1.000883735563904</v>
+        <v>1.060447440084515</v>
       </c>
       <c r="K10">
-        <v>0.9957473901222874</v>
+        <v>0.7905932679456744</v>
       </c>
       <c r="L10">
-        <v>0.9957473901222874</v>
+        <v>0.7905932679456744</v>
       </c>
       <c r="M10">
-        <v>0.9990907760313071</v>
+        <v>0.9622776947015732</v>
       </c>
       <c r="N10">
-        <v>1.002982242803392</v>
+        <v>1.128603596365771</v>
       </c>
       <c r="O10">
-        <v>1.000883735563904</v>
+        <v>1.060447440084515</v>
       </c>
       <c r="P10">
-        <v>0.9983155628430957</v>
+        <v>0.9255203540150946</v>
       </c>
       <c r="Q10">
-        <v>1.000009522048446</v>
+        <v>1.007377727741901</v>
       </c>
       <c r="R10">
-        <v>0.9998711228298612</v>
+        <v>0.9932147681319866</v>
       </c>
       <c r="S10">
-        <v>0.9985888114063931</v>
+        <v>0.9351162411431591</v>
       </c>
       <c r="T10">
-        <v>0.9998711228298612</v>
+        <v>0.9932147681319866</v>
       </c>
       <c r="U10">
-        <v>0.999687169255643</v>
+        <v>0.983488079948812</v>
       </c>
       <c r="V10">
-        <v>1.000346183965193</v>
+        <v>1.012511183232204</v>
       </c>
       <c r="W10">
-        <v>0.9997207889094173</v>
+        <v>0.9859777789390668</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9952788902618869</v>
+        <v>0.9956606125396258</v>
       </c>
       <c r="D11">
-        <v>1.002060937475767</v>
+        <v>1.001928691488579</v>
       </c>
       <c r="E11">
-        <v>0.9985085555032281</v>
+        <v>0.9986097814422972</v>
       </c>
       <c r="F11">
-        <v>1.002581827118614</v>
+        <v>1.00234545378407</v>
       </c>
       <c r="G11">
-        <v>1.005419217146351</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="H11">
-        <v>1.005419217146351</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="I11">
-        <v>1.005419217146351</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="J11">
-        <v>1.001332630047377</v>
+        <v>1.00111024708763</v>
       </c>
       <c r="K11">
-        <v>0.9927365734015435</v>
+        <v>0.9933554444819432</v>
       </c>
       <c r="L11">
-        <v>0.9927365734015435</v>
+        <v>0.9933554444819432</v>
       </c>
       <c r="M11">
-        <v>0.9983329526473602</v>
+        <v>0.9984137033980711</v>
       </c>
       <c r="N11">
-        <v>1.005419217146351</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="O11">
-        <v>1.001332630047377</v>
+        <v>1.00111024708763</v>
       </c>
       <c r="P11">
-        <v>0.9970346017244602</v>
+        <v>0.9972328457847868</v>
       </c>
       <c r="Q11">
-        <v>0.9999205927753025</v>
+        <v>0.9998600142649637</v>
       </c>
       <c r="R11">
-        <v>0.999829473531757</v>
+        <v>0.9998906864442655</v>
       </c>
       <c r="S11">
-        <v>0.9975259196507161</v>
+        <v>0.9976918243372902</v>
       </c>
       <c r="T11">
-        <v>0.9998294735317571</v>
+        <v>0.9998906864442655</v>
       </c>
       <c r="U11">
-        <v>0.9994992440246249</v>
+        <v>0.9995704601937734</v>
       </c>
       <c r="V11">
-        <v>1.00068323864897</v>
+        <v>1.000697641707663</v>
       </c>
       <c r="W11">
-        <v>0.9995314479502659</v>
+        <v>0.9995787877481799</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.061015223892475</v>
+        <v>0.9974248599418168</v>
       </c>
       <c r="D12">
-        <v>0.9883576925373623</v>
+        <v>1.000980095291713</v>
       </c>
       <c r="E12">
-        <v>1.01953218452695</v>
+        <v>0.9991696732375647</v>
       </c>
       <c r="F12">
-        <v>0.9604670925591248</v>
+        <v>1.001464350269906</v>
       </c>
       <c r="G12">
-        <v>0.9774863424794616</v>
+        <v>1.00256237233808</v>
       </c>
       <c r="H12">
-        <v>0.9774863424794616</v>
+        <v>1.00256237233808</v>
       </c>
       <c r="I12">
-        <v>0.9774863424794616</v>
+        <v>1.00256237233808</v>
       </c>
       <c r="J12">
-        <v>0.9505485569072475</v>
+        <v>1.001017331570367</v>
       </c>
       <c r="K12">
-        <v>1.101572376839192</v>
+        <v>0.9959839581973942</v>
       </c>
       <c r="L12">
-        <v>1.101572376839192</v>
+        <v>0.9959839581973942</v>
       </c>
       <c r="M12">
-        <v>1.003871022553245</v>
+        <v>0.9992471648436401</v>
       </c>
       <c r="N12">
-        <v>0.9774863424794616</v>
+        <v>1.00256237233808</v>
       </c>
       <c r="O12">
-        <v>0.9505485569072475</v>
+        <v>1.001017331570367</v>
       </c>
       <c r="P12">
-        <v>1.02606046687322</v>
+        <v>0.9985006448838805</v>
       </c>
       <c r="Q12">
-        <v>0.9850403707170985</v>
+        <v>1.000093502403966</v>
       </c>
       <c r="R12">
-        <v>1.0098690920753</v>
+        <v>0.9998545540352802</v>
       </c>
       <c r="S12">
-        <v>1.023884372757796</v>
+        <v>0.9987236543351085</v>
       </c>
       <c r="T12">
-        <v>1.0098690920753</v>
+        <v>0.9998545540352802</v>
       </c>
       <c r="U12">
-        <v>1.012284865188213</v>
+        <v>0.9996833338358513</v>
       </c>
       <c r="V12">
-        <v>1.005325160646462</v>
+        <v>1.000259141536297</v>
       </c>
       <c r="W12">
-        <v>1.007856311536882</v>
+        <v>0.9997312257113102</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.010762408490879</v>
+        <v>0.9906393673610765</v>
       </c>
       <c r="D13">
-        <v>0.991123002894932</v>
+        <v>1.003424677766287</v>
       </c>
       <c r="E13">
-        <v>1.004237912811714</v>
+        <v>0.9969807544154348</v>
       </c>
       <c r="F13">
-        <v>0.9954697511380092</v>
+        <v>1.005384709792451</v>
       </c>
       <c r="G13">
-        <v>0.9721750893580196</v>
+        <v>1.008855964282871</v>
       </c>
       <c r="H13">
-        <v>0.9721750893580196</v>
+        <v>1.008855964282871</v>
       </c>
       <c r="I13">
-        <v>0.9721750893580196</v>
+        <v>1.008855964282871</v>
       </c>
       <c r="J13">
-        <v>1.006294907412056</v>
+        <v>1.004003717740812</v>
       </c>
       <c r="K13">
-        <v>1.01231569420085</v>
+        <v>0.9853360792373979</v>
       </c>
       <c r="L13">
-        <v>1.01231569420085</v>
+        <v>0.9853360792373979</v>
       </c>
       <c r="M13">
-        <v>1.009885077154758</v>
+        <v>0.9974246903110611</v>
       </c>
       <c r="N13">
-        <v>0.9721750893580196</v>
+        <v>1.008855964282871</v>
       </c>
       <c r="O13">
-        <v>1.006294907412056</v>
+        <v>1.004003717740812</v>
       </c>
       <c r="P13">
-        <v>1.009305300806453</v>
+        <v>0.9946698984891051</v>
       </c>
       <c r="Q13">
-        <v>1.005266410111885</v>
+        <v>1.000492236078124</v>
       </c>
       <c r="R13">
-        <v>0.9969285636569752</v>
+        <v>0.9993985870870272</v>
       </c>
       <c r="S13">
-        <v>1.007616171474873</v>
+        <v>0.9954401837978817</v>
       </c>
       <c r="T13">
-        <v>0.9969285636569752</v>
+        <v>0.9993985870870272</v>
       </c>
       <c r="U13">
-        <v>0.9987559009456598</v>
+        <v>0.9987941289191291</v>
       </c>
       <c r="V13">
-        <v>0.9934397386281317</v>
+        <v>1.000806495991877</v>
       </c>
       <c r="W13">
-        <v>1.000282980432652</v>
+        <v>0.999006245113424</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9779897521645777</v>
+        <v>0.9896893731286713</v>
       </c>
       <c r="D14">
-        <v>0.9725594144423092</v>
+        <v>1.00425974793538</v>
       </c>
       <c r="E14">
-        <v>0.9935215584102146</v>
+        <v>0.996735139325799</v>
       </c>
       <c r="F14">
-        <v>1.027290050489767</v>
+        <v>1.005700975001264</v>
       </c>
       <c r="G14">
-        <v>0.9036654660435756</v>
+        <v>1.011199395086985</v>
       </c>
       <c r="H14">
-        <v>0.9036654660435756</v>
+        <v>1.011199395086985</v>
       </c>
       <c r="I14">
-        <v>0.9036654660435756</v>
+        <v>1.011199395086985</v>
       </c>
       <c r="J14">
-        <v>1.086988736285105</v>
+        <v>1.003368745550364</v>
       </c>
       <c r="K14">
-        <v>0.9452405328414936</v>
+        <v>0.9839642245788477</v>
       </c>
       <c r="L14">
-        <v>0.9452405328414936</v>
+        <v>0.9839642245788477</v>
       </c>
       <c r="M14">
-        <v>1.037058679406568</v>
+        <v>0.9966603734875352</v>
       </c>
       <c r="N14">
-        <v>0.9036654660435756</v>
+        <v>1.011199395086985</v>
       </c>
       <c r="O14">
-        <v>1.086988736285105</v>
+        <v>1.003368745550364</v>
       </c>
       <c r="P14">
-        <v>1.016114634563299</v>
+        <v>0.9936664850646058</v>
       </c>
       <c r="Q14">
-        <v>1.04025514734766</v>
+        <v>1.000051942438081</v>
       </c>
       <c r="R14">
-        <v>0.978631578390058</v>
+        <v>0.999510788405399</v>
       </c>
       <c r="S14">
-        <v>1.008583609178938</v>
+        <v>0.9946893698183369</v>
       </c>
       <c r="T14">
-        <v>0.978631578390058</v>
+        <v>0.9995107884053988</v>
       </c>
       <c r="U14">
-        <v>0.9823540733950971</v>
+        <v>0.9988168761354989</v>
       </c>
       <c r="V14">
-        <v>0.9666163519247928</v>
+        <v>1.001293379925796</v>
       </c>
       <c r="W14">
-        <v>0.9930392737604512</v>
+        <v>0.9989472467618556</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.009087550820412</v>
+        <v>0.9963241459264348</v>
       </c>
       <c r="D15">
-        <v>1.011090610839789</v>
+        <v>1.001530269177128</v>
       </c>
       <c r="E15">
-        <v>1.002261021031787</v>
+        <v>0.9988377047892119</v>
       </c>
       <c r="F15">
-        <v>0.9891305111134</v>
+        <v>1.002025598748298</v>
       </c>
       <c r="G15">
-        <v>1.039590635995852</v>
+        <v>1.004030674820005</v>
       </c>
       <c r="H15">
-        <v>1.039590635995852</v>
+        <v>1.004030674820005</v>
       </c>
       <c r="I15">
-        <v>1.039590635995852</v>
+        <v>1.004030674820005</v>
       </c>
       <c r="J15">
-        <v>0.9646500282427001</v>
+        <v>1.001174272573899</v>
       </c>
       <c r="K15">
-        <v>1.023633834190518</v>
+        <v>0.9942834129731773</v>
       </c>
       <c r="L15">
-        <v>1.023633834190518</v>
+        <v>0.9942834129731773</v>
       </c>
       <c r="M15">
-        <v>0.9843833678308225</v>
+        <v>0.9987983899949526</v>
       </c>
       <c r="N15">
-        <v>1.039590635995852</v>
+        <v>1.004030674820005</v>
       </c>
       <c r="O15">
-        <v>0.9646500282427001</v>
+        <v>1.001174272573899</v>
       </c>
       <c r="P15">
-        <v>0.9941419312166091</v>
+        <v>0.9977288427735382</v>
       </c>
       <c r="Q15">
-        <v>0.9834555246372436</v>
+        <v>1.000005988681556</v>
       </c>
       <c r="R15">
-        <v>1.009291499476357</v>
+        <v>0.9998294534556939</v>
       </c>
       <c r="S15">
-        <v>0.9968482944883351</v>
+        <v>0.9980984634454294</v>
       </c>
       <c r="T15">
-        <v>1.009291499476357</v>
+        <v>0.9998294534556939</v>
       </c>
       <c r="U15">
-        <v>1.007533879865214</v>
+        <v>0.9995815162890733</v>
       </c>
       <c r="V15">
-        <v>1.013945231091342</v>
+        <v>1.00047134799526</v>
       </c>
       <c r="W15">
-        <v>1.00297844500816</v>
+        <v>0.9996255586253883</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9282028823394345</v>
+        <v>0.9928934473304042</v>
       </c>
       <c r="D16">
-        <v>1.02970830043809</v>
+        <v>1.002939635686258</v>
       </c>
       <c r="E16">
-        <v>0.9771824813840072</v>
+        <v>0.9977493793817814</v>
       </c>
       <c r="F16">
-        <v>1.039710498062722</v>
+        <v>1.003926469778331</v>
       </c>
       <c r="G16">
-        <v>1.078343622117813</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="H16">
-        <v>1.078343622117813</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="I16">
-        <v>1.078343622117813</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="J16">
-        <v>1.023323482780629</v>
+        <v>1.002311537330295</v>
       </c>
       <c r="K16">
-        <v>0.888549403141576</v>
+        <v>0.9889478267409232</v>
       </c>
       <c r="L16">
-        <v>0.888549403141576</v>
+        <v>0.9889478267409232</v>
       </c>
       <c r="M16">
-        <v>0.9765852745735409</v>
+        <v>0.9976942831919191</v>
       </c>
       <c r="N16">
-        <v>1.078343622117813</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="O16">
-        <v>1.023323482780629</v>
+        <v>1.002311537330295</v>
       </c>
       <c r="P16">
-        <v>0.9559364429611026</v>
+        <v>0.9956296820356092</v>
       </c>
       <c r="Q16">
-        <v>1.000252982082318</v>
+        <v>1.000030458356038</v>
       </c>
       <c r="R16">
-        <v>0.9967388360133395</v>
+        <v>0.9996652929954476</v>
       </c>
       <c r="S16">
-        <v>0.9630184557687375</v>
+        <v>0.9963362478176666</v>
       </c>
       <c r="T16">
-        <v>0.9967388360133395</v>
+        <v>0.9996652929954476</v>
       </c>
       <c r="U16">
-        <v>0.9918497473560064</v>
+        <v>0.999186314592031</v>
       </c>
       <c r="V16">
-        <v>1.009148522308368</v>
+        <v>1.00089635465665</v>
       </c>
       <c r="W16">
-        <v>0.9927007431047264</v>
+        <v>0.9992748867943795</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9408830977684736</v>
+        <v>0.9863946363466984</v>
       </c>
       <c r="D17">
-        <v>1.02400202707603</v>
+        <v>1.005655441823875</v>
       </c>
       <c r="E17">
-        <v>0.9811927355279514</v>
+        <v>0.9956993025183521</v>
       </c>
       <c r="F17">
-        <v>1.032932930857174</v>
+        <v>1.007502745910392</v>
       </c>
       <c r="G17">
-        <v>1.062946876132992</v>
+        <v>1.014880303423631</v>
       </c>
       <c r="H17">
-        <v>1.062946876132992</v>
+        <v>1.014880303423631</v>
       </c>
       <c r="I17">
-        <v>1.062946876132992</v>
+        <v>1.014880303423631</v>
       </c>
       <c r="J17">
-        <v>1.020252314095887</v>
+        <v>1.004369010978778</v>
       </c>
       <c r="K17">
-        <v>0.9080869332288457</v>
+        <v>0.9788374085024651</v>
       </c>
       <c r="L17">
-        <v>0.9080869332288457</v>
+        <v>0.9788374085024651</v>
       </c>
       <c r="M17">
-        <v>0.98122380953063</v>
+        <v>0.9955629597598288</v>
       </c>
       <c r="N17">
-        <v>1.062946876132992</v>
+        <v>1.014880303423631</v>
       </c>
       <c r="O17">
-        <v>1.020252314095887</v>
+        <v>1.004369010978778</v>
       </c>
       <c r="P17">
-        <v>0.9641696236623666</v>
+        <v>0.9916032097406215</v>
       </c>
       <c r="Q17">
-        <v>1.000722524811919</v>
+        <v>1.000034156748565</v>
       </c>
       <c r="R17">
-        <v>0.9970953744859085</v>
+        <v>0.9993622409682915</v>
       </c>
       <c r="S17">
-        <v>0.9698439942842282</v>
+        <v>0.9929685739998652</v>
       </c>
       <c r="T17">
-        <v>0.9970953744859085</v>
+        <v>0.9993622409682915</v>
       </c>
       <c r="U17">
-        <v>0.9931197147464192</v>
+        <v>0.9984465063558067</v>
       </c>
       <c r="V17">
-        <v>1.007085147023734</v>
+        <v>1.001733265769372</v>
       </c>
       <c r="W17">
-        <v>0.993940090527248</v>
+        <v>0.9986127261580025</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9662472571132839</v>
+        <v>0.9800483918043589</v>
       </c>
       <c r="D18">
-        <v>1.012625878514033</v>
+        <v>1.008284340184601</v>
       </c>
       <c r="E18">
-        <v>0.9892122057425904</v>
+        <v>0.9936852739453679</v>
       </c>
       <c r="F18">
-        <v>1.019359391077056</v>
+        <v>1.010992326708033</v>
       </c>
       <c r="G18">
-        <v>1.032282545763586</v>
+        <v>1.021864913483174</v>
       </c>
       <c r="H18">
-        <v>1.032282545763586</v>
+        <v>1.021864913483174</v>
       </c>
       <c r="I18">
-        <v>1.032282545763586</v>
+        <v>1.021864913483174</v>
       </c>
       <c r="J18">
-        <v>1.014023196398148</v>
+        <v>1.006397349150147</v>
       </c>
       <c r="K18">
-        <v>0.947191075169175</v>
+        <v>0.9689540857708678</v>
       </c>
       <c r="L18">
-        <v>0.947191075169175</v>
+        <v>0.9689540857708678</v>
       </c>
       <c r="M18">
-        <v>0.9904547570328214</v>
+        <v>0.993503476865077</v>
       </c>
       <c r="N18">
-        <v>1.032282545763586</v>
+        <v>1.021864913483174</v>
       </c>
       <c r="O18">
-        <v>1.014023196398148</v>
+        <v>1.006397349150147</v>
       </c>
       <c r="P18">
-        <v>0.9806071357836617</v>
+        <v>0.9876757174605073</v>
       </c>
       <c r="Q18">
-        <v>1.001617701070369</v>
+        <v>1.000041311547757</v>
       </c>
       <c r="R18">
-        <v>0.9978322724436367</v>
+        <v>0.9990721161347297</v>
       </c>
       <c r="S18">
-        <v>0.9834754924366379</v>
+        <v>0.9896789029554608</v>
       </c>
       <c r="T18">
-        <v>0.9978322724436367</v>
+        <v>0.9990721161347297</v>
       </c>
       <c r="U18">
-        <v>0.9956772557683751</v>
+        <v>0.9977254055873892</v>
       </c>
       <c r="V18">
-        <v>1.002998313767417</v>
+        <v>1.002553307166546</v>
       </c>
       <c r="W18">
-        <v>0.9964245383513368</v>
+        <v>0.9979662697389534</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9627477665628156</v>
+        <v>0.9996918392878383</v>
       </c>
       <c r="D19">
-        <v>1.013545060600203</v>
+        <v>1.000122939681833</v>
       </c>
       <c r="E19">
-        <v>0.9883286746655281</v>
+        <v>0.999903593423667</v>
       </c>
       <c r="F19">
-        <v>1.021467549202469</v>
+        <v>1.000173401944798</v>
       </c>
       <c r="G19">
-        <v>1.033685857663602</v>
+        <v>1.000312410730304</v>
       </c>
       <c r="H19">
-        <v>1.033685857663602</v>
+        <v>1.000312410730304</v>
       </c>
       <c r="I19">
-        <v>1.033685857663602</v>
+        <v>1.000312410730304</v>
       </c>
       <c r="J19">
-        <v>1.016465355938626</v>
+        <v>1.000113207166925</v>
       </c>
       <c r="K19">
-        <v>0.9410142104480609</v>
+        <v>0.9995181652892992</v>
       </c>
       <c r="L19">
-        <v>0.9410142104480609</v>
+        <v>0.9995181652892992</v>
       </c>
       <c r="M19">
-        <v>0.9902119175812678</v>
+        <v>0.9999059816387509</v>
       </c>
       <c r="N19">
-        <v>1.033685857663602</v>
+        <v>1.000312410730304</v>
       </c>
       <c r="O19">
-        <v>1.016465355938626</v>
+        <v>1.000113207166925</v>
       </c>
       <c r="P19">
-        <v>0.9787397831933433</v>
+        <v>0.9998156862281118</v>
       </c>
       <c r="Q19">
-        <v>1.002397015302077</v>
+        <v>1.000008400295296</v>
       </c>
       <c r="R19">
-        <v>0.9970551413500962</v>
+        <v>0.9999812610621759</v>
       </c>
       <c r="S19">
-        <v>0.9819360803507382</v>
+        <v>0.9998449886266302</v>
       </c>
       <c r="T19">
-        <v>0.9970551413500962</v>
+        <v>0.999981261062176</v>
       </c>
       <c r="U19">
-        <v>0.9948735246789542</v>
+        <v>0.9999618441525487</v>
       </c>
       <c r="V19">
-        <v>1.002635991275884</v>
+        <v>1.0000319574681</v>
       </c>
       <c r="W19">
-        <v>0.9959332990828216</v>
+        <v>0.9999676923954268</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000033947390351</v>
+        <v>0.9991161729762265</v>
       </c>
       <c r="D20">
-        <v>1.000059746565682</v>
+        <v>1.000361474567906</v>
       </c>
       <c r="E20">
-        <v>0.9999981104507403</v>
+        <v>0.999721200770899</v>
       </c>
       <c r="F20">
-        <v>0.9999556376209234</v>
+        <v>1.00049328556118</v>
       </c>
       <c r="G20">
-        <v>1.000233504134059</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="H20">
-        <v>1.000233504134059</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="I20">
-        <v>1.000233504134059</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="J20">
-        <v>0.9998237421471231</v>
+        <v>1.000302547069694</v>
       </c>
       <c r="K20">
-        <v>1.000121523469163</v>
+        <v>0.9986262157221392</v>
       </c>
       <c r="L20">
-        <v>1.000121523469163</v>
+        <v>0.9986262157221392</v>
       </c>
       <c r="M20">
-        <v>0.9999067687736574</v>
+        <v>0.9997175262154542</v>
       </c>
       <c r="N20">
-        <v>1.000233504134059</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="O20">
-        <v>0.9998237421471231</v>
+        <v>1.000302547069694</v>
       </c>
       <c r="P20">
-        <v>0.9999726328081433</v>
+        <v>0.9994643813959168</v>
       </c>
       <c r="Q20">
-        <v>0.9999109262989316</v>
+        <v>1.000011873920297</v>
       </c>
       <c r="R20">
-        <v>1.000059589916782</v>
+        <v>0.9999544124944695</v>
       </c>
       <c r="S20">
-        <v>0.9999811253556756</v>
+        <v>0.9995499878542442</v>
       </c>
       <c r="T20">
-        <v>1.000059589916782</v>
+        <v>0.9999544124944695</v>
       </c>
       <c r="U20">
-        <v>1.000044220050271</v>
+        <v>0.9998961095635769</v>
       </c>
       <c r="V20">
-        <v>1.000082076867029</v>
+        <v>1.000103782589177</v>
       </c>
       <c r="W20">
-        <v>1.000016622568962</v>
+        <v>0.9999091121968843</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9995908427225836</v>
+        <v>0.998696051673155</v>
       </c>
       <c r="D21">
-        <v>1.000037408065874</v>
+        <v>1.000552046249692</v>
       </c>
       <c r="E21">
-        <v>0.999889143050541</v>
+        <v>0.9995877258566215</v>
       </c>
       <c r="F21">
-        <v>1.000275974535134</v>
+        <v>1.000720807395803</v>
       </c>
       <c r="G21">
-        <v>0.9999633877409899</v>
+        <v>1.001440438978038</v>
       </c>
       <c r="H21">
-        <v>0.9999633877409899</v>
+        <v>1.001440438978038</v>
       </c>
       <c r="I21">
-        <v>0.9999633877409899</v>
+        <v>1.001440438978038</v>
       </c>
       <c r="J21">
-        <v>1.000430831698937</v>
+        <v>1.000405947549165</v>
       </c>
       <c r="K21">
-        <v>0.9992536943642569</v>
+        <v>0.9979861195068657</v>
       </c>
       <c r="L21">
-        <v>0.9992536943642569</v>
+        <v>0.9979861195068657</v>
       </c>
       <c r="M21">
-        <v>1.00004713193183</v>
+        <v>0.9995593993419013</v>
       </c>
       <c r="N21">
-        <v>0.9999633877409899</v>
+        <v>1.001440438978038</v>
       </c>
       <c r="O21">
-        <v>1.000430831698937</v>
+        <v>1.000405947549165</v>
       </c>
       <c r="P21">
-        <v>0.9998422630315968</v>
+        <v>0.9991960335280152</v>
       </c>
       <c r="Q21">
-        <v>1.000159987374739</v>
+        <v>0.9999968367028931</v>
       </c>
       <c r="R21">
-        <v>0.999882637934728</v>
+        <v>0.9999441686780229</v>
       </c>
       <c r="S21">
-        <v>0.9998578897045783</v>
+        <v>0.9993265976375506</v>
       </c>
       <c r="T21">
-        <v>0.999882637934728</v>
+        <v>0.9999441686780229</v>
       </c>
       <c r="U21">
-        <v>0.9998842642136812</v>
+        <v>0.9998550579726726</v>
       </c>
       <c r="V21">
-        <v>0.9999000889191428</v>
+        <v>1.000172134173746</v>
       </c>
       <c r="W21">
-        <v>0.9999360517637683</v>
+        <v>0.9998685670689051</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9990241627182689</v>
+        <v>0.997254864932302</v>
       </c>
       <c r="D22">
-        <v>1.000639837722344</v>
+        <v>1.001149929592174</v>
       </c>
       <c r="E22">
-        <v>0.999650535029742</v>
+        <v>0.9991353085329882</v>
       </c>
       <c r="F22">
-        <v>1.000456340297235</v>
+        <v>1.001522063696984</v>
       </c>
       <c r="G22">
-        <v>1.001930607952325</v>
+        <v>1.002982242803392</v>
       </c>
       <c r="H22">
-        <v>1.001930607952325</v>
+        <v>1.002982242803392</v>
       </c>
       <c r="I22">
-        <v>1.001930607952325</v>
+        <v>1.002982242803392</v>
       </c>
       <c r="J22">
-        <v>0.9997872915072585</v>
+        <v>1.000883735563904</v>
       </c>
       <c r="K22">
-        <v>0.9987009955727696</v>
+        <v>0.9957473901222874</v>
       </c>
       <c r="L22">
-        <v>0.9987009955727696</v>
+        <v>0.9957473901222874</v>
       </c>
       <c r="M22">
-        <v>0.9993502421934441</v>
+        <v>0.9990907760313071</v>
       </c>
       <c r="N22">
-        <v>1.001930607952325</v>
+        <v>1.002982242803392</v>
       </c>
       <c r="O22">
-        <v>0.9997872915072585</v>
+        <v>1.000883735563904</v>
       </c>
       <c r="P22">
-        <v>0.9992441435400141</v>
+        <v>0.9983155628430957</v>
       </c>
       <c r="Q22">
-        <v>0.9997189132685003</v>
+        <v>1.000009522048446</v>
       </c>
       <c r="R22">
-        <v>1.000139631677451</v>
+        <v>0.9998711228298612</v>
       </c>
       <c r="S22">
-        <v>0.9993796073699235</v>
+        <v>0.9985888114063931</v>
       </c>
       <c r="T22">
-        <v>1.000139631677451</v>
+        <v>0.9998711228298612</v>
       </c>
       <c r="U22">
-        <v>1.000017357515524</v>
+        <v>0.999687169255643</v>
       </c>
       <c r="V22">
-        <v>1.000400007602884</v>
+        <v>1.000346183965193</v>
       </c>
       <c r="W22">
-        <v>0.9999425016241734</v>
+        <v>0.9997207889094173</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9952788902618869</v>
+      </c>
+      <c r="D23">
+        <v>1.002060937475767</v>
+      </c>
+      <c r="E23">
+        <v>0.9985085555032281</v>
+      </c>
+      <c r="F23">
+        <v>1.002581827118614</v>
+      </c>
+      <c r="G23">
+        <v>1.005419217146351</v>
+      </c>
+      <c r="H23">
+        <v>1.005419217146351</v>
+      </c>
+      <c r="I23">
+        <v>1.005419217146351</v>
+      </c>
+      <c r="J23">
+        <v>1.001332630047377</v>
+      </c>
+      <c r="K23">
+        <v>0.9927365734015435</v>
+      </c>
+      <c r="L23">
+        <v>0.9927365734015435</v>
+      </c>
+      <c r="M23">
+        <v>0.9983329526473602</v>
+      </c>
+      <c r="N23">
+        <v>1.005419217146351</v>
+      </c>
+      <c r="O23">
+        <v>1.001332630047377</v>
+      </c>
+      <c r="P23">
+        <v>0.9970346017244602</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999205927753025</v>
+      </c>
+      <c r="R23">
+        <v>0.999829473531757</v>
+      </c>
+      <c r="S23">
+        <v>0.9975259196507161</v>
+      </c>
+      <c r="T23">
+        <v>0.9998294735317571</v>
+      </c>
+      <c r="U23">
+        <v>0.9994992440246249</v>
+      </c>
+      <c r="V23">
+        <v>1.00068323864897</v>
+      </c>
+      <c r="W23">
+        <v>0.9995314479502659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.061015223892475</v>
+      </c>
+      <c r="D24">
+        <v>0.9883576925373623</v>
+      </c>
+      <c r="E24">
+        <v>1.01953218452695</v>
+      </c>
+      <c r="F24">
+        <v>0.9604670925591248</v>
+      </c>
+      <c r="G24">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="H24">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="I24">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="J24">
+        <v>0.9505485569072475</v>
+      </c>
+      <c r="K24">
+        <v>1.101572376839192</v>
+      </c>
+      <c r="L24">
+        <v>1.101572376839192</v>
+      </c>
+      <c r="M24">
+        <v>1.003871022553245</v>
+      </c>
+      <c r="N24">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="O24">
+        <v>0.9505485569072475</v>
+      </c>
+      <c r="P24">
+        <v>1.02606046687322</v>
+      </c>
+      <c r="Q24">
+        <v>0.9850403707170985</v>
+      </c>
+      <c r="R24">
+        <v>1.0098690920753</v>
+      </c>
+      <c r="S24">
+        <v>1.023884372757796</v>
+      </c>
+      <c r="T24">
+        <v>1.0098690920753</v>
+      </c>
+      <c r="U24">
+        <v>1.012284865188213</v>
+      </c>
+      <c r="V24">
+        <v>1.005325160646462</v>
+      </c>
+      <c r="W24">
+        <v>1.007856311536882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.010762408490879</v>
+      </c>
+      <c r="D25">
+        <v>0.991123002894932</v>
+      </c>
+      <c r="E25">
+        <v>1.004237912811714</v>
+      </c>
+      <c r="F25">
+        <v>0.9954697511380092</v>
+      </c>
+      <c r="G25">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="H25">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="I25">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="J25">
+        <v>1.006294907412056</v>
+      </c>
+      <c r="K25">
+        <v>1.01231569420085</v>
+      </c>
+      <c r="L25">
+        <v>1.01231569420085</v>
+      </c>
+      <c r="M25">
+        <v>1.009885077154758</v>
+      </c>
+      <c r="N25">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="O25">
+        <v>1.006294907412056</v>
+      </c>
+      <c r="P25">
+        <v>1.009305300806453</v>
+      </c>
+      <c r="Q25">
+        <v>1.005266410111885</v>
+      </c>
+      <c r="R25">
+        <v>0.9969285636569752</v>
+      </c>
+      <c r="S25">
+        <v>1.007616171474873</v>
+      </c>
+      <c r="T25">
+        <v>0.9969285636569752</v>
+      </c>
+      <c r="U25">
+        <v>0.9987559009456598</v>
+      </c>
+      <c r="V25">
+        <v>0.9934397386281317</v>
+      </c>
+      <c r="W25">
+        <v>1.000282980432652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9779897521645777</v>
+      </c>
+      <c r="D26">
+        <v>0.9725594144423092</v>
+      </c>
+      <c r="E26">
+        <v>0.9935215584102146</v>
+      </c>
+      <c r="F26">
+        <v>1.027290050489767</v>
+      </c>
+      <c r="G26">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="H26">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="I26">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="J26">
+        <v>1.086988736285105</v>
+      </c>
+      <c r="K26">
+        <v>0.9452405328414936</v>
+      </c>
+      <c r="L26">
+        <v>0.9452405328414936</v>
+      </c>
+      <c r="M26">
+        <v>1.037058679406568</v>
+      </c>
+      <c r="N26">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="O26">
+        <v>1.086988736285105</v>
+      </c>
+      <c r="P26">
+        <v>1.016114634563299</v>
+      </c>
+      <c r="Q26">
+        <v>1.04025514734766</v>
+      </c>
+      <c r="R26">
+        <v>0.978631578390058</v>
+      </c>
+      <c r="S26">
+        <v>1.008583609178938</v>
+      </c>
+      <c r="T26">
+        <v>0.978631578390058</v>
+      </c>
+      <c r="U26">
+        <v>0.9823540733950971</v>
+      </c>
+      <c r="V26">
+        <v>0.9666163519247928</v>
+      </c>
+      <c r="W26">
+        <v>0.9930392737604512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.009087550820412</v>
+      </c>
+      <c r="D27">
+        <v>1.011090610839789</v>
+      </c>
+      <c r="E27">
+        <v>1.002261021031787</v>
+      </c>
+      <c r="F27">
+        <v>0.9891305111134</v>
+      </c>
+      <c r="G27">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="H27">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="I27">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="J27">
+        <v>0.9646500282427001</v>
+      </c>
+      <c r="K27">
+        <v>1.023633834190518</v>
+      </c>
+      <c r="L27">
+        <v>1.023633834190518</v>
+      </c>
+      <c r="M27">
+        <v>0.9843833678308225</v>
+      </c>
+      <c r="N27">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="O27">
+        <v>0.9646500282427001</v>
+      </c>
+      <c r="P27">
+        <v>0.9941419312166091</v>
+      </c>
+      <c r="Q27">
+        <v>0.9834555246372436</v>
+      </c>
+      <c r="R27">
+        <v>1.009291499476357</v>
+      </c>
+      <c r="S27">
+        <v>0.9968482944883351</v>
+      </c>
+      <c r="T27">
+        <v>1.009291499476357</v>
+      </c>
+      <c r="U27">
+        <v>1.007533879865214</v>
+      </c>
+      <c r="V27">
+        <v>1.013945231091342</v>
+      </c>
+      <c r="W27">
+        <v>1.00297844500816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9282028823394345</v>
+      </c>
+      <c r="D28">
+        <v>1.02970830043809</v>
+      </c>
+      <c r="E28">
+        <v>0.9771824813840072</v>
+      </c>
+      <c r="F28">
+        <v>1.039710498062722</v>
+      </c>
+      <c r="G28">
+        <v>1.078343622117813</v>
+      </c>
+      <c r="H28">
+        <v>1.078343622117813</v>
+      </c>
+      <c r="I28">
+        <v>1.078343622117813</v>
+      </c>
+      <c r="J28">
+        <v>1.023323482780629</v>
+      </c>
+      <c r="K28">
+        <v>0.888549403141576</v>
+      </c>
+      <c r="L28">
+        <v>0.888549403141576</v>
+      </c>
+      <c r="M28">
+        <v>0.9765852745735409</v>
+      </c>
+      <c r="N28">
+        <v>1.078343622117813</v>
+      </c>
+      <c r="O28">
+        <v>1.023323482780629</v>
+      </c>
+      <c r="P28">
+        <v>0.9559364429611026</v>
+      </c>
+      <c r="Q28">
+        <v>1.000252982082318</v>
+      </c>
+      <c r="R28">
+        <v>0.9967388360133395</v>
+      </c>
+      <c r="S28">
+        <v>0.9630184557687375</v>
+      </c>
+      <c r="T28">
+        <v>0.9967388360133395</v>
+      </c>
+      <c r="U28">
+        <v>0.9918497473560064</v>
+      </c>
+      <c r="V28">
+        <v>1.009148522308368</v>
+      </c>
+      <c r="W28">
+        <v>0.9927007431047264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9408830977684736</v>
+      </c>
+      <c r="D29">
+        <v>1.02400202707603</v>
+      </c>
+      <c r="E29">
+        <v>0.9811927355279514</v>
+      </c>
+      <c r="F29">
+        <v>1.032932930857174</v>
+      </c>
+      <c r="G29">
+        <v>1.062946876132992</v>
+      </c>
+      <c r="H29">
+        <v>1.062946876132992</v>
+      </c>
+      <c r="I29">
+        <v>1.062946876132992</v>
+      </c>
+      <c r="J29">
+        <v>1.020252314095887</v>
+      </c>
+      <c r="K29">
+        <v>0.9080869332288457</v>
+      </c>
+      <c r="L29">
+        <v>0.9080869332288457</v>
+      </c>
+      <c r="M29">
+        <v>0.98122380953063</v>
+      </c>
+      <c r="N29">
+        <v>1.062946876132992</v>
+      </c>
+      <c r="O29">
+        <v>1.020252314095887</v>
+      </c>
+      <c r="P29">
+        <v>0.9641696236623666</v>
+      </c>
+      <c r="Q29">
+        <v>1.000722524811919</v>
+      </c>
+      <c r="R29">
+        <v>0.9970953744859085</v>
+      </c>
+      <c r="S29">
+        <v>0.9698439942842282</v>
+      </c>
+      <c r="T29">
+        <v>0.9970953744859085</v>
+      </c>
+      <c r="U29">
+        <v>0.9931197147464192</v>
+      </c>
+      <c r="V29">
+        <v>1.007085147023734</v>
+      </c>
+      <c r="W29">
+        <v>0.993940090527248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9662472571132839</v>
+      </c>
+      <c r="D30">
+        <v>1.012625878514033</v>
+      </c>
+      <c r="E30">
+        <v>0.9892122057425904</v>
+      </c>
+      <c r="F30">
+        <v>1.019359391077056</v>
+      </c>
+      <c r="G30">
+        <v>1.032282545763586</v>
+      </c>
+      <c r="H30">
+        <v>1.032282545763586</v>
+      </c>
+      <c r="I30">
+        <v>1.032282545763586</v>
+      </c>
+      <c r="J30">
+        <v>1.014023196398148</v>
+      </c>
+      <c r="K30">
+        <v>0.947191075169175</v>
+      </c>
+      <c r="L30">
+        <v>0.947191075169175</v>
+      </c>
+      <c r="M30">
+        <v>0.9904547570328214</v>
+      </c>
+      <c r="N30">
+        <v>1.032282545763586</v>
+      </c>
+      <c r="O30">
+        <v>1.014023196398148</v>
+      </c>
+      <c r="P30">
+        <v>0.9806071357836617</v>
+      </c>
+      <c r="Q30">
+        <v>1.001617701070369</v>
+      </c>
+      <c r="R30">
+        <v>0.9978322724436367</v>
+      </c>
+      <c r="S30">
+        <v>0.9834754924366379</v>
+      </c>
+      <c r="T30">
+        <v>0.9978322724436367</v>
+      </c>
+      <c r="U30">
+        <v>0.9956772557683751</v>
+      </c>
+      <c r="V30">
+        <v>1.002998313767417</v>
+      </c>
+      <c r="W30">
+        <v>0.9964245383513368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9627477665628156</v>
+      </c>
+      <c r="D31">
+        <v>1.013545060600203</v>
+      </c>
+      <c r="E31">
+        <v>0.9883286746655281</v>
+      </c>
+      <c r="F31">
+        <v>1.021467549202469</v>
+      </c>
+      <c r="G31">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="H31">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="I31">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="J31">
+        <v>1.016465355938626</v>
+      </c>
+      <c r="K31">
+        <v>0.9410142104480609</v>
+      </c>
+      <c r="L31">
+        <v>0.9410142104480609</v>
+      </c>
+      <c r="M31">
+        <v>0.9902119175812678</v>
+      </c>
+      <c r="N31">
+        <v>1.033685857663602</v>
+      </c>
+      <c r="O31">
+        <v>1.016465355938626</v>
+      </c>
+      <c r="P31">
+        <v>0.9787397831933433</v>
+      </c>
+      <c r="Q31">
+        <v>1.002397015302077</v>
+      </c>
+      <c r="R31">
+        <v>0.9970551413500962</v>
+      </c>
+      <c r="S31">
+        <v>0.9819360803507382</v>
+      </c>
+      <c r="T31">
+        <v>0.9970551413500962</v>
+      </c>
+      <c r="U31">
+        <v>0.9948735246789542</v>
+      </c>
+      <c r="V31">
+        <v>1.002635991275884</v>
+      </c>
+      <c r="W31">
+        <v>0.9959332990828216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9118363605479453</v>
+      </c>
+      <c r="D32">
+        <v>1.037474967123288</v>
+      </c>
+      <c r="E32">
+        <v>0.9720023686301373</v>
+      </c>
+      <c r="F32">
+        <v>1.048321245479453</v>
+      </c>
+      <c r="G32">
+        <v>1.099441426575342</v>
+      </c>
+      <c r="H32">
+        <v>1.099441426575342</v>
+      </c>
+      <c r="I32">
+        <v>1.099441426575342</v>
+      </c>
+      <c r="J32">
+        <v>1.02645659150685</v>
+      </c>
+      <c r="K32">
+        <v>0.863598673287671</v>
+      </c>
+      <c r="L32">
+        <v>0.863598673287671</v>
+      </c>
+      <c r="M32">
+        <v>0.9700979501369863</v>
+      </c>
+      <c r="N32">
+        <v>1.099441426575342</v>
+      </c>
+      <c r="O32">
+        <v>1.02645659150685</v>
+      </c>
+      <c r="P32">
+        <v>0.9450276323972604</v>
+      </c>
+      <c r="Q32">
+        <v>0.9992294800684935</v>
+      </c>
+      <c r="R32">
+        <v>0.9964988971232879</v>
+      </c>
+      <c r="S32">
+        <v>0.9540192111415527</v>
+      </c>
+      <c r="T32">
+        <v>0.9964988971232879</v>
+      </c>
+      <c r="U32">
+        <v>0.9903747650000002</v>
+      </c>
+      <c r="V32">
+        <v>1.012188097315069</v>
+      </c>
+      <c r="W32">
+        <v>0.9911536979109591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8450153536842107</v>
+      </c>
+      <c r="D33">
+        <v>1.046929290526316</v>
+      </c>
+      <c r="E33">
+        <v>0.950006320526316</v>
+      </c>
+      <c r="F33">
+        <v>1.093318578947369</v>
+      </c>
+      <c r="G33">
+        <v>1.114589452105263</v>
+      </c>
+      <c r="H33">
+        <v>1.114589452105263</v>
+      </c>
+      <c r="I33">
+        <v>1.114589452105263</v>
+      </c>
+      <c r="J33">
+        <v>1.087684413157895</v>
+      </c>
+      <c r="K33">
+        <v>0.7521253289473684</v>
+      </c>
+      <c r="L33">
+        <v>0.7521253289473684</v>
+      </c>
+      <c r="M33">
+        <v>0.9689730052631579</v>
+      </c>
+      <c r="N33">
+        <v>1.114589452105263</v>
+      </c>
+      <c r="O33">
+        <v>1.087684413157895</v>
+      </c>
+      <c r="P33">
+        <v>0.9199048710526316</v>
+      </c>
+      <c r="Q33">
+        <v>1.018845366842105</v>
+      </c>
+      <c r="R33">
+        <v>0.9847997314035087</v>
+      </c>
+      <c r="S33">
+        <v>0.9299386875438597</v>
+      </c>
+      <c r="T33">
+        <v>0.9847997314035087</v>
+      </c>
+      <c r="U33">
+        <v>0.9761013786842105</v>
+      </c>
+      <c r="V33">
+        <v>1.003798993368421</v>
+      </c>
+      <c r="W33">
+        <v>0.9823302178947368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8560286810526316</v>
+      </c>
+      <c r="D34">
+        <v>1.05234356631579</v>
+      </c>
+      <c r="E34">
+        <v>0.9519814789473685</v>
+      </c>
+      <c r="F34">
+        <v>1.083449540526316</v>
+      </c>
+      <c r="G34">
+        <v>1.13944183</v>
+      </c>
+      <c r="H34">
+        <v>1.13944183</v>
+      </c>
+      <c r="I34">
+        <v>1.13944183</v>
+      </c>
+      <c r="J34">
+        <v>1.06147430368421</v>
+      </c>
+      <c r="K34">
+        <v>0.7777214068421053</v>
+      </c>
+      <c r="L34">
+        <v>0.7777214068421053</v>
+      </c>
+      <c r="M34">
+        <v>0.9588467189473684</v>
+      </c>
+      <c r="N34">
+        <v>1.13944183</v>
+      </c>
+      <c r="O34">
+        <v>1.06147430368421</v>
+      </c>
+      <c r="P34">
+        <v>0.9195978552631578</v>
+      </c>
+      <c r="Q34">
+        <v>1.00672789131579</v>
+      </c>
+      <c r="R34">
+        <v>0.9928791801754385</v>
+      </c>
+      <c r="S34">
+        <v>0.9303923964912281</v>
+      </c>
+      <c r="T34">
+        <v>0.9928791801754387</v>
+      </c>
+      <c r="U34">
+        <v>0.9826547548684211</v>
+      </c>
+      <c r="V34">
+        <v>1.014012169894737</v>
+      </c>
+      <c r="W34">
+        <v>0.9851609407894737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.866720506417536</v>
+      </c>
+      <c r="D35">
+        <v>1.04925919795993</v>
+      </c>
+      <c r="E35">
+        <v>0.9584941801502131</v>
+      </c>
+      <c r="F35">
+        <v>1.076608275280972</v>
+      </c>
+      <c r="G35">
+        <v>1.121758234631702</v>
+      </c>
+      <c r="H35">
+        <v>1.121758234631702</v>
+      </c>
+      <c r="I35">
+        <v>1.121758234631702</v>
+      </c>
+      <c r="J35">
+        <v>1.057632289513481</v>
+      </c>
+      <c r="K35">
+        <v>0.7891625747108328</v>
+      </c>
+      <c r="L35">
+        <v>0.7891625747108328</v>
+      </c>
+      <c r="M35">
+        <v>0.9642170130054527</v>
+      </c>
+      <c r="N35">
+        <v>1.121758234631702</v>
+      </c>
+      <c r="O35">
+        <v>1.057632289513481</v>
+      </c>
+      <c r="P35">
+        <v>0.9233974321121567</v>
+      </c>
+      <c r="Q35">
+        <v>1.008063234831847</v>
+      </c>
+      <c r="R35">
+        <v>0.9895176996186718</v>
+      </c>
+      <c r="S35">
+        <v>0.9350963481248421</v>
+      </c>
+      <c r="T35">
+        <v>0.9895176996186718</v>
+      </c>
+      <c r="U35">
+        <v>0.9817618197515572</v>
+      </c>
+      <c r="V35">
+        <v>1.009761102727586</v>
+      </c>
+      <c r="W35">
+        <v>0.9854815339587648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000033947390351</v>
+      </c>
+      <c r="D36">
+        <v>1.000059746565682</v>
+      </c>
+      <c r="E36">
+        <v>0.9999981104507403</v>
+      </c>
+      <c r="F36">
+        <v>0.9999556376209234</v>
+      </c>
+      <c r="G36">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="H36">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="I36">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="J36">
+        <v>0.9998237421471231</v>
+      </c>
+      <c r="K36">
+        <v>1.000121523469163</v>
+      </c>
+      <c r="L36">
+        <v>1.000121523469163</v>
+      </c>
+      <c r="M36">
+        <v>0.9999067687736574</v>
+      </c>
+      <c r="N36">
+        <v>1.000233504134059</v>
+      </c>
+      <c r="O36">
+        <v>0.9998237421471231</v>
+      </c>
+      <c r="P36">
+        <v>0.9999726328081433</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999109262989316</v>
+      </c>
+      <c r="R36">
+        <v>1.000059589916782</v>
+      </c>
+      <c r="S36">
+        <v>0.9999811253556756</v>
+      </c>
+      <c r="T36">
+        <v>1.000059589916782</v>
+      </c>
+      <c r="U36">
+        <v>1.000044220050271</v>
+      </c>
+      <c r="V36">
+        <v>1.000082076867029</v>
+      </c>
+      <c r="W36">
+        <v>1.000016622568962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9995908427225836</v>
+      </c>
+      <c r="D37">
+        <v>1.000037408065874</v>
+      </c>
+      <c r="E37">
+        <v>0.999889143050541</v>
+      </c>
+      <c r="F37">
+        <v>1.000275974535134</v>
+      </c>
+      <c r="G37">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="H37">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="I37">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="J37">
+        <v>1.000430831698937</v>
+      </c>
+      <c r="K37">
+        <v>0.9992536943642569</v>
+      </c>
+      <c r="L37">
+        <v>0.9992536943642569</v>
+      </c>
+      <c r="M37">
+        <v>1.00004713193183</v>
+      </c>
+      <c r="N37">
+        <v>0.9999633877409899</v>
+      </c>
+      <c r="O37">
+        <v>1.000430831698937</v>
+      </c>
+      <c r="P37">
+        <v>0.9998422630315968</v>
+      </c>
+      <c r="Q37">
+        <v>1.000159987374739</v>
+      </c>
+      <c r="R37">
+        <v>0.999882637934728</v>
+      </c>
+      <c r="S37">
+        <v>0.9998578897045783</v>
+      </c>
+      <c r="T37">
+        <v>0.999882637934728</v>
+      </c>
+      <c r="U37">
+        <v>0.9998842642136812</v>
+      </c>
+      <c r="V37">
+        <v>0.9999000889191428</v>
+      </c>
+      <c r="W37">
+        <v>0.9999360517637683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9990241627182689</v>
+      </c>
+      <c r="D38">
+        <v>1.000639837722344</v>
+      </c>
+      <c r="E38">
+        <v>0.999650535029742</v>
+      </c>
+      <c r="F38">
+        <v>1.000456340297235</v>
+      </c>
+      <c r="G38">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="H38">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="I38">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="J38">
+        <v>0.9997872915072585</v>
+      </c>
+      <c r="K38">
+        <v>0.9987009955727696</v>
+      </c>
+      <c r="L38">
+        <v>0.9987009955727696</v>
+      </c>
+      <c r="M38">
+        <v>0.9993502421934441</v>
+      </c>
+      <c r="N38">
+        <v>1.001930607952325</v>
+      </c>
+      <c r="O38">
+        <v>0.9997872915072585</v>
+      </c>
+      <c r="P38">
+        <v>0.9992441435400141</v>
+      </c>
+      <c r="Q38">
+        <v>0.9997189132685003</v>
+      </c>
+      <c r="R38">
+        <v>1.000139631677451</v>
+      </c>
+      <c r="S38">
+        <v>0.9993796073699235</v>
+      </c>
+      <c r="T38">
+        <v>1.000139631677451</v>
+      </c>
+      <c r="U38">
+        <v>1.000017357515524</v>
+      </c>
+      <c r="V38">
+        <v>1.000400007602884</v>
+      </c>
+      <c r="W38">
+        <v>0.9999425016241734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9979980982218142</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001802774294145</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9991974585549099</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000757705434891</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.00578974801117</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00578974801117</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.00578974801117</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9984515642588555</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9977819977021313</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9977819977021313</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9979774494133846</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.00578974801117</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9984515642588555</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9981167809804934</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9988245114068828</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000674436657386</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9984770068386322</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000674436657386</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000305192131767</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.001402103307647</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999695994864126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.949723045424581</v>
+      </c>
+      <c r="D40">
+        <v>1.019962621828056</v>
+      </c>
+      <c r="E40">
+        <v>0.9832695535409419</v>
+      </c>
+      <c r="F40">
+        <v>1.028501846783493</v>
+      </c>
+      <c r="G40">
+        <v>1.053831468713532</v>
+      </c>
+      <c r="H40">
+        <v>1.053831468713532</v>
+      </c>
+      <c r="I40">
+        <v>1.053831468713532</v>
+      </c>
+      <c r="J40">
+        <v>1.01793911214657</v>
+      </c>
+      <c r="K40">
+        <v>0.9233034963769736</v>
+      </c>
+      <c r="L40">
+        <v>0.9233034963769736</v>
+      </c>
+      <c r="M40">
+        <v>0.983625137539793</v>
+      </c>
+      <c r="N40">
+        <v>1.053831468713532</v>
+      </c>
+      <c r="O40">
+        <v>1.01793911214657</v>
+      </c>
+      <c r="P40">
+        <v>0.970621304261772</v>
+      </c>
+      <c r="Q40">
+        <v>1.000604332843756</v>
+      </c>
+      <c r="R40">
+        <v>0.9983580257456919</v>
+      </c>
+      <c r="S40">
+        <v>0.9748373873548286</v>
+      </c>
+      <c r="T40">
+        <v>0.9983580257456918</v>
+      </c>
+      <c r="U40">
+        <v>0.9945859076945043</v>
+      </c>
+      <c r="V40">
+        <v>1.00643501989831</v>
+      </c>
+      <c r="W40">
+        <v>0.9950195352942426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.026356514606268</v>
+      </c>
+      <c r="D41">
+        <v>0.9908030235442021</v>
+      </c>
+      <c r="E41">
+        <v>1.008721562200998</v>
+      </c>
+      <c r="F41">
+        <v>0.984589002804664</v>
+      </c>
+      <c r="G41">
+        <v>0.9758978202795282</v>
+      </c>
+      <c r="H41">
+        <v>0.9758978202795282</v>
+      </c>
+      <c r="I41">
+        <v>0.9758978202795282</v>
+      </c>
+      <c r="J41">
+        <v>0.9878794469731611</v>
+      </c>
+      <c r="K41">
+        <v>1.041055812844737</v>
+      </c>
+      <c r="L41">
+        <v>1.041055812844737</v>
+      </c>
+      <c r="M41">
+        <v>1.006986257444394</v>
+      </c>
+      <c r="N41">
+        <v>0.9758978202795282</v>
+      </c>
+      <c r="O41">
+        <v>0.9878794469731611</v>
+      </c>
+      <c r="P41">
+        <v>1.014467629908949</v>
+      </c>
+      <c r="Q41">
+        <v>0.9983005045870794</v>
+      </c>
+      <c r="R41">
+        <v>1.001611026699142</v>
+      </c>
+      <c r="S41">
+        <v>1.012552274006299</v>
+      </c>
+      <c r="T41">
+        <v>1.001611026699142</v>
+      </c>
+      <c r="U41">
+        <v>1.003388660574606</v>
+      </c>
+      <c r="V41">
+        <v>0.9978904925155904</v>
+      </c>
+      <c r="W41">
+        <v>1.002786180087244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9465150450118539</v>
+      </c>
+      <c r="D42">
+        <v>1.01247834424263</v>
+      </c>
+      <c r="E42">
+        <v>0.9826495923717345</v>
+      </c>
+      <c r="F42">
+        <v>1.033953457223255</v>
+      </c>
+      <c r="G42">
+        <v>1.027193798902357</v>
+      </c>
+      <c r="H42">
+        <v>1.027193798902357</v>
+      </c>
+      <c r="I42">
+        <v>1.027193798902357</v>
+      </c>
+      <c r="J42">
+        <v>1.038555684345547</v>
+      </c>
+      <c r="K42">
+        <v>0.9129380150283664</v>
+      </c>
+      <c r="L42">
+        <v>0.9129380150283664</v>
+      </c>
+      <c r="M42">
+        <v>0.9935155314341576</v>
+      </c>
+      <c r="N42">
+        <v>1.027193798902357</v>
+      </c>
+      <c r="O42">
+        <v>1.038555684345547</v>
+      </c>
+      <c r="P42">
+        <v>0.9757468496869566</v>
+      </c>
+      <c r="Q42">
+        <v>1.010602638358641</v>
+      </c>
+      <c r="R42">
+        <v>0.9928958327587566</v>
+      </c>
+      <c r="S42">
+        <v>0.978047763915216</v>
+      </c>
+      <c r="T42">
+        <v>0.9928958327587566</v>
+      </c>
+      <c r="U42">
+        <v>0.9903342726620011</v>
+      </c>
+      <c r="V42">
+        <v>0.9977061779100722</v>
+      </c>
+      <c r="W42">
+        <v>0.9934749335699875</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004030674820005</v>
+        <v>0.9991161729762265</v>
       </c>
       <c r="D3">
-        <v>0.9942834129731773</v>
+        <v>1.000361474567906</v>
       </c>
       <c r="E3">
-        <v>1.001174272573899</v>
+        <v>0.999721200770899</v>
       </c>
       <c r="F3">
-        <v>1.004030674820005</v>
+        <v>1.00049328556118</v>
       </c>
       <c r="G3">
-        <v>0.9988377047892119</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="H3">
-        <v>1.002025598748298</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="I3">
-        <v>1.004030674820005</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="J3">
-        <v>0.9942834129731773</v>
+        <v>1.000302547069694</v>
       </c>
       <c r="K3">
-        <v>0.9987983899949526</v>
+        <v>0.9986262157221392</v>
       </c>
       <c r="L3">
-        <v>1.001530269177128</v>
+        <v>0.9986262157221392</v>
       </c>
       <c r="M3">
-        <v>0.9963241459264348</v>
+        <v>0.9997175262154542</v>
       </c>
       <c r="N3">
-        <v>1.004030674820005</v>
+        <v>1.000934474691575</v>
       </c>
       <c r="O3">
-        <v>1.001174272573899</v>
+        <v>1.000302547069694</v>
       </c>
       <c r="P3">
-        <v>0.9977288427735382</v>
+        <v>0.9994643813959168</v>
       </c>
       <c r="Q3">
-        <v>1.000005988681556</v>
+        <v>1.000011873920297</v>
       </c>
       <c r="R3">
-        <v>0.9998294534556939</v>
+        <v>0.9999544124944695</v>
       </c>
       <c r="S3">
-        <v>0.9980984634454294</v>
+        <v>0.9995499878542442</v>
       </c>
       <c r="T3">
-        <v>0.9998294534556939</v>
+        <v>0.9999544124944695</v>
       </c>
       <c r="U3">
-        <v>0.9995815162890733</v>
+        <v>0.9998961095635769</v>
       </c>
       <c r="V3">
-        <v>1.00047134799526</v>
+        <v>1.000103782589177</v>
       </c>
       <c r="W3">
-        <v>0.9996255586253884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999091121968843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.007736514915124</v>
+        <v>0.949723045424581</v>
       </c>
       <c r="D4">
-        <v>0.9889478267409232</v>
+        <v>1.019962621828056</v>
       </c>
       <c r="E4">
-        <v>1.002311537330295</v>
+        <v>0.9832695535409419</v>
       </c>
       <c r="F4">
-        <v>1.007736514915124</v>
+        <v>1.028501846783493</v>
       </c>
       <c r="G4">
-        <v>0.9977493793817814</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="H4">
-        <v>1.003926469778331</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="I4">
-        <v>1.007736514915124</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="J4">
-        <v>0.9889478267409232</v>
+        <v>1.01793911214657</v>
       </c>
       <c r="K4">
-        <v>0.9976942831919191</v>
+        <v>0.9233034963769736</v>
       </c>
       <c r="L4">
-        <v>1.002939635686258</v>
+        <v>0.9233034963769736</v>
       </c>
       <c r="M4">
-        <v>0.9928934473304042</v>
+        <v>0.983625137539793</v>
       </c>
       <c r="N4">
-        <v>1.007736514915124</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="O4">
-        <v>1.002311537330295</v>
+        <v>1.01793911214657</v>
       </c>
       <c r="P4">
-        <v>0.9956296820356092</v>
+        <v>0.970621304261772</v>
       </c>
       <c r="Q4">
-        <v>1.000030458356038</v>
+        <v>1.000604332843756</v>
       </c>
       <c r="R4">
-        <v>0.9996652929954476</v>
+        <v>0.9983580257456919</v>
       </c>
       <c r="S4">
-        <v>0.9963362478176666</v>
+        <v>0.9748373873548286</v>
       </c>
       <c r="T4">
-        <v>0.9996652929954476</v>
+        <v>0.9983580257456918</v>
       </c>
       <c r="U4">
-        <v>0.999186314592031</v>
+        <v>0.9945859076945043</v>
       </c>
       <c r="V4">
-        <v>1.00089635465665</v>
+        <v>1.00643501989831</v>
       </c>
       <c r="W4">
-        <v>0.9992748867943795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9950195352942426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.014880303423631</v>
+        <v>0.9590692890201737</v>
       </c>
       <c r="D5">
-        <v>0.9788374085024651</v>
+        <v>1.015268203112391</v>
       </c>
       <c r="E5">
-        <v>1.004369010978778</v>
+        <v>0.9869484456195963</v>
       </c>
       <c r="F5">
-        <v>1.014880303423631</v>
+        <v>1.023485572500001</v>
       </c>
       <c r="G5">
-        <v>0.9956993025183521</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="H5">
-        <v>1.007502745910392</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="I5">
-        <v>1.014880303423631</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="J5">
-        <v>0.9788374085024651</v>
+        <v>1.017115432572044</v>
       </c>
       <c r="K5">
-        <v>0.9955629597598288</v>
+        <v>0.9358728257564846</v>
       </c>
       <c r="L5">
-        <v>1.005655441823875</v>
+        <v>0.9358728257564846</v>
       </c>
       <c r="M5">
-        <v>0.9863946363466984</v>
+        <v>0.9885126609005739</v>
       </c>
       <c r="N5">
-        <v>1.014880303423631</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="O5">
-        <v>1.004369010978778</v>
+        <v>1.017115432572044</v>
       </c>
       <c r="P5">
-        <v>0.9916032097406215</v>
+        <v>0.9764941291642643</v>
       </c>
       <c r="Q5">
-        <v>1.000034156748565</v>
+        <v>1.00203193909582</v>
       </c>
       <c r="R5">
-        <v>0.9993622409682915</v>
+        <v>0.9973039555643597</v>
       </c>
       <c r="S5">
-        <v>0.9929685739998652</v>
+        <v>0.9799789013160417</v>
       </c>
       <c r="T5">
-        <v>0.9993622409682915</v>
+        <v>0.9973039555643597</v>
       </c>
       <c r="U5">
-        <v>0.9984465063558067</v>
+        <v>0.9947150780781688</v>
       </c>
       <c r="V5">
-        <v>1.001733265769372</v>
+        <v>1.003556784135445</v>
       </c>
       <c r="W5">
-        <v>0.9986127261580025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9956495047307269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.021864913483174</v>
+        <v>0.866720506417536</v>
       </c>
       <c r="D6">
-        <v>0.9689540857708678</v>
+        <v>1.04925919795993</v>
       </c>
       <c r="E6">
-        <v>1.006397349150147</v>
+        <v>0.9584941801502131</v>
       </c>
       <c r="F6">
-        <v>1.021864913483174</v>
+        <v>1.076608275280972</v>
       </c>
       <c r="G6">
-        <v>0.9936852739453682</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="H6">
-        <v>1.010992326708033</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="I6">
-        <v>1.021864913483174</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="J6">
-        <v>0.9689540857708678</v>
+        <v>1.057632289513481</v>
       </c>
       <c r="K6">
-        <v>0.993503476865077</v>
+        <v>0.7891625747108328</v>
       </c>
       <c r="L6">
-        <v>1.008284340184601</v>
+        <v>0.7891625747108328</v>
       </c>
       <c r="M6">
-        <v>0.9800483918043589</v>
+        <v>0.9642170130054527</v>
       </c>
       <c r="N6">
-        <v>1.021864913483174</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="O6">
-        <v>1.006397349150147</v>
+        <v>1.057632289513481</v>
       </c>
       <c r="P6">
-        <v>0.9876757174605073</v>
+        <v>0.9233974321121567</v>
       </c>
       <c r="Q6">
-        <v>1.000041311547758</v>
+        <v>1.008063234831847</v>
       </c>
       <c r="R6">
-        <v>0.9990721161347297</v>
+        <v>0.9895176996186718</v>
       </c>
       <c r="S6">
-        <v>0.989678902955461</v>
+        <v>0.9350963481248421</v>
       </c>
       <c r="T6">
-        <v>0.9990721161347297</v>
+        <v>0.9895176996186718</v>
       </c>
       <c r="U6">
-        <v>0.9977254055873893</v>
+        <v>0.9817618197515572</v>
       </c>
       <c r="V6">
-        <v>1.002553307166546</v>
+        <v>1.009761102727586</v>
       </c>
       <c r="W6">
-        <v>0.9979662697389534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9854815339587648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000312410730304</v>
+        <v>0.9956606125396258</v>
       </c>
       <c r="D7">
-        <v>0.9995181652892992</v>
+        <v>1.001928691488579</v>
       </c>
       <c r="E7">
-        <v>1.000113207166924</v>
+        <v>0.9986097814422972</v>
       </c>
       <c r="F7">
-        <v>1.000312410730304</v>
+        <v>1.00234545378407</v>
       </c>
       <c r="G7">
-        <v>0.9999035934236672</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="H7">
-        <v>1.000173401944798</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="I7">
-        <v>1.000312410730304</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="J7">
-        <v>0.9995181652892992</v>
+        <v>1.00111024708763</v>
       </c>
       <c r="K7">
-        <v>0.9999059816387509</v>
+        <v>0.9933554444819432</v>
       </c>
       <c r="L7">
-        <v>1.000122939681833</v>
+        <v>0.9933554444819432</v>
       </c>
       <c r="M7">
-        <v>0.9996918392878386</v>
+        <v>0.9984137033980711</v>
       </c>
       <c r="N7">
-        <v>1.000312410730304</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="O7">
-        <v>1.000113207166924</v>
+        <v>1.00111024708763</v>
       </c>
       <c r="P7">
-        <v>0.9998156862281116</v>
+        <v>0.9972328457847868</v>
       </c>
       <c r="Q7">
-        <v>1.000008400295296</v>
+        <v>0.9998600142649637</v>
       </c>
       <c r="R7">
-        <v>0.9999812610621758</v>
+        <v>0.9998906864442655</v>
       </c>
       <c r="S7">
-        <v>0.9998449886266302</v>
+        <v>0.9976918243372902</v>
       </c>
       <c r="T7">
-        <v>0.9999812610621758</v>
+        <v>0.9998906864442655</v>
       </c>
       <c r="U7">
-        <v>0.9999618441525486</v>
+        <v>0.9995704601937734</v>
       </c>
       <c r="V7">
-        <v>1.0000319574681</v>
+        <v>1.000697641707663</v>
       </c>
       <c r="W7">
-        <v>0.9999676923954268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9995787877481799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000934474691576</v>
+        <v>0.9995908427225836</v>
       </c>
       <c r="D8">
-        <v>0.9986262157221393</v>
+        <v>1.000037408065874</v>
       </c>
       <c r="E8">
-        <v>1.000302547069694</v>
+        <v>0.999889143050541</v>
       </c>
       <c r="F8">
-        <v>1.000934474691576</v>
+        <v>1.000275974535134</v>
       </c>
       <c r="G8">
-        <v>0.999721200770899</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="H8">
-        <v>1.00049328556118</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="I8">
-        <v>1.000934474691576</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="J8">
-        <v>0.9986262157221393</v>
+        <v>1.000430831698937</v>
       </c>
       <c r="K8">
-        <v>0.9997175262154542</v>
+        <v>0.9992536943642569</v>
       </c>
       <c r="L8">
-        <v>1.000361474567906</v>
+        <v>0.9992536943642569</v>
       </c>
       <c r="M8">
-        <v>0.9991161729762265</v>
+        <v>1.00004713193183</v>
       </c>
       <c r="N8">
-        <v>1.000934474691576</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="O8">
-        <v>1.000302547069694</v>
+        <v>1.000430831698937</v>
       </c>
       <c r="P8">
-        <v>0.9994643813959165</v>
+        <v>0.9998422630315968</v>
       </c>
       <c r="Q8">
-        <v>1.000011873920296</v>
+        <v>1.000159987374739</v>
       </c>
       <c r="R8">
-        <v>0.9999544124944695</v>
+        <v>0.999882637934728</v>
       </c>
       <c r="S8">
-        <v>0.9995499878542441</v>
+        <v>0.9998578897045783</v>
       </c>
       <c r="T8">
-        <v>0.9999544124944695</v>
+        <v>0.999882637934728</v>
       </c>
       <c r="U8">
-        <v>0.9998961095635769</v>
+        <v>0.9998842642136812</v>
       </c>
       <c r="V8">
-        <v>1.000103782589177</v>
+        <v>0.9999000889191428</v>
       </c>
       <c r="W8">
-        <v>0.9999091121968843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999360517637683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001440438978038</v>
+        <v>0.9928934473304042</v>
       </c>
       <c r="D9">
-        <v>0.9979861195068657</v>
+        <v>1.002939635686258</v>
       </c>
       <c r="E9">
-        <v>1.000405947549165</v>
+        <v>0.9977493793817814</v>
       </c>
       <c r="F9">
-        <v>1.001440438978038</v>
+        <v>1.003926469778331</v>
       </c>
       <c r="G9">
-        <v>0.9995877258566215</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="H9">
-        <v>1.000720807395803</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="I9">
-        <v>1.001440438978038</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="J9">
-        <v>0.9979861195068657</v>
+        <v>1.002311537330295</v>
       </c>
       <c r="K9">
-        <v>0.9995593993419013</v>
+        <v>0.9889478267409232</v>
       </c>
       <c r="L9">
-        <v>1.000552046249692</v>
+        <v>0.9889478267409232</v>
       </c>
       <c r="M9">
-        <v>0.998696051673155</v>
+        <v>0.9976942831919191</v>
       </c>
       <c r="N9">
-        <v>1.001440438978038</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="O9">
-        <v>1.000405947549165</v>
+        <v>1.002311537330295</v>
       </c>
       <c r="P9">
-        <v>0.9991960335280152</v>
+        <v>0.9956296820356092</v>
       </c>
       <c r="Q9">
-        <v>0.9999968367028931</v>
+        <v>1.000030458356038</v>
       </c>
       <c r="R9">
-        <v>0.9999441686780229</v>
+        <v>0.9996652929954476</v>
       </c>
       <c r="S9">
-        <v>0.9993265976375506</v>
+        <v>0.9963362478176666</v>
       </c>
       <c r="T9">
-        <v>0.9999441686780229</v>
+        <v>0.9996652929954476</v>
       </c>
       <c r="U9">
-        <v>0.9998550579726726</v>
+        <v>0.999186314592031</v>
       </c>
       <c r="V9">
-        <v>1.000172134173746</v>
+        <v>1.00089635465665</v>
       </c>
       <c r="W9">
-        <v>0.9998685670689051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9992748867943795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.002982242803392</v>
+        <v>0.8647019623300549</v>
       </c>
       <c r="D10">
-        <v>0.9957473901222874</v>
+        <v>1.050019599653323</v>
       </c>
       <c r="E10">
-        <v>1.000883735563904</v>
+        <v>0.9579776286451788</v>
       </c>
       <c r="F10">
-        <v>1.002982242803392</v>
+        <v>1.07772991875701</v>
       </c>
       <c r="G10">
-        <v>0.999135308532988</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="H10">
-        <v>1.001522063696984</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="I10">
-        <v>1.002982242803392</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="J10">
-        <v>0.9957473901222874</v>
+        <v>1.058535706407588</v>
       </c>
       <c r="K10">
-        <v>0.9990907760313071</v>
+        <v>0.7857369330583172</v>
       </c>
       <c r="L10">
-        <v>1.001149929592174</v>
+        <v>0.7857369330583172</v>
       </c>
       <c r="M10">
-        <v>0.9972548649323018</v>
+        <v>0.9637939737915081</v>
       </c>
       <c r="N10">
-        <v>1.002982242803392</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="O10">
-        <v>1.000883735563904</v>
+        <v>1.058535706407588</v>
       </c>
       <c r="P10">
-        <v>0.9983155628430957</v>
+        <v>0.9221363197329524</v>
       </c>
       <c r="Q10">
-        <v>1.000009522048446</v>
+        <v>1.008256667526383</v>
       </c>
       <c r="R10">
-        <v>0.9998711228298612</v>
+        <v>0.9892031001151672</v>
       </c>
       <c r="S10">
-        <v>0.9985888114063931</v>
+        <v>0.9340834227036945</v>
       </c>
       <c r="T10">
-        <v>0.9998711228298612</v>
+        <v>0.9892031001151672</v>
       </c>
       <c r="U10">
-        <v>0.9996871692556429</v>
+        <v>0.9813967322476701</v>
       </c>
       <c r="V10">
-        <v>1.000346183965193</v>
+        <v>1.009784717974056</v>
       </c>
       <c r="W10">
-        <v>0.9997207889094174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9852290479403222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.005419217146351</v>
+        <v>0.9744286329815139</v>
       </c>
       <c r="D11">
-        <v>0.9927365734015435</v>
+        <v>1.010175300396621</v>
       </c>
       <c r="E11">
-        <v>1.001332630047377</v>
+        <v>0.9914599240199787</v>
       </c>
       <c r="F11">
-        <v>1.005419217146351</v>
+        <v>1.014578297186144</v>
       </c>
       <c r="G11">
-        <v>0.9985085555032281</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="H11">
-        <v>1.002581827118614</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="I11">
-        <v>1.005419217146351</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="J11">
-        <v>0.9927365734015435</v>
+        <v>1.009185580066964</v>
       </c>
       <c r="K11">
-        <v>0.9983329526473602</v>
+        <v>0.9611920834050609</v>
       </c>
       <c r="L11">
-        <v>1.002060937475767</v>
+        <v>0.9611920834050609</v>
       </c>
       <c r="M11">
-        <v>0.9952788902618869</v>
+        <v>0.9915620901401002</v>
       </c>
       <c r="N11">
-        <v>1.005419217146351</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="O11">
-        <v>1.001332630047377</v>
+        <v>1.009185580066964</v>
       </c>
       <c r="P11">
-        <v>0.9970346017244602</v>
+        <v>0.9851888317360125</v>
       </c>
       <c r="Q11">
-        <v>0.9999205927753025</v>
+        <v>1.000322752043471</v>
       </c>
       <c r="R11">
-        <v>0.999829473531757</v>
+        <v>0.999218604018219</v>
       </c>
       <c r="S11">
-        <v>0.9975259196507161</v>
+        <v>0.9872791958306678</v>
       </c>
       <c r="T11">
-        <v>0.9998294735317571</v>
+        <v>0.999218604018219</v>
       </c>
       <c r="U11">
-        <v>0.9994992440246249</v>
+        <v>0.997278934018659</v>
       </c>
       <c r="V11">
-        <v>1.00068323864897</v>
+        <v>1.003278776931454</v>
       </c>
       <c r="W11">
-        <v>0.9995314479502659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.997482507097377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9774863424794615</v>
+        <v>0.9588644561263165</v>
       </c>
       <c r="D12">
-        <v>1.101572376839192</v>
+        <v>1.015121418021051</v>
       </c>
       <c r="E12">
-        <v>0.9505485569072476</v>
+        <v>0.9871609159368416</v>
       </c>
       <c r="F12">
-        <v>0.9774863424794615</v>
+        <v>1.023630855821054</v>
       </c>
       <c r="G12">
-        <v>1.01953218452695</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="H12">
-        <v>0.9604670925591248</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="I12">
-        <v>0.9774863424794615</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="J12">
-        <v>1.101572376839192</v>
+        <v>1.017863796115789</v>
       </c>
       <c r="K12">
-        <v>1.003871022553245</v>
+        <v>0.9348606091578966</v>
       </c>
       <c r="L12">
-        <v>0.9883576925373623</v>
+        <v>0.9348606091578966</v>
       </c>
       <c r="M12">
-        <v>1.061015223892474</v>
+        <v>0.9890501772421023</v>
       </c>
       <c r="N12">
-        <v>0.9774863424794615</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="O12">
-        <v>0.9505485569072476</v>
+        <v>1.017863796115789</v>
       </c>
       <c r="P12">
-        <v>1.02606046687322</v>
+        <v>0.9763622026368426</v>
       </c>
       <c r="Q12">
-        <v>0.9850403707170986</v>
+        <v>1.002512356026315</v>
       </c>
       <c r="R12">
-        <v>1.0098690920753</v>
+        <v>0.9967646859894739</v>
       </c>
       <c r="S12">
-        <v>1.023884372757796</v>
+        <v>0.9799617737368423</v>
       </c>
       <c r="T12">
-        <v>1.0098690920753</v>
+        <v>0.9967646859894739</v>
       </c>
       <c r="U12">
-        <v>1.012284865188213</v>
+        <v>0.9943637434763158</v>
       </c>
       <c r="V12">
-        <v>1.005325160646463</v>
+        <v>1.00300492532</v>
       </c>
       <c r="W12">
-        <v>1.007856311536882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9955152351394734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9721750893580196</v>
+        <v>1.026309605242784</v>
       </c>
       <c r="D13">
-        <v>1.01231569420085</v>
+        <v>0.9903906743663404</v>
       </c>
       <c r="E13">
-        <v>1.006294907412056</v>
+        <v>1.009000987552644</v>
       </c>
       <c r="F13">
-        <v>0.9721750893580196</v>
+        <v>0.9846573295779896</v>
       </c>
       <c r="G13">
-        <v>1.004237912811714</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="H13">
-        <v>0.9954697511380093</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="I13">
-        <v>0.9721750893580196</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="J13">
-        <v>1.01231569420085</v>
+        <v>0.9889162676662351</v>
       </c>
       <c r="K13">
-        <v>1.009885077154758</v>
+        <v>1.040043898904359</v>
       </c>
       <c r="L13">
-        <v>0.991123002894932</v>
+        <v>1.040043898904359</v>
       </c>
       <c r="M13">
-        <v>1.010762408490879</v>
+        <v>1.007872534423232</v>
       </c>
       <c r="N13">
-        <v>0.9721750893580196</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="O13">
-        <v>1.006294907412056</v>
+        <v>0.9889162676662351</v>
       </c>
       <c r="P13">
-        <v>1.009305300806453</v>
+        <v>1.014480083285297</v>
       </c>
       <c r="Q13">
-        <v>1.005266410111885</v>
+        <v>0.9989586276094394</v>
       </c>
       <c r="R13">
-        <v>0.9969285636569752</v>
+        <v>1.000949575653421</v>
       </c>
       <c r="S13">
-        <v>1.007616171474873</v>
+        <v>1.012653718041079</v>
       </c>
       <c r="T13">
-        <v>0.9969285636569752</v>
+        <v>1.000949575653421</v>
       </c>
       <c r="U13">
-        <v>0.9987559009456598</v>
+        <v>1.002962428628227</v>
       </c>
       <c r="V13">
-        <v>0.9934397386281317</v>
+        <v>0.9971476549805149</v>
       </c>
       <c r="W13">
-        <v>1.000282980432652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.002634982265406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9036654660435756</v>
+        <v>0.7661465400000007</v>
       </c>
       <c r="D14">
-        <v>0.9452405328414936</v>
+        <v>1.086384</v>
       </c>
       <c r="E14">
-        <v>1.086988736285105</v>
+        <v>0.9274465600000004</v>
       </c>
       <c r="F14">
-        <v>0.9036654660435756</v>
+        <v>1.134413899999999</v>
       </c>
       <c r="G14">
-        <v>0.9935215584102146</v>
+        <v>1.2125482</v>
       </c>
       <c r="H14">
-        <v>1.027290050489767</v>
+        <v>1.2125482</v>
       </c>
       <c r="I14">
-        <v>0.9036654660435756</v>
+        <v>1.2125482</v>
       </c>
       <c r="J14">
-        <v>0.9452405328414936</v>
+        <v>1.101461</v>
       </c>
       <c r="K14">
-        <v>1.037058679406568</v>
+        <v>0.6295367399999994</v>
       </c>
       <c r="L14">
-        <v>0.9725594144423092</v>
+        <v>0.6295367399999994</v>
       </c>
       <c r="M14">
-        <v>0.9779897521645777</v>
+        <v>0.9375707100000013</v>
       </c>
       <c r="N14">
-        <v>0.9036654660435756</v>
+        <v>1.2125482</v>
       </c>
       <c r="O14">
-        <v>1.086988736285105</v>
+        <v>1.101461</v>
       </c>
       <c r="P14">
-        <v>1.016114634563299</v>
+        <v>0.8654988699999998</v>
       </c>
       <c r="Q14">
-        <v>1.04025514734766</v>
+        <v>1.01445378</v>
       </c>
       <c r="R14">
-        <v>0.978631578390058</v>
+        <v>0.98118198</v>
       </c>
       <c r="S14">
-        <v>1.008583609178938</v>
+        <v>0.8861481000000001</v>
       </c>
       <c r="T14">
-        <v>0.978631578390058</v>
+        <v>0.98118198</v>
       </c>
       <c r="U14">
-        <v>0.9823540733950971</v>
+        <v>0.9677481250000001</v>
       </c>
       <c r="V14">
-        <v>0.9666163519247928</v>
+        <v>1.01670814</v>
       </c>
       <c r="W14">
-        <v>0.9930392737604512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9744384562500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.039590635995852</v>
+        <v>0.6583313200000001</v>
       </c>
       <c r="D15">
-        <v>1.023633834190518</v>
+        <v>1.18073</v>
       </c>
       <c r="E15">
-        <v>0.9646500282427001</v>
+        <v>0.89148061</v>
       </c>
       <c r="F15">
-        <v>1.039590635995852</v>
+        <v>1.17375</v>
       </c>
       <c r="G15">
-        <v>1.002261021031787</v>
+        <v>1.4968021</v>
       </c>
       <c r="H15">
-        <v>0.9891305111133997</v>
+        <v>1.4968021</v>
       </c>
       <c r="I15">
-        <v>1.039590635995852</v>
+        <v>1.4968021</v>
       </c>
       <c r="J15">
-        <v>1.023633834190518</v>
+        <v>1.0272657</v>
       </c>
       <c r="K15">
-        <v>0.9843833678308226</v>
+        <v>0.49231373</v>
       </c>
       <c r="L15">
-        <v>1.011090610839789</v>
+        <v>0.49231373</v>
       </c>
       <c r="M15">
-        <v>1.009087550820412</v>
+        <v>0.84100944</v>
       </c>
       <c r="N15">
-        <v>1.039590635995852</v>
+        <v>1.4968021</v>
       </c>
       <c r="O15">
-        <v>0.9646500282427001</v>
+        <v>1.0272657</v>
       </c>
       <c r="P15">
-        <v>0.9941419312166091</v>
+        <v>0.759789715</v>
       </c>
       <c r="Q15">
-        <v>0.9834555246372438</v>
+        <v>0.959373155</v>
       </c>
       <c r="R15">
-        <v>1.009291499476357</v>
+        <v>1.00546051</v>
       </c>
       <c r="S15">
-        <v>0.9968482944883353</v>
+        <v>0.8036866800000001</v>
       </c>
       <c r="T15">
-        <v>1.009291499476357</v>
+        <v>1.00546051</v>
       </c>
       <c r="U15">
-        <v>1.007533879865214</v>
+        <v>0.9769655349999999</v>
       </c>
       <c r="V15">
-        <v>1.013945231091342</v>
+        <v>1.080932848</v>
       </c>
       <c r="W15">
-        <v>1.00297844500816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.9702103625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000233504134059</v>
+        <v>0.6511714400000002</v>
       </c>
       <c r="D16">
-        <v>1.000121523469163</v>
+        <v>1.1452832</v>
       </c>
       <c r="E16">
-        <v>0.9998237421471238</v>
+        <v>0.88251422</v>
       </c>
       <c r="F16">
-        <v>1.000233504134059</v>
+        <v>1.1958178</v>
       </c>
       <c r="G16">
-        <v>0.9999981104507403</v>
+        <v>1.3979284</v>
       </c>
       <c r="H16">
-        <v>0.9999556376209234</v>
+        <v>1.3979284</v>
       </c>
       <c r="I16">
-        <v>1.000233504134059</v>
+        <v>1.3979284</v>
       </c>
       <c r="J16">
-        <v>1.000121523469163</v>
+        <v>1.1096856</v>
       </c>
       <c r="K16">
-        <v>0.9999067687736574</v>
+        <v>0.47523274</v>
       </c>
       <c r="L16">
-        <v>1.000059746565682</v>
+        <v>0.47523274</v>
       </c>
       <c r="M16">
-        <v>1.000033947390351</v>
+        <v>0.87631784</v>
       </c>
       <c r="N16">
-        <v>1.000233504134059</v>
+        <v>1.3979284</v>
       </c>
       <c r="O16">
-        <v>0.9998237421471238</v>
+        <v>1.1096856</v>
       </c>
       <c r="P16">
-        <v>0.9999726328081435</v>
+        <v>0.79245917</v>
       </c>
       <c r="Q16">
-        <v>0.9999109262989321</v>
+        <v>0.99609991</v>
       </c>
       <c r="R16">
-        <v>1.000059589916782</v>
+        <v>0.9942822466666668</v>
       </c>
       <c r="S16">
-        <v>0.9999811253556757</v>
+        <v>0.82247752</v>
       </c>
       <c r="T16">
-        <v>1.000059589916782</v>
+        <v>0.9942822466666668</v>
       </c>
       <c r="U16">
-        <v>1.000044220050272</v>
+        <v>0.9663402400000001</v>
       </c>
       <c r="V16">
-        <v>1.000082076867029</v>
+        <v>1.052657872</v>
       </c>
       <c r="W16">
-        <v>1.000016622568963</v>
+        <v>0.9667439050000001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999633877409899</v>
+        <v>0.9211482600000001</v>
       </c>
       <c r="D17">
-        <v>0.9992536943642569</v>
+        <v>1.0552349</v>
       </c>
       <c r="E17">
-        <v>1.000430831698937</v>
+        <v>0.97620666</v>
       </c>
       <c r="F17">
-        <v>0.9999633877409899</v>
+        <v>1.0335032</v>
       </c>
       <c r="G17">
-        <v>0.9998891430505407</v>
+        <v>1.1570035</v>
       </c>
       <c r="H17">
-        <v>1.000275974535134</v>
+        <v>1.1570035</v>
       </c>
       <c r="I17">
-        <v>0.9999633877409899</v>
+        <v>1.1570035</v>
       </c>
       <c r="J17">
-        <v>0.9992536943642569</v>
+        <v>0.9766462199999999</v>
       </c>
       <c r="K17">
-        <v>1.00004713193183</v>
+        <v>0.88649467</v>
       </c>
       <c r="L17">
-        <v>1.000037408065874</v>
+        <v>0.88649467</v>
       </c>
       <c r="M17">
-        <v>0.9995908427225836</v>
+        <v>0.94901121</v>
       </c>
       <c r="N17">
-        <v>0.9999633877409899</v>
+        <v>1.1570035</v>
       </c>
       <c r="O17">
-        <v>1.000430831698937</v>
+        <v>0.9766462199999999</v>
       </c>
       <c r="P17">
-        <v>0.9998422630315968</v>
+        <v>0.931570445</v>
       </c>
       <c r="Q17">
-        <v>1.000159987374739</v>
+        <v>0.97642644</v>
       </c>
       <c r="R17">
-        <v>0.999882637934728</v>
+        <v>1.006714796666667</v>
       </c>
       <c r="S17">
-        <v>0.9998578897045781</v>
+        <v>0.9464491833333333</v>
       </c>
       <c r="T17">
-        <v>0.999882637934728</v>
+        <v>1.006714796666667</v>
       </c>
       <c r="U17">
-        <v>0.9998842642136812</v>
+        <v>0.9990877625000001</v>
       </c>
       <c r="V17">
-        <v>0.9999000889191428</v>
+        <v>1.03067091</v>
       </c>
       <c r="W17">
-        <v>0.9999360517637683</v>
+        <v>0.9944060775000001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001930607952325</v>
+        <v>0.9118363605479453</v>
       </c>
       <c r="D18">
-        <v>0.9987009955727697</v>
+        <v>1.037474967123288</v>
       </c>
       <c r="E18">
-        <v>0.9997872915072581</v>
+        <v>0.9720023686301373</v>
       </c>
       <c r="F18">
-        <v>1.001930607952325</v>
+        <v>1.048321245479453</v>
       </c>
       <c r="G18">
-        <v>0.9996505350297424</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="H18">
-        <v>1.000456340297235</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="I18">
-        <v>1.001930607952325</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="J18">
-        <v>0.9987009955727697</v>
+        <v>1.02645659150685</v>
       </c>
       <c r="K18">
-        <v>0.9993502421934441</v>
+        <v>0.863598673287671</v>
       </c>
       <c r="L18">
-        <v>1.000639837722344</v>
+        <v>0.863598673287671</v>
       </c>
       <c r="M18">
-        <v>0.9990241627182691</v>
+        <v>0.9700979501369863</v>
       </c>
       <c r="N18">
-        <v>1.001930607952325</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="O18">
-        <v>0.9997872915072581</v>
+        <v>1.02645659150685</v>
       </c>
       <c r="P18">
-        <v>0.9992441435400139</v>
+        <v>0.9450276323972604</v>
       </c>
       <c r="Q18">
-        <v>0.9997189132685003</v>
+        <v>0.9992294800684935</v>
       </c>
       <c r="R18">
-        <v>1.000139631677451</v>
+        <v>0.9964988971232879</v>
       </c>
       <c r="S18">
-        <v>0.9993796073699235</v>
+        <v>0.9540192111415527</v>
       </c>
       <c r="T18">
-        <v>1.000139631677451</v>
+        <v>0.9964988971232879</v>
       </c>
       <c r="U18">
-        <v>1.000017357515524</v>
+        <v>0.9903747650000002</v>
       </c>
       <c r="V18">
-        <v>1.000400007602884</v>
+        <v>1.012188097315069</v>
       </c>
       <c r="W18">
-        <v>0.9999425016241733</v>
+        <v>0.9911536979109591</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00578974801117</v>
+        <v>0.8450153536842107</v>
       </c>
       <c r="D19">
-        <v>0.9977819977021309</v>
+        <v>1.046929290526316</v>
       </c>
       <c r="E19">
-        <v>0.9984515642588557</v>
+        <v>0.950006320526316</v>
       </c>
       <c r="F19">
-        <v>1.00578974801117</v>
+        <v>1.093318578947369</v>
       </c>
       <c r="G19">
-        <v>0.9991974585549099</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="H19">
-        <v>1.000757705434891</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="I19">
-        <v>1.00578974801117</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="J19">
-        <v>0.9977819977021309</v>
+        <v>1.087684413157895</v>
       </c>
       <c r="K19">
-        <v>0.9979774494133846</v>
+        <v>0.7521253289473684</v>
       </c>
       <c r="L19">
-        <v>1.001802774294145</v>
+        <v>0.7521253289473684</v>
       </c>
       <c r="M19">
-        <v>0.9979980982218142</v>
+        <v>0.9689730052631579</v>
       </c>
       <c r="N19">
-        <v>1.00578974801117</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="O19">
-        <v>0.9984515642588557</v>
+        <v>1.087684413157895</v>
       </c>
       <c r="P19">
-        <v>0.9981167809804934</v>
+        <v>0.9199048710526316</v>
       </c>
       <c r="Q19">
-        <v>0.9988245114068828</v>
+        <v>1.018845366842105</v>
       </c>
       <c r="R19">
-        <v>1.000674436657386</v>
+        <v>0.9847997314035087</v>
       </c>
       <c r="S19">
-        <v>0.9984770068386322</v>
+        <v>0.9299386875438597</v>
       </c>
       <c r="T19">
-        <v>1.000674436657386</v>
+        <v>0.9847997314035087</v>
       </c>
       <c r="U19">
-        <v>1.000305192131767</v>
+        <v>0.9761013786842105</v>
       </c>
       <c r="V19">
-        <v>1.001402103307647</v>
+        <v>1.003798993368421</v>
       </c>
       <c r="W19">
-        <v>0.9999695994864125</v>
+        <v>0.9823302178947368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8560286810526316</v>
+      </c>
+      <c r="D20">
+        <v>1.05234356631579</v>
+      </c>
+      <c r="E20">
+        <v>0.9519814789473685</v>
+      </c>
+      <c r="F20">
+        <v>1.083449540526316</v>
+      </c>
+      <c r="G20">
+        <v>1.13944183</v>
+      </c>
+      <c r="H20">
+        <v>1.13944183</v>
+      </c>
+      <c r="I20">
+        <v>1.13944183</v>
+      </c>
+      <c r="J20">
+        <v>1.06147430368421</v>
+      </c>
+      <c r="K20">
+        <v>0.7777214068421053</v>
+      </c>
+      <c r="L20">
+        <v>0.7777214068421053</v>
+      </c>
+      <c r="M20">
+        <v>0.9588467189473684</v>
+      </c>
+      <c r="N20">
+        <v>1.13944183</v>
+      </c>
+      <c r="O20">
+        <v>1.06147430368421</v>
+      </c>
+      <c r="P20">
+        <v>0.9195978552631578</v>
+      </c>
+      <c r="Q20">
+        <v>1.00672789131579</v>
+      </c>
+      <c r="R20">
+        <v>0.9928791801754385</v>
+      </c>
+      <c r="S20">
+        <v>0.9303923964912281</v>
+      </c>
+      <c r="T20">
+        <v>0.9928791801754387</v>
+      </c>
+      <c r="U20">
+        <v>0.9826547548684211</v>
+      </c>
+      <c r="V20">
+        <v>1.014012169894737</v>
+      </c>
+      <c r="W20">
+        <v>0.9851609407894737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9779897521645777</v>
+      </c>
+      <c r="D21">
+        <v>0.9725594144423092</v>
+      </c>
+      <c r="E21">
+        <v>0.9935215584102146</v>
+      </c>
+      <c r="F21">
+        <v>1.027290050489767</v>
+      </c>
+      <c r="G21">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="H21">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="I21">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="J21">
+        <v>1.086988736285105</v>
+      </c>
+      <c r="K21">
+        <v>0.9452405328414936</v>
+      </c>
+      <c r="L21">
+        <v>0.9452405328414936</v>
+      </c>
+      <c r="M21">
+        <v>1.037058679406568</v>
+      </c>
+      <c r="N21">
+        <v>0.9036654660435756</v>
+      </c>
+      <c r="O21">
+        <v>1.086988736285105</v>
+      </c>
+      <c r="P21">
+        <v>1.016114634563299</v>
+      </c>
+      <c r="Q21">
+        <v>1.04025514734766</v>
+      </c>
+      <c r="R21">
+        <v>0.978631578390058</v>
+      </c>
+      <c r="S21">
+        <v>1.008583609178938</v>
+      </c>
+      <c r="T21">
+        <v>0.978631578390058</v>
+      </c>
+      <c r="U21">
+        <v>0.9823540733950971</v>
+      </c>
+      <c r="V21">
+        <v>0.9666163519247928</v>
+      </c>
+      <c r="W21">
+        <v>0.9930392737604512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.009087550820412</v>
+      </c>
+      <c r="D22">
+        <v>1.011090610839789</v>
+      </c>
+      <c r="E22">
+        <v>1.002261021031787</v>
+      </c>
+      <c r="F22">
+        <v>0.9891305111134</v>
+      </c>
+      <c r="G22">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="H22">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="I22">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="J22">
+        <v>0.9646500282427001</v>
+      </c>
+      <c r="K22">
+        <v>1.023633834190518</v>
+      </c>
+      <c r="L22">
+        <v>1.023633834190518</v>
+      </c>
+      <c r="M22">
+        <v>0.9843833678308225</v>
+      </c>
+      <c r="N22">
+        <v>1.039590635995852</v>
+      </c>
+      <c r="O22">
+        <v>0.9646500282427001</v>
+      </c>
+      <c r="P22">
+        <v>0.9941419312166091</v>
+      </c>
+      <c r="Q22">
+        <v>0.9834555246372436</v>
+      </c>
+      <c r="R22">
+        <v>1.009291499476357</v>
+      </c>
+      <c r="S22">
+        <v>0.9968482944883351</v>
+      </c>
+      <c r="T22">
+        <v>1.009291499476357</v>
+      </c>
+      <c r="U22">
+        <v>1.007533879865214</v>
+      </c>
+      <c r="V22">
+        <v>1.013945231091342</v>
+      </c>
+      <c r="W22">
+        <v>1.00297844500816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.061015223892475</v>
+      </c>
+      <c r="D23">
+        <v>0.9883576925373623</v>
+      </c>
+      <c r="E23">
+        <v>1.01953218452695</v>
+      </c>
+      <c r="F23">
+        <v>0.9604670925591248</v>
+      </c>
+      <c r="G23">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="H23">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="I23">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="J23">
+        <v>0.9505485569072475</v>
+      </c>
+      <c r="K23">
+        <v>1.101572376839192</v>
+      </c>
+      <c r="L23">
+        <v>1.101572376839192</v>
+      </c>
+      <c r="M23">
+        <v>1.003871022553245</v>
+      </c>
+      <c r="N23">
+        <v>0.9774863424794616</v>
+      </c>
+      <c r="O23">
+        <v>0.9505485569072475</v>
+      </c>
+      <c r="P23">
+        <v>1.02606046687322</v>
+      </c>
+      <c r="Q23">
+        <v>0.9850403707170985</v>
+      </c>
+      <c r="R23">
+        <v>1.0098690920753</v>
+      </c>
+      <c r="S23">
+        <v>1.023884372757796</v>
+      </c>
+      <c r="T23">
+        <v>1.0098690920753</v>
+      </c>
+      <c r="U23">
+        <v>1.012284865188213</v>
+      </c>
+      <c r="V23">
+        <v>1.005325160646462</v>
+      </c>
+      <c r="W23">
+        <v>1.007856311536882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.010762408490879</v>
+      </c>
+      <c r="D24">
+        <v>0.991123002894932</v>
+      </c>
+      <c r="E24">
+        <v>1.004237912811714</v>
+      </c>
+      <c r="F24">
+        <v>0.9954697511380092</v>
+      </c>
+      <c r="G24">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="H24">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="I24">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="J24">
+        <v>1.006294907412056</v>
+      </c>
+      <c r="K24">
+        <v>1.01231569420085</v>
+      </c>
+      <c r="L24">
+        <v>1.01231569420085</v>
+      </c>
+      <c r="M24">
+        <v>1.009885077154758</v>
+      </c>
+      <c r="N24">
+        <v>0.9721750893580196</v>
+      </c>
+      <c r="O24">
+        <v>1.006294907412056</v>
+      </c>
+      <c r="P24">
+        <v>1.009305300806453</v>
+      </c>
+      <c r="Q24">
+        <v>1.005266410111885</v>
+      </c>
+      <c r="R24">
+        <v>0.9969285636569752</v>
+      </c>
+      <c r="S24">
+        <v>1.007616171474873</v>
+      </c>
+      <c r="T24">
+        <v>0.9969285636569752</v>
+      </c>
+      <c r="U24">
+        <v>0.9987559009456598</v>
+      </c>
+      <c r="V24">
+        <v>0.9934397386281317</v>
+      </c>
+      <c r="W24">
+        <v>1.000282980432652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.024354237784133</v>
+      </c>
+      <c r="D25">
+        <v>1.009165702589806</v>
+      </c>
+      <c r="E25">
+        <v>1.007826130835538</v>
+      </c>
+      <c r="F25">
+        <v>0.9784023001841605</v>
+      </c>
+      <c r="G25">
+        <v>1.035996124611592</v>
+      </c>
+      <c r="H25">
+        <v>1.035996124611592</v>
+      </c>
+      <c r="I25">
+        <v>1.035996124611592</v>
+      </c>
+      <c r="J25">
+        <v>0.9501507975638165</v>
+      </c>
+      <c r="K25">
+        <v>1.047783829100062</v>
+      </c>
+      <c r="L25">
+        <v>1.047783829100062</v>
+      </c>
+      <c r="M25">
+        <v>0.9851218459344659</v>
+      </c>
+      <c r="N25">
+        <v>1.035996124611592</v>
+      </c>
+      <c r="O25">
+        <v>0.9501507975638165</v>
+      </c>
+      <c r="P25">
+        <v>0.998967313331939</v>
+      </c>
+      <c r="Q25">
+        <v>0.9789884641996773</v>
+      </c>
+      <c r="R25">
+        <v>1.011310250425157</v>
+      </c>
+      <c r="S25">
+        <v>1.001920252499805</v>
+      </c>
+      <c r="T25">
+        <v>1.011310250425157</v>
+      </c>
+      <c r="U25">
+        <v>1.010439220527752</v>
+      </c>
+      <c r="V25">
+        <v>1.01555060134452</v>
+      </c>
+      <c r="W25">
+        <v>1.004850121075447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9987019027101262</v>
+      </c>
+      <c r="D26">
+        <v>0.9930179049394807</v>
+      </c>
+      <c r="E26">
+        <v>0.9997582894149605</v>
+      </c>
+      <c r="F26">
+        <v>1.003818753634487</v>
+      </c>
+      <c r="G26">
+        <v>0.9764456626545051</v>
+      </c>
+      <c r="H26">
+        <v>0.9764456626545051</v>
+      </c>
+      <c r="I26">
+        <v>0.9764456626545051</v>
+      </c>
+      <c r="J26">
+        <v>1.016897751659487</v>
+      </c>
+      <c r="K26">
+        <v>0.9936242476884437</v>
+      </c>
+      <c r="L26">
+        <v>0.9936242476884437</v>
+      </c>
+      <c r="M26">
+        <v>1.008750775400914</v>
+      </c>
+      <c r="N26">
+        <v>0.9764456626545051</v>
+      </c>
+      <c r="O26">
+        <v>1.016897751659487</v>
+      </c>
+      <c r="P26">
+        <v>1.005260999673965</v>
+      </c>
+      <c r="Q26">
+        <v>1.008328020537224</v>
+      </c>
+      <c r="R26">
+        <v>0.9956558873341453</v>
+      </c>
+      <c r="S26">
+        <v>1.003426762920964</v>
+      </c>
+      <c r="T26">
+        <v>0.9956558873341453</v>
+      </c>
+      <c r="U26">
+        <v>0.9966814878543491</v>
+      </c>
+      <c r="V26">
+        <v>0.9926343228143804</v>
+      </c>
+      <c r="W26">
+        <v>0.9988769110128006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9864095597086094</v>
+      </c>
+      <c r="D27">
+        <v>1.004465760934798</v>
+      </c>
+      <c r="E27">
+        <v>0.9942167148167914</v>
+      </c>
+      <c r="F27">
+        <v>1.008418048197232</v>
+      </c>
+      <c r="G27">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="H27">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="I27">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="J27">
+        <v>1.006114277827225</v>
+      </c>
+      <c r="K27">
+        <v>0.9814111755390243</v>
+      </c>
+      <c r="L27">
+        <v>0.9814111755390243</v>
+      </c>
+      <c r="M27">
+        <v>0.9951764845428002</v>
+      </c>
+      <c r="N27">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="O27">
+        <v>1.006114277827225</v>
+      </c>
+      <c r="P27">
+        <v>0.9937627266831246</v>
+      </c>
+      <c r="Q27">
+        <v>1.000165496322008</v>
+      </c>
+      <c r="R27">
+        <v>1.0008985513461</v>
+      </c>
+      <c r="S27">
+        <v>0.9939140560610135</v>
+      </c>
+      <c r="T27">
+        <v>1.0008985513461</v>
+      </c>
+      <c r="U27">
+        <v>0.9992280922137727</v>
+      </c>
+      <c r="V27">
+        <v>1.002416513905428</v>
+      </c>
+      <c r="W27">
+        <v>0.9989227777798164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9861938476492004</v>
+      </c>
+      <c r="D28">
+        <v>1.006525837140883</v>
+      </c>
+      <c r="E28">
+        <v>0.9949370721856597</v>
+      </c>
+      <c r="F28">
+        <v>1.007447021785411</v>
+      </c>
+      <c r="G28">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="H28">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="I28">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="J28">
+        <v>1.002271846630113</v>
+      </c>
+      <c r="K28">
+        <v>0.980380593131008</v>
+      </c>
+      <c r="L28">
+        <v>0.980380593131008</v>
+      </c>
+      <c r="M28">
+        <v>0.993733045051218</v>
+      </c>
+      <c r="N28">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="O28">
+        <v>1.002271846630113</v>
+      </c>
+      <c r="P28">
+        <v>0.9913262198805604</v>
+      </c>
+      <c r="Q28">
+        <v>0.9986044594078862</v>
+      </c>
+      <c r="R28">
+        <v>1.000796513354844</v>
+      </c>
+      <c r="S28">
+        <v>0.9925298373155935</v>
+      </c>
+      <c r="T28">
+        <v>1.000796513354844</v>
+      </c>
+      <c r="U28">
+        <v>0.9993316530625483</v>
+      </c>
+      <c r="V28">
+        <v>1.003412742510721</v>
+      </c>
+      <c r="W28">
+        <v>0.9989032954846133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.033016524101079</v>
+      </c>
+      <c r="D29">
+        <v>0.9977918195238739</v>
+      </c>
+      <c r="E29">
+        <v>1.01231391029145</v>
+      </c>
+      <c r="F29">
+        <v>0.9762618108376264</v>
+      </c>
+      <c r="G29">
+        <v>0.9966744298902452</v>
+      </c>
+      <c r="H29">
+        <v>0.9966744298902452</v>
+      </c>
+      <c r="I29">
+        <v>0.9966744298902452</v>
+      </c>
+      <c r="J29">
+        <v>0.9650977461090136</v>
+      </c>
+      <c r="K29">
+        <v>1.053212537867362</v>
+      </c>
+      <c r="L29">
+        <v>1.053212537867362</v>
+      </c>
+      <c r="M29">
+        <v>0.999402234986245</v>
+      </c>
+      <c r="N29">
+        <v>0.9966744298902452</v>
+      </c>
+      <c r="O29">
+        <v>0.9650977461090136</v>
+      </c>
+      <c r="P29">
+        <v>1.009155141988188</v>
+      </c>
+      <c r="Q29">
+        <v>0.9887058282002317</v>
+      </c>
+      <c r="R29">
+        <v>1.004994904622207</v>
+      </c>
+      <c r="S29">
+        <v>1.010208064755942</v>
+      </c>
+      <c r="T29">
+        <v>1.004994904622207</v>
+      </c>
+      <c r="U29">
+        <v>1.006824656039518</v>
+      </c>
+      <c r="V29">
+        <v>1.004794610809663</v>
+      </c>
+      <c r="W29">
+        <v>1.004221376700862</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.949723045424581</v>
+        <v>0.9678875765843284</v>
       </c>
       <c r="D4">
-        <v>1.019962621828056</v>
+        <v>1.011643529171346</v>
       </c>
       <c r="E4">
-        <v>0.9832695535409419</v>
+        <v>0.9897372409060052</v>
       </c>
       <c r="F4">
-        <v>1.028501846783493</v>
+        <v>1.018576725654202</v>
       </c>
       <c r="G4">
-        <v>1.053831468713532</v>
+        <v>1.02949805566661</v>
       </c>
       <c r="H4">
-        <v>1.053831468713532</v>
+        <v>1.02949805566661</v>
       </c>
       <c r="I4">
-        <v>1.053831468713532</v>
+        <v>1.02949805566661</v>
       </c>
       <c r="J4">
-        <v>1.01793911214657</v>
+        <v>1.014151490799474</v>
       </c>
       <c r="K4">
-        <v>0.9233034963769736</v>
+        <v>0.9495657332833427</v>
       </c>
       <c r="L4">
-        <v>0.9233034963769736</v>
+        <v>0.9495657332833427</v>
       </c>
       <c r="M4">
-        <v>0.983625137539793</v>
+        <v>0.9913571584067444</v>
       </c>
       <c r="N4">
-        <v>1.053831468713532</v>
+        <v>1.02949805566661</v>
       </c>
       <c r="O4">
-        <v>1.01793911214657</v>
+        <v>1.014151490799474</v>
       </c>
       <c r="P4">
-        <v>0.970621304261772</v>
+        <v>0.9818586120414085</v>
       </c>
       <c r="Q4">
-        <v>1.000604332843756</v>
+        <v>1.00194436585274</v>
       </c>
       <c r="R4">
-        <v>0.9983580257456919</v>
+        <v>0.9977384265831425</v>
       </c>
       <c r="S4">
-        <v>0.9748373873548286</v>
+        <v>0.9844848216629408</v>
       </c>
       <c r="T4">
-        <v>0.9983580257456918</v>
+        <v>0.9977384265831425</v>
       </c>
       <c r="U4">
-        <v>0.9945859076945043</v>
+        <v>0.9957381301638581</v>
       </c>
       <c r="V4">
-        <v>1.00643501989831</v>
+        <v>1.002490115264409</v>
       </c>
       <c r="W4">
-        <v>0.9950195352942426</v>
+        <v>0.9965521888090068</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9590692890201737</v>
+        <v>0.8676913449859891</v>
       </c>
       <c r="D5">
-        <v>1.015268203112391</v>
+        <v>1.04642295238159</v>
       </c>
       <c r="E5">
-        <v>0.9869484456195963</v>
+        <v>0.9553210952298058</v>
       </c>
       <c r="F5">
-        <v>1.023485572500001</v>
+        <v>1.077459126798674</v>
       </c>
       <c r="G5">
-        <v>1.03892360836455</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="H5">
-        <v>1.03892360836455</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="I5">
-        <v>1.03892360836455</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="J5">
-        <v>1.017115432572044</v>
+        <v>1.059706270955171</v>
       </c>
       <c r="K5">
-        <v>0.9358728257564846</v>
+        <v>0.7958723791601473</v>
       </c>
       <c r="L5">
-        <v>0.9358728257564846</v>
+        <v>0.7958723791601473</v>
       </c>
       <c r="M5">
-        <v>0.9885126609005739</v>
+        <v>0.9635689932029645</v>
       </c>
       <c r="N5">
-        <v>1.03892360836455</v>
+        <v>1.124503280208323</v>
       </c>
       <c r="O5">
-        <v>1.017115432572044</v>
+        <v>1.059706270955171</v>
       </c>
       <c r="P5">
-        <v>0.9764941291642643</v>
+        <v>0.9277893250576592</v>
       </c>
       <c r="Q5">
-        <v>1.00203193909582</v>
+        <v>1.007513683092488</v>
       </c>
       <c r="R5">
-        <v>0.9973039555643597</v>
+        <v>0.9933606434412137</v>
       </c>
       <c r="S5">
-        <v>0.9799789013160417</v>
+        <v>0.9369665817817081</v>
       </c>
       <c r="T5">
-        <v>0.9973039555643597</v>
+        <v>0.9933606434412137</v>
       </c>
       <c r="U5">
-        <v>0.9947150780781688</v>
+        <v>0.9838507563883617</v>
       </c>
       <c r="V5">
-        <v>1.003556784135445</v>
+        <v>1.011981261152354</v>
       </c>
       <c r="W5">
-        <v>0.9956495047307269</v>
+        <v>0.9863181803653331</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.866720506417536</v>
+        <v>0.949723045424581</v>
       </c>
       <c r="D6">
-        <v>1.04925919795993</v>
+        <v>1.019962621828056</v>
       </c>
       <c r="E6">
-        <v>0.9584941801502131</v>
+        <v>0.9832695535409419</v>
       </c>
       <c r="F6">
-        <v>1.076608275280972</v>
+        <v>1.028501846783493</v>
       </c>
       <c r="G6">
-        <v>1.121758234631702</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="H6">
-        <v>1.121758234631702</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="I6">
-        <v>1.121758234631702</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="J6">
-        <v>1.057632289513481</v>
+        <v>1.01793911214657</v>
       </c>
       <c r="K6">
-        <v>0.7891625747108328</v>
+        <v>0.9233034963769736</v>
       </c>
       <c r="L6">
-        <v>0.7891625747108328</v>
+        <v>0.9233034963769736</v>
       </c>
       <c r="M6">
-        <v>0.9642170130054527</v>
+        <v>0.983625137539793</v>
       </c>
       <c r="N6">
-        <v>1.121758234631702</v>
+        <v>1.053831468713532</v>
       </c>
       <c r="O6">
-        <v>1.057632289513481</v>
+        <v>1.01793911214657</v>
       </c>
       <c r="P6">
-        <v>0.9233974321121567</v>
+        <v>0.970621304261772</v>
       </c>
       <c r="Q6">
-        <v>1.008063234831847</v>
+        <v>1.000604332843756</v>
       </c>
       <c r="R6">
-        <v>0.9895176996186718</v>
+        <v>0.9983580257456919</v>
       </c>
       <c r="S6">
-        <v>0.9350963481248421</v>
+        <v>0.9748373873548286</v>
       </c>
       <c r="T6">
-        <v>0.9895176996186718</v>
+        <v>0.9983580257456918</v>
       </c>
       <c r="U6">
-        <v>0.9817618197515572</v>
+        <v>0.9945859076945043</v>
       </c>
       <c r="V6">
-        <v>1.009761102727586</v>
+        <v>1.00643501989831</v>
       </c>
       <c r="W6">
-        <v>0.9854815339587648</v>
+        <v>0.9950195352942426</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9956606125396258</v>
+        <v>0.9590692890201737</v>
       </c>
       <c r="D7">
-        <v>1.001928691488579</v>
+        <v>1.015268203112391</v>
       </c>
       <c r="E7">
-        <v>0.9986097814422972</v>
+        <v>0.9869484456195963</v>
       </c>
       <c r="F7">
-        <v>1.00234545378407</v>
+        <v>1.023485572500001</v>
       </c>
       <c r="G7">
-        <v>1.005206367763223</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="H7">
-        <v>1.005206367763223</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="I7">
-        <v>1.005206367763223</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="J7">
-        <v>1.00111024708763</v>
+        <v>1.017115432572044</v>
       </c>
       <c r="K7">
-        <v>0.9933554444819432</v>
+        <v>0.9358728257564846</v>
       </c>
       <c r="L7">
-        <v>0.9933554444819432</v>
+        <v>0.9358728257564846</v>
       </c>
       <c r="M7">
-        <v>0.9984137033980711</v>
+        <v>0.9885126609005739</v>
       </c>
       <c r="N7">
-        <v>1.005206367763223</v>
+        <v>1.03892360836455</v>
       </c>
       <c r="O7">
-        <v>1.00111024708763</v>
+        <v>1.017115432572044</v>
       </c>
       <c r="P7">
-        <v>0.9972328457847868</v>
+        <v>0.9764941291642643</v>
       </c>
       <c r="Q7">
-        <v>0.9998600142649637</v>
+        <v>1.00203193909582</v>
       </c>
       <c r="R7">
-        <v>0.9998906864442655</v>
+        <v>0.9973039555643597</v>
       </c>
       <c r="S7">
-        <v>0.9976918243372902</v>
+        <v>0.9799789013160417</v>
       </c>
       <c r="T7">
-        <v>0.9998906864442655</v>
+        <v>0.9973039555643597</v>
       </c>
       <c r="U7">
-        <v>0.9995704601937734</v>
+        <v>0.9947150780781688</v>
       </c>
       <c r="V7">
-        <v>1.000697641707663</v>
+        <v>1.003556784135445</v>
       </c>
       <c r="W7">
-        <v>0.9995787877481799</v>
+        <v>0.9956495047307269</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9995908427225836</v>
+        <v>0.866720506417536</v>
       </c>
       <c r="D8">
-        <v>1.000037408065874</v>
+        <v>1.04925919795993</v>
       </c>
       <c r="E8">
-        <v>0.999889143050541</v>
+        <v>0.9584941801502131</v>
       </c>
       <c r="F8">
-        <v>1.000275974535134</v>
+        <v>1.076608275280972</v>
       </c>
       <c r="G8">
-        <v>0.9999633877409899</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="H8">
-        <v>0.9999633877409899</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="I8">
-        <v>0.9999633877409899</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="J8">
-        <v>1.000430831698937</v>
+        <v>1.057632289513481</v>
       </c>
       <c r="K8">
-        <v>0.9992536943642569</v>
+        <v>0.7891625747108328</v>
       </c>
       <c r="L8">
-        <v>0.9992536943642569</v>
+        <v>0.7891625747108328</v>
       </c>
       <c r="M8">
-        <v>1.00004713193183</v>
+        <v>0.9642170130054527</v>
       </c>
       <c r="N8">
-        <v>0.9999633877409899</v>
+        <v>1.121758234631702</v>
       </c>
       <c r="O8">
-        <v>1.000430831698937</v>
+        <v>1.057632289513481</v>
       </c>
       <c r="P8">
-        <v>0.9998422630315968</v>
+        <v>0.9233974321121567</v>
       </c>
       <c r="Q8">
-        <v>1.000159987374739</v>
+        <v>1.008063234831847</v>
       </c>
       <c r="R8">
-        <v>0.999882637934728</v>
+        <v>0.9895176996186718</v>
       </c>
       <c r="S8">
-        <v>0.9998578897045783</v>
+        <v>0.9350963481248421</v>
       </c>
       <c r="T8">
-        <v>0.999882637934728</v>
+        <v>0.9895176996186718</v>
       </c>
       <c r="U8">
-        <v>0.9998842642136812</v>
+        <v>0.9817618197515572</v>
       </c>
       <c r="V8">
-        <v>0.9999000889191428</v>
+        <v>1.009761102727586</v>
       </c>
       <c r="W8">
-        <v>0.9999360517637683</v>
+        <v>0.9854815339587648</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9928934473304042</v>
+        <v>0.9956606125396258</v>
       </c>
       <c r="D9">
-        <v>1.002939635686258</v>
+        <v>1.001928691488579</v>
       </c>
       <c r="E9">
-        <v>0.9977493793817814</v>
+        <v>0.9986097814422972</v>
       </c>
       <c r="F9">
-        <v>1.003926469778331</v>
+        <v>1.00234545378407</v>
       </c>
       <c r="G9">
-        <v>1.007736514915124</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="H9">
-        <v>1.007736514915124</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="I9">
-        <v>1.007736514915124</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="J9">
-        <v>1.002311537330295</v>
+        <v>1.00111024708763</v>
       </c>
       <c r="K9">
-        <v>0.9889478267409232</v>
+        <v>0.9933554444819432</v>
       </c>
       <c r="L9">
-        <v>0.9889478267409232</v>
+        <v>0.9933554444819432</v>
       </c>
       <c r="M9">
-        <v>0.9976942831919191</v>
+        <v>0.9984137033980711</v>
       </c>
       <c r="N9">
-        <v>1.007736514915124</v>
+        <v>1.005206367763223</v>
       </c>
       <c r="O9">
-        <v>1.002311537330295</v>
+        <v>1.00111024708763</v>
       </c>
       <c r="P9">
-        <v>0.9956296820356092</v>
+        <v>0.9972328457847868</v>
       </c>
       <c r="Q9">
-        <v>1.000030458356038</v>
+        <v>0.9998600142649637</v>
       </c>
       <c r="R9">
-        <v>0.9996652929954476</v>
+        <v>0.9998906864442655</v>
       </c>
       <c r="S9">
-        <v>0.9963362478176666</v>
+        <v>0.9976918243372902</v>
       </c>
       <c r="T9">
-        <v>0.9996652929954476</v>
+        <v>0.9998906864442655</v>
       </c>
       <c r="U9">
-        <v>0.999186314592031</v>
+        <v>0.9995704601937734</v>
       </c>
       <c r="V9">
-        <v>1.00089635465665</v>
+        <v>1.000697641707663</v>
       </c>
       <c r="W9">
-        <v>0.9992748867943795</v>
+        <v>0.9995787877481799</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8647019623300549</v>
+        <v>0.9995908427225836</v>
       </c>
       <c r="D10">
-        <v>1.050019599653323</v>
+        <v>1.000037408065874</v>
       </c>
       <c r="E10">
-        <v>0.9579776286451788</v>
+        <v>0.999889143050541</v>
       </c>
       <c r="F10">
-        <v>1.07772991875701</v>
+        <v>1.000275974535134</v>
       </c>
       <c r="G10">
-        <v>1.123336660879597</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="H10">
-        <v>1.123336660879597</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="I10">
-        <v>1.123336660879597</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="J10">
-        <v>1.058535706407588</v>
+        <v>1.000430831698937</v>
       </c>
       <c r="K10">
-        <v>0.7857369330583172</v>
+        <v>0.9992536943642569</v>
       </c>
       <c r="L10">
-        <v>0.7857369330583172</v>
+        <v>0.9992536943642569</v>
       </c>
       <c r="M10">
-        <v>0.9637939737915081</v>
+        <v>1.00004713193183</v>
       </c>
       <c r="N10">
-        <v>1.123336660879597</v>
+        <v>0.9999633877409899</v>
       </c>
       <c r="O10">
-        <v>1.058535706407588</v>
+        <v>1.000430831698937</v>
       </c>
       <c r="P10">
-        <v>0.9221363197329524</v>
+        <v>0.9998422630315968</v>
       </c>
       <c r="Q10">
-        <v>1.008256667526383</v>
+        <v>1.000159987374739</v>
       </c>
       <c r="R10">
-        <v>0.9892031001151672</v>
+        <v>0.999882637934728</v>
       </c>
       <c r="S10">
-        <v>0.9340834227036945</v>
+        <v>0.9998578897045783</v>
       </c>
       <c r="T10">
-        <v>0.9892031001151672</v>
+        <v>0.999882637934728</v>
       </c>
       <c r="U10">
-        <v>0.9813967322476701</v>
+        <v>0.9998842642136812</v>
       </c>
       <c r="V10">
-        <v>1.009784717974056</v>
+        <v>0.9999000889191428</v>
       </c>
       <c r="W10">
-        <v>0.9852290479403222</v>
+        <v>0.9999360517637683</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9744286329815139</v>
+        <v>0.9928934473304042</v>
       </c>
       <c r="D11">
-        <v>1.010175300396621</v>
+        <v>1.002939635686258</v>
       </c>
       <c r="E11">
-        <v>0.9914599240199787</v>
+        <v>0.9977493793817814</v>
       </c>
       <c r="F11">
-        <v>1.014578297186144</v>
+        <v>1.003926469778331</v>
       </c>
       <c r="G11">
-        <v>1.027278148582632</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="H11">
-        <v>1.027278148582632</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="I11">
-        <v>1.027278148582632</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="J11">
-        <v>1.009185580066964</v>
+        <v>1.002311537330295</v>
       </c>
       <c r="K11">
-        <v>0.9611920834050609</v>
+        <v>0.9889478267409232</v>
       </c>
       <c r="L11">
-        <v>0.9611920834050609</v>
+        <v>0.9889478267409232</v>
       </c>
       <c r="M11">
-        <v>0.9915620901401002</v>
+        <v>0.9976942831919191</v>
       </c>
       <c r="N11">
-        <v>1.027278148582632</v>
+        <v>1.007736514915124</v>
       </c>
       <c r="O11">
-        <v>1.009185580066964</v>
+        <v>1.002311537330295</v>
       </c>
       <c r="P11">
-        <v>0.9851888317360125</v>
+        <v>0.9956296820356092</v>
       </c>
       <c r="Q11">
-        <v>1.000322752043471</v>
+        <v>1.000030458356038</v>
       </c>
       <c r="R11">
-        <v>0.999218604018219</v>
+        <v>0.9996652929954476</v>
       </c>
       <c r="S11">
-        <v>0.9872791958306678</v>
+        <v>0.9963362478176666</v>
       </c>
       <c r="T11">
-        <v>0.999218604018219</v>
+        <v>0.9996652929954476</v>
       </c>
       <c r="U11">
-        <v>0.997278934018659</v>
+        <v>0.999186314592031</v>
       </c>
       <c r="V11">
-        <v>1.003278776931454</v>
+        <v>1.00089635465665</v>
       </c>
       <c r="W11">
-        <v>0.997482507097377</v>
+        <v>0.9992748867943795</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9588644561263165</v>
+        <v>0.8647019623300549</v>
       </c>
       <c r="D12">
-        <v>1.015121418021051</v>
+        <v>1.050019599653323</v>
       </c>
       <c r="E12">
-        <v>0.9871609159368416</v>
+        <v>0.9579776286451788</v>
       </c>
       <c r="F12">
-        <v>1.023630855821054</v>
+        <v>1.07772991875701</v>
       </c>
       <c r="G12">
-        <v>1.037569652694736</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="H12">
-        <v>1.037569652694736</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="I12">
-        <v>1.037569652694736</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="J12">
-        <v>1.017863796115789</v>
+        <v>1.058535706407588</v>
       </c>
       <c r="K12">
-        <v>0.9348606091578966</v>
+        <v>0.7857369330583172</v>
       </c>
       <c r="L12">
-        <v>0.9348606091578966</v>
+        <v>0.7857369330583172</v>
       </c>
       <c r="M12">
-        <v>0.9890501772421023</v>
+        <v>0.9637939737915081</v>
       </c>
       <c r="N12">
-        <v>1.037569652694736</v>
+        <v>1.123336660879597</v>
       </c>
       <c r="O12">
-        <v>1.017863796115789</v>
+        <v>1.058535706407588</v>
       </c>
       <c r="P12">
-        <v>0.9763622026368426</v>
+        <v>0.9221363197329524</v>
       </c>
       <c r="Q12">
-        <v>1.002512356026315</v>
+        <v>1.008256667526383</v>
       </c>
       <c r="R12">
-        <v>0.9967646859894739</v>
+        <v>0.9892031001151672</v>
       </c>
       <c r="S12">
-        <v>0.9799617737368423</v>
+        <v>0.9340834227036945</v>
       </c>
       <c r="T12">
-        <v>0.9967646859894739</v>
+        <v>0.9892031001151672</v>
       </c>
       <c r="U12">
-        <v>0.9943637434763158</v>
+        <v>0.9813967322476701</v>
       </c>
       <c r="V12">
-        <v>1.00300492532</v>
+        <v>1.009784717974056</v>
       </c>
       <c r="W12">
-        <v>0.9955152351394734</v>
+        <v>0.9852290479403222</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.026309605242784</v>
+        <v>0.9744286329815139</v>
       </c>
       <c r="D13">
-        <v>0.9903906743663404</v>
+        <v>1.010175300396621</v>
       </c>
       <c r="E13">
-        <v>1.009000987552644</v>
+        <v>0.9914599240199787</v>
       </c>
       <c r="F13">
-        <v>0.9846573295779896</v>
+        <v>1.014578297186144</v>
       </c>
       <c r="G13">
-        <v>0.9738885603896684</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="H13">
-        <v>0.9738885603896684</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="I13">
-        <v>0.9738885603896684</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="J13">
-        <v>0.9889162676662351</v>
+        <v>1.009185580066964</v>
       </c>
       <c r="K13">
-        <v>1.040043898904359</v>
+        <v>0.9611920834050609</v>
       </c>
       <c r="L13">
-        <v>1.040043898904359</v>
+        <v>0.9611920834050609</v>
       </c>
       <c r="M13">
-        <v>1.007872534423232</v>
+        <v>0.9915620901401002</v>
       </c>
       <c r="N13">
-        <v>0.9738885603896684</v>
+        <v>1.027278148582632</v>
       </c>
       <c r="O13">
-        <v>0.9889162676662351</v>
+        <v>1.009185580066964</v>
       </c>
       <c r="P13">
-        <v>1.014480083285297</v>
+        <v>0.9851888317360125</v>
       </c>
       <c r="Q13">
-        <v>0.9989586276094394</v>
+        <v>1.000322752043471</v>
       </c>
       <c r="R13">
-        <v>1.000949575653421</v>
+        <v>0.999218604018219</v>
       </c>
       <c r="S13">
-        <v>1.012653718041079</v>
+        <v>0.9872791958306678</v>
       </c>
       <c r="T13">
-        <v>1.000949575653421</v>
+        <v>0.999218604018219</v>
       </c>
       <c r="U13">
-        <v>1.002962428628227</v>
+        <v>0.997278934018659</v>
       </c>
       <c r="V13">
-        <v>0.9971476549805149</v>
+        <v>1.003278776931454</v>
       </c>
       <c r="W13">
-        <v>1.002634982265406</v>
+        <v>0.997482507097377</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7661465400000007</v>
+        <v>0.9588644561263165</v>
       </c>
       <c r="D14">
-        <v>1.086384</v>
+        <v>1.015121418021051</v>
       </c>
       <c r="E14">
-        <v>0.9274465600000004</v>
+        <v>0.9871609159368416</v>
       </c>
       <c r="F14">
-        <v>1.134413899999999</v>
+        <v>1.023630855821054</v>
       </c>
       <c r="G14">
-        <v>1.2125482</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="H14">
-        <v>1.2125482</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="I14">
-        <v>1.2125482</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="J14">
-        <v>1.101461</v>
+        <v>1.017863796115789</v>
       </c>
       <c r="K14">
-        <v>0.6295367399999994</v>
+        <v>0.9348606091578966</v>
       </c>
       <c r="L14">
-        <v>0.6295367399999994</v>
+        <v>0.9348606091578966</v>
       </c>
       <c r="M14">
-        <v>0.9375707100000013</v>
+        <v>0.9890501772421023</v>
       </c>
       <c r="N14">
-        <v>1.2125482</v>
+        <v>1.037569652694736</v>
       </c>
       <c r="O14">
-        <v>1.101461</v>
+        <v>1.017863796115789</v>
       </c>
       <c r="P14">
-        <v>0.8654988699999998</v>
+        <v>0.9763622026368426</v>
       </c>
       <c r="Q14">
-        <v>1.01445378</v>
+        <v>1.002512356026315</v>
       </c>
       <c r="R14">
-        <v>0.98118198</v>
+        <v>0.9967646859894739</v>
       </c>
       <c r="S14">
-        <v>0.8861481000000001</v>
+        <v>0.9799617737368423</v>
       </c>
       <c r="T14">
-        <v>0.98118198</v>
+        <v>0.9967646859894739</v>
       </c>
       <c r="U14">
-        <v>0.9677481250000001</v>
+        <v>0.9943637434763158</v>
       </c>
       <c r="V14">
-        <v>1.01670814</v>
+        <v>1.00300492532</v>
       </c>
       <c r="W14">
-        <v>0.9744384562500001</v>
+        <v>0.9955152351394734</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6583313200000001</v>
+        <v>1.026309605242784</v>
       </c>
       <c r="D15">
-        <v>1.18073</v>
+        <v>0.9903906743663404</v>
       </c>
       <c r="E15">
-        <v>0.89148061</v>
+        <v>1.009000987552644</v>
       </c>
       <c r="F15">
-        <v>1.17375</v>
+        <v>0.9846573295779896</v>
       </c>
       <c r="G15">
-        <v>1.4968021</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="H15">
-        <v>1.4968021</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="I15">
-        <v>1.4968021</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="J15">
-        <v>1.0272657</v>
+        <v>0.9889162676662351</v>
       </c>
       <c r="K15">
-        <v>0.49231373</v>
+        <v>1.040043898904359</v>
       </c>
       <c r="L15">
-        <v>0.49231373</v>
+        <v>1.040043898904359</v>
       </c>
       <c r="M15">
-        <v>0.84100944</v>
+        <v>1.007872534423232</v>
       </c>
       <c r="N15">
-        <v>1.4968021</v>
+        <v>0.9738885603896684</v>
       </c>
       <c r="O15">
-        <v>1.0272657</v>
+        <v>0.9889162676662351</v>
       </c>
       <c r="P15">
-        <v>0.759789715</v>
+        <v>1.014480083285297</v>
       </c>
       <c r="Q15">
-        <v>0.959373155</v>
+        <v>0.9989586276094394</v>
       </c>
       <c r="R15">
-        <v>1.00546051</v>
+        <v>1.000949575653421</v>
       </c>
       <c r="S15">
-        <v>0.8036866800000001</v>
+        <v>1.012653718041079</v>
       </c>
       <c r="T15">
-        <v>1.00546051</v>
+        <v>1.000949575653421</v>
       </c>
       <c r="U15">
-        <v>0.9769655349999999</v>
+        <v>1.002962428628227</v>
       </c>
       <c r="V15">
-        <v>1.080932848</v>
+        <v>0.9971476549805149</v>
       </c>
       <c r="W15">
-        <v>0.9702103625</v>
+        <v>1.002634982265406</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6511714400000002</v>
+        <v>0.7661465400000007</v>
       </c>
       <c r="D16">
-        <v>1.1452832</v>
+        <v>1.086384</v>
       </c>
       <c r="E16">
-        <v>0.88251422</v>
+        <v>0.9274465600000004</v>
       </c>
       <c r="F16">
-        <v>1.1958178</v>
+        <v>1.134413899999999</v>
       </c>
       <c r="G16">
-        <v>1.3979284</v>
+        <v>1.2125482</v>
       </c>
       <c r="H16">
-        <v>1.3979284</v>
+        <v>1.2125482</v>
       </c>
       <c r="I16">
-        <v>1.3979284</v>
+        <v>1.2125482</v>
       </c>
       <c r="J16">
-        <v>1.1096856</v>
+        <v>1.101461</v>
       </c>
       <c r="K16">
-        <v>0.47523274</v>
+        <v>0.6295367399999994</v>
       </c>
       <c r="L16">
-        <v>0.47523274</v>
+        <v>0.6295367399999994</v>
       </c>
       <c r="M16">
-        <v>0.87631784</v>
+        <v>0.9375707100000013</v>
       </c>
       <c r="N16">
-        <v>1.3979284</v>
+        <v>1.2125482</v>
       </c>
       <c r="O16">
-        <v>1.1096856</v>
+        <v>1.101461</v>
       </c>
       <c r="P16">
-        <v>0.79245917</v>
+        <v>0.8654988699999998</v>
       </c>
       <c r="Q16">
-        <v>0.99609991</v>
+        <v>1.01445378</v>
       </c>
       <c r="R16">
-        <v>0.9942822466666668</v>
+        <v>0.98118198</v>
       </c>
       <c r="S16">
-        <v>0.82247752</v>
+        <v>0.8861481000000001</v>
       </c>
       <c r="T16">
-        <v>0.9942822466666668</v>
+        <v>0.98118198</v>
       </c>
       <c r="U16">
-        <v>0.9663402400000001</v>
+        <v>0.9677481250000001</v>
       </c>
       <c r="V16">
-        <v>1.052657872</v>
+        <v>1.01670814</v>
       </c>
       <c r="W16">
-        <v>0.9667439050000001</v>
+        <v>0.9744384562500001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9211482600000001</v>
+        <v>0.6583313200000001</v>
       </c>
       <c r="D17">
-        <v>1.0552349</v>
+        <v>1.18073</v>
       </c>
       <c r="E17">
-        <v>0.97620666</v>
+        <v>0.89148061</v>
       </c>
       <c r="F17">
-        <v>1.0335032</v>
+        <v>1.17375</v>
       </c>
       <c r="G17">
-        <v>1.1570035</v>
+        <v>1.4968021</v>
       </c>
       <c r="H17">
-        <v>1.1570035</v>
+        <v>1.4968021</v>
       </c>
       <c r="I17">
-        <v>1.1570035</v>
+        <v>1.4968021</v>
       </c>
       <c r="J17">
-        <v>0.9766462199999999</v>
+        <v>1.0272657</v>
       </c>
       <c r="K17">
-        <v>0.88649467</v>
+        <v>0.49231373</v>
       </c>
       <c r="L17">
-        <v>0.88649467</v>
+        <v>0.49231373</v>
       </c>
       <c r="M17">
-        <v>0.94901121</v>
+        <v>0.84100944</v>
       </c>
       <c r="N17">
-        <v>1.1570035</v>
+        <v>1.4968021</v>
       </c>
       <c r="O17">
-        <v>0.9766462199999999</v>
+        <v>1.0272657</v>
       </c>
       <c r="P17">
-        <v>0.931570445</v>
+        <v>0.759789715</v>
       </c>
       <c r="Q17">
-        <v>0.97642644</v>
+        <v>0.959373155</v>
       </c>
       <c r="R17">
-        <v>1.006714796666667</v>
+        <v>1.00546051</v>
       </c>
       <c r="S17">
-        <v>0.9464491833333333</v>
+        <v>0.8036866800000001</v>
       </c>
       <c r="T17">
-        <v>1.006714796666667</v>
+        <v>1.00546051</v>
       </c>
       <c r="U17">
-        <v>0.9990877625000001</v>
+        <v>0.9769655349999999</v>
       </c>
       <c r="V17">
-        <v>1.03067091</v>
+        <v>1.080932848</v>
       </c>
       <c r="W17">
-        <v>0.9944060775000001</v>
+        <v>0.9702103625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9118363605479453</v>
+        <v>0.6511714400000002</v>
       </c>
       <c r="D18">
-        <v>1.037474967123288</v>
+        <v>1.1452832</v>
       </c>
       <c r="E18">
-        <v>0.9720023686301373</v>
+        <v>0.88251422</v>
       </c>
       <c r="F18">
-        <v>1.048321245479453</v>
+        <v>1.1958178</v>
       </c>
       <c r="G18">
-        <v>1.099441426575342</v>
+        <v>1.3979284</v>
       </c>
       <c r="H18">
-        <v>1.099441426575342</v>
+        <v>1.3979284</v>
       </c>
       <c r="I18">
-        <v>1.099441426575342</v>
+        <v>1.3979284</v>
       </c>
       <c r="J18">
-        <v>1.02645659150685</v>
+        <v>1.1096856</v>
       </c>
       <c r="K18">
-        <v>0.863598673287671</v>
+        <v>0.47523274</v>
       </c>
       <c r="L18">
-        <v>0.863598673287671</v>
+        <v>0.47523274</v>
       </c>
       <c r="M18">
-        <v>0.9700979501369863</v>
+        <v>0.87631784</v>
       </c>
       <c r="N18">
-        <v>1.099441426575342</v>
+        <v>1.3979284</v>
       </c>
       <c r="O18">
-        <v>1.02645659150685</v>
+        <v>1.1096856</v>
       </c>
       <c r="P18">
-        <v>0.9450276323972604</v>
+        <v>0.79245917</v>
       </c>
       <c r="Q18">
-        <v>0.9992294800684935</v>
+        <v>0.99609991</v>
       </c>
       <c r="R18">
-        <v>0.9964988971232879</v>
+        <v>0.9942822466666668</v>
       </c>
       <c r="S18">
-        <v>0.9540192111415527</v>
+        <v>0.82247752</v>
       </c>
       <c r="T18">
-        <v>0.9964988971232879</v>
+        <v>0.9942822466666668</v>
       </c>
       <c r="U18">
-        <v>0.9903747650000002</v>
+        <v>0.9663402400000001</v>
       </c>
       <c r="V18">
-        <v>1.012188097315069</v>
+        <v>1.052657872</v>
       </c>
       <c r="W18">
-        <v>0.9911536979109591</v>
+        <v>0.9667439050000001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8450153536842107</v>
+        <v>0.9211482600000001</v>
       </c>
       <c r="D19">
-        <v>1.046929290526316</v>
+        <v>1.0552349</v>
       </c>
       <c r="E19">
-        <v>0.950006320526316</v>
+        <v>0.97620666</v>
       </c>
       <c r="F19">
-        <v>1.093318578947369</v>
+        <v>1.0335032</v>
       </c>
       <c r="G19">
-        <v>1.114589452105263</v>
+        <v>1.1570035</v>
       </c>
       <c r="H19">
-        <v>1.114589452105263</v>
+        <v>1.1570035</v>
       </c>
       <c r="I19">
-        <v>1.114589452105263</v>
+        <v>1.1570035</v>
       </c>
       <c r="J19">
-        <v>1.087684413157895</v>
+        <v>0.9766462199999999</v>
       </c>
       <c r="K19">
-        <v>0.7521253289473684</v>
+        <v>0.88649467</v>
       </c>
       <c r="L19">
-        <v>0.7521253289473684</v>
+        <v>0.88649467</v>
       </c>
       <c r="M19">
-        <v>0.9689730052631579</v>
+        <v>0.94901121</v>
       </c>
       <c r="N19">
-        <v>1.114589452105263</v>
+        <v>1.1570035</v>
       </c>
       <c r="O19">
-        <v>1.087684413157895</v>
+        <v>0.9766462199999999</v>
       </c>
       <c r="P19">
-        <v>0.9199048710526316</v>
+        <v>0.931570445</v>
       </c>
       <c r="Q19">
-        <v>1.018845366842105</v>
+        <v>0.97642644</v>
       </c>
       <c r="R19">
-        <v>0.9847997314035087</v>
+        <v>1.006714796666667</v>
       </c>
       <c r="S19">
-        <v>0.9299386875438597</v>
+        <v>0.9464491833333333</v>
       </c>
       <c r="T19">
-        <v>0.9847997314035087</v>
+        <v>1.006714796666667</v>
       </c>
       <c r="U19">
-        <v>0.9761013786842105</v>
+        <v>0.9990877625000001</v>
       </c>
       <c r="V19">
-        <v>1.003798993368421</v>
+        <v>1.03067091</v>
       </c>
       <c r="W19">
-        <v>0.9823302178947368</v>
+        <v>0.9944060775000001</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8560286810526316</v>
+        <v>0.9118363605479453</v>
       </c>
       <c r="D20">
-        <v>1.05234356631579</v>
+        <v>1.037474967123288</v>
       </c>
       <c r="E20">
-        <v>0.9519814789473685</v>
+        <v>0.9720023686301373</v>
       </c>
       <c r="F20">
-        <v>1.083449540526316</v>
+        <v>1.048321245479453</v>
       </c>
       <c r="G20">
-        <v>1.13944183</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="H20">
-        <v>1.13944183</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="I20">
-        <v>1.13944183</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="J20">
-        <v>1.06147430368421</v>
+        <v>1.02645659150685</v>
       </c>
       <c r="K20">
-        <v>0.7777214068421053</v>
+        <v>0.863598673287671</v>
       </c>
       <c r="L20">
-        <v>0.7777214068421053</v>
+        <v>0.863598673287671</v>
       </c>
       <c r="M20">
-        <v>0.9588467189473684</v>
+        <v>0.9700979501369863</v>
       </c>
       <c r="N20">
-        <v>1.13944183</v>
+        <v>1.099441426575342</v>
       </c>
       <c r="O20">
-        <v>1.06147430368421</v>
+        <v>1.02645659150685</v>
       </c>
       <c r="P20">
-        <v>0.9195978552631578</v>
+        <v>0.9450276323972604</v>
       </c>
       <c r="Q20">
-        <v>1.00672789131579</v>
+        <v>0.9992294800684935</v>
       </c>
       <c r="R20">
-        <v>0.9928791801754385</v>
+        <v>0.9964988971232879</v>
       </c>
       <c r="S20">
-        <v>0.9303923964912281</v>
+        <v>0.9540192111415527</v>
       </c>
       <c r="T20">
-        <v>0.9928791801754387</v>
+        <v>0.9964988971232879</v>
       </c>
       <c r="U20">
-        <v>0.9826547548684211</v>
+        <v>0.9903747650000002</v>
       </c>
       <c r="V20">
-        <v>1.014012169894737</v>
+        <v>1.012188097315069</v>
       </c>
       <c r="W20">
-        <v>0.9851609407894737</v>
+        <v>0.9911536979109591</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9779897521645777</v>
+        <v>0.8450153536842107</v>
       </c>
       <c r="D21">
-        <v>0.9725594144423092</v>
+        <v>1.046929290526316</v>
       </c>
       <c r="E21">
-        <v>0.9935215584102146</v>
+        <v>0.950006320526316</v>
       </c>
       <c r="F21">
-        <v>1.027290050489767</v>
+        <v>1.093318578947369</v>
       </c>
       <c r="G21">
-        <v>0.9036654660435756</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="H21">
-        <v>0.9036654660435756</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="I21">
-        <v>0.9036654660435756</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="J21">
-        <v>1.086988736285105</v>
+        <v>1.087684413157895</v>
       </c>
       <c r="K21">
-        <v>0.9452405328414936</v>
+        <v>0.7521253289473684</v>
       </c>
       <c r="L21">
-        <v>0.9452405328414936</v>
+        <v>0.7521253289473684</v>
       </c>
       <c r="M21">
-        <v>1.037058679406568</v>
+        <v>0.9689730052631579</v>
       </c>
       <c r="N21">
-        <v>0.9036654660435756</v>
+        <v>1.114589452105263</v>
       </c>
       <c r="O21">
-        <v>1.086988736285105</v>
+        <v>1.087684413157895</v>
       </c>
       <c r="P21">
-        <v>1.016114634563299</v>
+        <v>0.9199048710526316</v>
       </c>
       <c r="Q21">
-        <v>1.04025514734766</v>
+        <v>1.018845366842105</v>
       </c>
       <c r="R21">
-        <v>0.978631578390058</v>
+        <v>0.9847997314035087</v>
       </c>
       <c r="S21">
-        <v>1.008583609178938</v>
+        <v>0.9299386875438597</v>
       </c>
       <c r="T21">
-        <v>0.978631578390058</v>
+        <v>0.9847997314035087</v>
       </c>
       <c r="U21">
-        <v>0.9823540733950971</v>
+        <v>0.9761013786842105</v>
       </c>
       <c r="V21">
-        <v>0.9666163519247928</v>
+        <v>1.003798993368421</v>
       </c>
       <c r="W21">
-        <v>0.9930392737604512</v>
+        <v>0.9823302178947368</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.009087550820412</v>
+        <v>0.8560286810526316</v>
       </c>
       <c r="D22">
-        <v>1.011090610839789</v>
+        <v>1.05234356631579</v>
       </c>
       <c r="E22">
-        <v>1.002261021031787</v>
+        <v>0.9519814789473685</v>
       </c>
       <c r="F22">
-        <v>0.9891305111134</v>
+        <v>1.083449540526316</v>
       </c>
       <c r="G22">
-        <v>1.039590635995852</v>
+        <v>1.13944183</v>
       </c>
       <c r="H22">
-        <v>1.039590635995852</v>
+        <v>1.13944183</v>
       </c>
       <c r="I22">
-        <v>1.039590635995852</v>
+        <v>1.13944183</v>
       </c>
       <c r="J22">
-        <v>0.9646500282427001</v>
+        <v>1.06147430368421</v>
       </c>
       <c r="K22">
-        <v>1.023633834190518</v>
+        <v>0.7777214068421053</v>
       </c>
       <c r="L22">
-        <v>1.023633834190518</v>
+        <v>0.7777214068421053</v>
       </c>
       <c r="M22">
-        <v>0.9843833678308225</v>
+        <v>0.9588467189473684</v>
       </c>
       <c r="N22">
-        <v>1.039590635995852</v>
+        <v>1.13944183</v>
       </c>
       <c r="O22">
-        <v>0.9646500282427001</v>
+        <v>1.06147430368421</v>
       </c>
       <c r="P22">
-        <v>0.9941419312166091</v>
+        <v>0.9195978552631578</v>
       </c>
       <c r="Q22">
-        <v>0.9834555246372436</v>
+        <v>1.00672789131579</v>
       </c>
       <c r="R22">
-        <v>1.009291499476357</v>
+        <v>0.9928791801754385</v>
       </c>
       <c r="S22">
-        <v>0.9968482944883351</v>
+        <v>0.9303923964912281</v>
       </c>
       <c r="T22">
-        <v>1.009291499476357</v>
+        <v>0.9928791801754387</v>
       </c>
       <c r="U22">
-        <v>1.007533879865214</v>
+        <v>0.9826547548684211</v>
       </c>
       <c r="V22">
-        <v>1.013945231091342</v>
+        <v>1.014012169894737</v>
       </c>
       <c r="W22">
-        <v>1.00297844500816</v>
+        <v>0.9851609407894737</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.061015223892475</v>
+        <v>0.9779897521645777</v>
       </c>
       <c r="D23">
-        <v>0.9883576925373623</v>
+        <v>0.9725594144423092</v>
       </c>
       <c r="E23">
-        <v>1.01953218452695</v>
+        <v>0.9935215584102146</v>
       </c>
       <c r="F23">
-        <v>0.9604670925591248</v>
+        <v>1.027290050489767</v>
       </c>
       <c r="G23">
-        <v>0.9774863424794616</v>
+        <v>0.9036654660435756</v>
       </c>
       <c r="H23">
-        <v>0.9774863424794616</v>
+        <v>0.9036654660435756</v>
       </c>
       <c r="I23">
-        <v>0.9774863424794616</v>
+        <v>0.9036654660435756</v>
       </c>
       <c r="J23">
-        <v>0.9505485569072475</v>
+        <v>1.086988736285105</v>
       </c>
       <c r="K23">
-        <v>1.101572376839192</v>
+        <v>0.9452405328414936</v>
       </c>
       <c r="L23">
-        <v>1.101572376839192</v>
+        <v>0.9452405328414936</v>
       </c>
       <c r="M23">
-        <v>1.003871022553245</v>
+        <v>1.037058679406568</v>
       </c>
       <c r="N23">
-        <v>0.9774863424794616</v>
+        <v>0.9036654660435756</v>
       </c>
       <c r="O23">
-        <v>0.9505485569072475</v>
+        <v>1.086988736285105</v>
       </c>
       <c r="P23">
-        <v>1.02606046687322</v>
+        <v>1.016114634563299</v>
       </c>
       <c r="Q23">
-        <v>0.9850403707170985</v>
+        <v>1.04025514734766</v>
       </c>
       <c r="R23">
-        <v>1.0098690920753</v>
+        <v>0.978631578390058</v>
       </c>
       <c r="S23">
-        <v>1.023884372757796</v>
+        <v>1.008583609178938</v>
       </c>
       <c r="T23">
-        <v>1.0098690920753</v>
+        <v>0.978631578390058</v>
       </c>
       <c r="U23">
-        <v>1.012284865188213</v>
+        <v>0.9823540733950971</v>
       </c>
       <c r="V23">
-        <v>1.005325160646462</v>
+        <v>0.9666163519247928</v>
       </c>
       <c r="W23">
-        <v>1.007856311536882</v>
+        <v>0.9930392737604512</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.010762408490879</v>
+        <v>1.009087550820412</v>
       </c>
       <c r="D24">
-        <v>0.991123002894932</v>
+        <v>1.011090610839789</v>
       </c>
       <c r="E24">
-        <v>1.004237912811714</v>
+        <v>1.002261021031787</v>
       </c>
       <c r="F24">
-        <v>0.9954697511380092</v>
+        <v>0.9891305111134</v>
       </c>
       <c r="G24">
-        <v>0.9721750893580196</v>
+        <v>1.039590635995852</v>
       </c>
       <c r="H24">
-        <v>0.9721750893580196</v>
+        <v>1.039590635995852</v>
       </c>
       <c r="I24">
-        <v>0.9721750893580196</v>
+        <v>1.039590635995852</v>
       </c>
       <c r="J24">
-        <v>1.006294907412056</v>
+        <v>0.9646500282427001</v>
       </c>
       <c r="K24">
-        <v>1.01231569420085</v>
+        <v>1.023633834190518</v>
       </c>
       <c r="L24">
-        <v>1.01231569420085</v>
+        <v>1.023633834190518</v>
       </c>
       <c r="M24">
-        <v>1.009885077154758</v>
+        <v>0.9843833678308225</v>
       </c>
       <c r="N24">
-        <v>0.9721750893580196</v>
+        <v>1.039590635995852</v>
       </c>
       <c r="O24">
-        <v>1.006294907412056</v>
+        <v>0.9646500282427001</v>
       </c>
       <c r="P24">
-        <v>1.009305300806453</v>
+        <v>0.9941419312166091</v>
       </c>
       <c r="Q24">
-        <v>1.005266410111885</v>
+        <v>0.9834555246372436</v>
       </c>
       <c r="R24">
-        <v>0.9969285636569752</v>
+        <v>1.009291499476357</v>
       </c>
       <c r="S24">
-        <v>1.007616171474873</v>
+        <v>0.9968482944883351</v>
       </c>
       <c r="T24">
-        <v>0.9969285636569752</v>
+        <v>1.009291499476357</v>
       </c>
       <c r="U24">
-        <v>0.9987559009456598</v>
+        <v>1.007533879865214</v>
       </c>
       <c r="V24">
-        <v>0.9934397386281317</v>
+        <v>1.013945231091342</v>
       </c>
       <c r="W24">
-        <v>1.000282980432652</v>
+        <v>1.00297844500816</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.024354237784133</v>
+        <v>1.061015223892475</v>
       </c>
       <c r="D25">
-        <v>1.009165702589806</v>
+        <v>0.9883576925373623</v>
       </c>
       <c r="E25">
-        <v>1.007826130835538</v>
+        <v>1.01953218452695</v>
       </c>
       <c r="F25">
-        <v>0.9784023001841605</v>
+        <v>0.9604670925591248</v>
       </c>
       <c r="G25">
-        <v>1.035996124611592</v>
+        <v>0.9774863424794616</v>
       </c>
       <c r="H25">
-        <v>1.035996124611592</v>
+        <v>0.9774863424794616</v>
       </c>
       <c r="I25">
-        <v>1.035996124611592</v>
+        <v>0.9774863424794616</v>
       </c>
       <c r="J25">
-        <v>0.9501507975638165</v>
+        <v>0.9505485569072475</v>
       </c>
       <c r="K25">
-        <v>1.047783829100062</v>
+        <v>1.101572376839192</v>
       </c>
       <c r="L25">
-        <v>1.047783829100062</v>
+        <v>1.101572376839192</v>
       </c>
       <c r="M25">
-        <v>0.9851218459344659</v>
+        <v>1.003871022553245</v>
       </c>
       <c r="N25">
-        <v>1.035996124611592</v>
+        <v>0.9774863424794616</v>
       </c>
       <c r="O25">
-        <v>0.9501507975638165</v>
+        <v>0.9505485569072475</v>
       </c>
       <c r="P25">
-        <v>0.998967313331939</v>
+        <v>1.02606046687322</v>
       </c>
       <c r="Q25">
-        <v>0.9789884641996773</v>
+        <v>0.9850403707170985</v>
       </c>
       <c r="R25">
-        <v>1.011310250425157</v>
+        <v>1.0098690920753</v>
       </c>
       <c r="S25">
-        <v>1.001920252499805</v>
+        <v>1.023884372757796</v>
       </c>
       <c r="T25">
-        <v>1.011310250425157</v>
+        <v>1.0098690920753</v>
       </c>
       <c r="U25">
-        <v>1.010439220527752</v>
+        <v>1.012284865188213</v>
       </c>
       <c r="V25">
-        <v>1.01555060134452</v>
+        <v>1.005325160646462</v>
       </c>
       <c r="W25">
-        <v>1.004850121075447</v>
+        <v>1.007856311536882</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9987019027101262</v>
+        <v>1.010762408490879</v>
       </c>
       <c r="D26">
-        <v>0.9930179049394807</v>
+        <v>0.991123002894932</v>
       </c>
       <c r="E26">
-        <v>0.9997582894149605</v>
+        <v>1.004237912811714</v>
       </c>
       <c r="F26">
-        <v>1.003818753634487</v>
+        <v>0.9954697511380092</v>
       </c>
       <c r="G26">
-        <v>0.9764456626545051</v>
+        <v>0.9721750893580196</v>
       </c>
       <c r="H26">
-        <v>0.9764456626545051</v>
+        <v>0.9721750893580196</v>
       </c>
       <c r="I26">
-        <v>0.9764456626545051</v>
+        <v>0.9721750893580196</v>
       </c>
       <c r="J26">
-        <v>1.016897751659487</v>
+        <v>1.006294907412056</v>
       </c>
       <c r="K26">
-        <v>0.9936242476884437</v>
+        <v>1.01231569420085</v>
       </c>
       <c r="L26">
-        <v>0.9936242476884437</v>
+        <v>1.01231569420085</v>
       </c>
       <c r="M26">
-        <v>1.008750775400914</v>
+        <v>1.009885077154758</v>
       </c>
       <c r="N26">
-        <v>0.9764456626545051</v>
+        <v>0.9721750893580196</v>
       </c>
       <c r="O26">
-        <v>1.016897751659487</v>
+        <v>1.006294907412056</v>
       </c>
       <c r="P26">
-        <v>1.005260999673965</v>
+        <v>1.009305300806453</v>
       </c>
       <c r="Q26">
-        <v>1.008328020537224</v>
+        <v>1.005266410111885</v>
       </c>
       <c r="R26">
-        <v>0.9956558873341453</v>
+        <v>0.9969285636569752</v>
       </c>
       <c r="S26">
-        <v>1.003426762920964</v>
+        <v>1.007616171474873</v>
       </c>
       <c r="T26">
-        <v>0.9956558873341453</v>
+        <v>0.9969285636569752</v>
       </c>
       <c r="U26">
-        <v>0.9966814878543491</v>
+        <v>0.9987559009456598</v>
       </c>
       <c r="V26">
-        <v>0.9926343228143804</v>
+        <v>0.9934397386281317</v>
       </c>
       <c r="W26">
-        <v>0.9988769110128006</v>
+        <v>1.000282980432652</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9864095597086094</v>
+        <v>1.024354237784133</v>
       </c>
       <c r="D27">
-        <v>1.004465760934798</v>
+        <v>1.009165702589806</v>
       </c>
       <c r="E27">
-        <v>0.9942167148167914</v>
+        <v>1.007826130835538</v>
       </c>
       <c r="F27">
-        <v>1.008418048197232</v>
+        <v>0.9784023001841605</v>
       </c>
       <c r="G27">
-        <v>1.01517020067205</v>
+        <v>1.035996124611592</v>
       </c>
       <c r="H27">
-        <v>1.01517020067205</v>
+        <v>1.035996124611592</v>
       </c>
       <c r="I27">
-        <v>1.01517020067205</v>
+        <v>1.035996124611592</v>
       </c>
       <c r="J27">
-        <v>1.006114277827225</v>
+        <v>0.9501507975638165</v>
       </c>
       <c r="K27">
-        <v>0.9814111755390243</v>
+        <v>1.047783829100062</v>
       </c>
       <c r="L27">
-        <v>0.9814111755390243</v>
+        <v>1.047783829100062</v>
       </c>
       <c r="M27">
-        <v>0.9951764845428002</v>
+        <v>0.9851218459344659</v>
       </c>
       <c r="N27">
-        <v>1.01517020067205</v>
+        <v>1.035996124611592</v>
       </c>
       <c r="O27">
-        <v>1.006114277827225</v>
+        <v>0.9501507975638165</v>
       </c>
       <c r="P27">
-        <v>0.9937627266831246</v>
+        <v>0.998967313331939</v>
       </c>
       <c r="Q27">
-        <v>1.000165496322008</v>
+        <v>0.9789884641996773</v>
       </c>
       <c r="R27">
-        <v>1.0008985513461</v>
+        <v>1.011310250425157</v>
       </c>
       <c r="S27">
-        <v>0.9939140560610135</v>
+        <v>1.001920252499805</v>
       </c>
       <c r="T27">
-        <v>1.0008985513461</v>
+        <v>1.011310250425157</v>
       </c>
       <c r="U27">
-        <v>0.9992280922137727</v>
+        <v>1.010439220527752</v>
       </c>
       <c r="V27">
-        <v>1.002416513905428</v>
+        <v>1.01555060134452</v>
       </c>
       <c r="W27">
-        <v>0.9989227777798164</v>
+        <v>1.004850121075447</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9861938476492004</v>
+        <v>0.9987019027101262</v>
       </c>
       <c r="D28">
-        <v>1.006525837140883</v>
+        <v>0.9930179049394807</v>
       </c>
       <c r="E28">
-        <v>0.9949370721856597</v>
+        <v>0.9997582894149605</v>
       </c>
       <c r="F28">
-        <v>1.007447021785411</v>
+        <v>1.003818753634487</v>
       </c>
       <c r="G28">
-        <v>1.019737100303413</v>
+        <v>0.9764456626545051</v>
       </c>
       <c r="H28">
-        <v>1.019737100303413</v>
+        <v>0.9764456626545051</v>
       </c>
       <c r="I28">
-        <v>1.019737100303413</v>
+        <v>0.9764456626545051</v>
       </c>
       <c r="J28">
-        <v>1.002271846630113</v>
+        <v>1.016897751659487</v>
       </c>
       <c r="K28">
-        <v>0.980380593131008</v>
+        <v>0.9936242476884437</v>
       </c>
       <c r="L28">
-        <v>0.980380593131008</v>
+        <v>0.9936242476884437</v>
       </c>
       <c r="M28">
-        <v>0.993733045051218</v>
+        <v>1.008750775400914</v>
       </c>
       <c r="N28">
-        <v>1.019737100303413</v>
+        <v>0.9764456626545051</v>
       </c>
       <c r="O28">
-        <v>1.002271846630113</v>
+        <v>1.016897751659487</v>
       </c>
       <c r="P28">
-        <v>0.9913262198805604</v>
+        <v>1.005260999673965</v>
       </c>
       <c r="Q28">
-        <v>0.9986044594078862</v>
+        <v>1.008328020537224</v>
       </c>
       <c r="R28">
-        <v>1.000796513354844</v>
+        <v>0.9956558873341453</v>
       </c>
       <c r="S28">
-        <v>0.9925298373155935</v>
+        <v>1.003426762920964</v>
       </c>
       <c r="T28">
-        <v>1.000796513354844</v>
+        <v>0.9956558873341453</v>
       </c>
       <c r="U28">
-        <v>0.9993316530625483</v>
+        <v>0.9966814878543491</v>
       </c>
       <c r="V28">
-        <v>1.003412742510721</v>
+        <v>0.9926343228143804</v>
       </c>
       <c r="W28">
-        <v>0.9989032954846133</v>
+        <v>0.9988769110128006</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9864095597086094</v>
+      </c>
+      <c r="D29">
+        <v>1.004465760934798</v>
+      </c>
+      <c r="E29">
+        <v>0.9942167148167914</v>
+      </c>
+      <c r="F29">
+        <v>1.008418048197232</v>
+      </c>
+      <c r="G29">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="H29">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="I29">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="J29">
+        <v>1.006114277827225</v>
+      </c>
+      <c r="K29">
+        <v>0.9814111755390243</v>
+      </c>
+      <c r="L29">
+        <v>0.9814111755390243</v>
+      </c>
+      <c r="M29">
+        <v>0.9951764845428002</v>
+      </c>
+      <c r="N29">
+        <v>1.01517020067205</v>
+      </c>
+      <c r="O29">
+        <v>1.006114277827225</v>
+      </c>
+      <c r="P29">
+        <v>0.9937627266831246</v>
+      </c>
+      <c r="Q29">
+        <v>1.000165496322008</v>
+      </c>
+      <c r="R29">
+        <v>1.0008985513461</v>
+      </c>
+      <c r="S29">
+        <v>0.9939140560610135</v>
+      </c>
+      <c r="T29">
+        <v>1.0008985513461</v>
+      </c>
+      <c r="U29">
+        <v>0.9992280922137727</v>
+      </c>
+      <c r="V29">
+        <v>1.002416513905428</v>
+      </c>
+      <c r="W29">
+        <v>0.9989227777798164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9861938476492004</v>
+      </c>
+      <c r="D30">
+        <v>1.006525837140883</v>
+      </c>
+      <c r="E30">
+        <v>0.9949370721856597</v>
+      </c>
+      <c r="F30">
+        <v>1.007447021785411</v>
+      </c>
+      <c r="G30">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="H30">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="I30">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="J30">
+        <v>1.002271846630113</v>
+      </c>
+      <c r="K30">
+        <v>0.980380593131008</v>
+      </c>
+      <c r="L30">
+        <v>0.980380593131008</v>
+      </c>
+      <c r="M30">
+        <v>0.993733045051218</v>
+      </c>
+      <c r="N30">
+        <v>1.019737100303413</v>
+      </c>
+      <c r="O30">
+        <v>1.002271846630113</v>
+      </c>
+      <c r="P30">
+        <v>0.9913262198805604</v>
+      </c>
+      <c r="Q30">
+        <v>0.9986044594078862</v>
+      </c>
+      <c r="R30">
+        <v>1.000796513354844</v>
+      </c>
+      <c r="S30">
+        <v>0.9925298373155935</v>
+      </c>
+      <c r="T30">
+        <v>1.000796513354844</v>
+      </c>
+      <c r="U30">
+        <v>0.9993316530625483</v>
+      </c>
+      <c r="V30">
+        <v>1.003412742510721</v>
+      </c>
+      <c r="W30">
+        <v>0.9989032954846133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.033016524101079</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9977918195238739</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.01231391029145</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9762618108376264</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9966744298902452</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9966744298902452</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9966744298902452</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9650977461090136</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.053212537867362</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.053212537867362</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.999402234986245</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9966744298902452</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9650977461090136</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.009155141988188</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9887058282002317</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.004994904622207</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.010208064755942</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.004994904622207</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.006824656039518</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.004794610809663</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.004221376700862</v>
       </c>
     </row>
